--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="777">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.3.1</t>
+    <t>5.4.0</t>
   </si>
   <si>
     <r>
@@ -2211,6 +2211,9 @@
     <t>if (../DIRECTIVE/@VALUE='2014/24/EU' or ../DIRECTIVE/@VALUE='2014/25/EU' or ../LEGAL_BASIS/@VALUE='32014L0024' or ../LEGAL_BASIS/@VALUE='32014L0025' or ../LEGAL_BASIS/@VALUE='32018R1046' or contains(../LEGAL_BASIS_OTHER, '24/EU') or contains(../LEGAL_BASIS_OTHER, 'L0024') or contains(../LEGAL_BASIS_OTHER, '25/EU') or contains(../LEGAL_BASIS_OTHER, 'L0025'))</t>
   </si>
   <si>
+    <t>epo:Contract / xsd:date</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2253,7 +2256,7 @@
     <t>if (../DIRECTIVE/@VALUE='2014/23/EU' or ../LEGAL_BASIS/@VALUE='32014L0023' or contains(../LEGAL_BASIS_OTHER, '23/EU') or contains(../LEGAL_BASIS_OTHER, 'L0023'))</t>
   </si>
   <si>
-    <t>epo:LotAwardOutcome / rdf:langString</t>
+    <t>epo:LotAwardOutcome / xsd:date</t>
   </si>
   <si>
     <r>
@@ -3822,7 +3825,7 @@
     <t>COMPLEMENTARY_INFO/DATE_DISPATCH_NOTICE</t>
   </si>
   <si>
-    <t>epo:Notice</t>
+    <t>epo:Notice / xsd:date</t>
   </si>
   <si>
     <r>
@@ -5356,7 +5359,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5429,11 +5432,11 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -5443,9 +5446,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -5758,9 +5758,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -9300,25 +9297,25 @@
       <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="28"/>
@@ -9338,20 +9335,20 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="4"/>
@@ -9366,18 +9363,18 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="7"/>
@@ -9390,22 +9387,22 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="36" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="4"/>
@@ -9420,26 +9417,26 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="4"/>
@@ -9454,26 +9451,26 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="45" t="s">
         <v>68</v>
       </c>
       <c r="I7" s="4"/>
@@ -9488,10 +9485,10 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -9507,7 +9504,7 @@
       <c r="G8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>75</v>
       </c>
       <c r="I8" s="4"/>
@@ -9522,10 +9519,10 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -9541,7 +9538,7 @@
       <c r="G9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>81</v>
       </c>
       <c r="I9" s="4"/>
@@ -9556,16 +9553,16 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="36" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -9574,10 +9571,10 @@
       <c r="F10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="49" t="s">
         <v>89</v>
       </c>
       <c r="I10" s="4"/>
@@ -9592,10 +9589,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -9611,7 +9608,7 @@
       <c r="G11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="39" t="s">
         <v>96</v>
       </c>
       <c r="I11" s="4"/>
@@ -9626,26 +9623,26 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="45" t="s">
         <v>103</v>
       </c>
       <c r="I12" s="4"/>
@@ -9660,10 +9657,10 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>105</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -9676,10 +9673,10 @@
         <v>108</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="49" t="s">
         <v>110</v>
       </c>
       <c r="I13" s="4"/>
@@ -9694,10 +9691,10 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -9710,10 +9707,10 @@
         <v>115</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>116</v>
       </c>
       <c r="I14" s="4"/>
@@ -9728,10 +9725,10 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -9744,10 +9741,10 @@
         <v>121</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="49" t="s">
         <v>123</v>
       </c>
       <c r="I15" s="4"/>
@@ -9762,10 +9759,10 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>125</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -9778,10 +9775,10 @@
         <v>128</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="49" t="s">
         <v>129</v>
       </c>
       <c r="I16" s="4"/>
@@ -9796,10 +9793,10 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="4"/>
@@ -9820,26 +9817,26 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="46" t="s">
+      <c r="F18" s="43"/>
+      <c r="G18" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="45" t="s">
         <v>137</v>
       </c>
       <c r="I18" s="4"/>
@@ -9854,10 +9851,10 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="55" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -9873,7 +9870,7 @@
       <c r="G19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="49" t="s">
         <v>144</v>
       </c>
       <c r="I19" s="4"/>
@@ -9888,10 +9885,10 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="56" t="s">
         <v>146</v>
       </c>
       <c r="C20" s="4"/>
@@ -9912,15 +9909,15 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>148</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -9936,10 +9933,10 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -9974,52 +9971,52 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46" t="s">
+      <c r="F23" s="45"/>
+      <c r="G23" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
     </row>
     <row r="24">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>163</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -10035,33 +10032,33 @@
       <c r="G24" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="40" t="s">
         <v>168</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
     </row>
     <row r="25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="55" t="s">
         <v>170</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -10092,10 +10089,10 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>176</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -10111,7 +10108,7 @@
       <c r="G26" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="39" t="s">
         <v>181</v>
       </c>
       <c r="I26" s="4"/>
@@ -10126,15 +10123,15 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="60" t="s">
         <v>183</v>
       </c>
       <c r="F27" s="4"/>
@@ -10156,26 +10153,26 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="37" t="s">
+      <c r="F28" s="49"/>
+      <c r="G28" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="49" t="s">
         <v>189</v>
       </c>
       <c r="I28" s="4"/>
@@ -10190,52 +10187,52 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="37" t="s">
+      <c r="F29" s="49"/>
+      <c r="G29" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="49" t="s">
         <v>196</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
     </row>
     <row r="30">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>198</v>
       </c>
       <c r="C30" s="4"/>
@@ -10256,10 +10253,10 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="55" t="s">
         <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -10290,10 +10287,10 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="55" t="s">
         <v>170</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -10324,10 +10321,10 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>207</v>
       </c>
       <c r="C33" s="4"/>
@@ -10348,10 +10345,10 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="55" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -10366,10 +10363,10 @@
       <c r="F34" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="61" t="s">
         <v>214</v>
       </c>
       <c r="I34" s="4"/>
@@ -10384,16 +10381,16 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="36" t="s">
         <v>218</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -10409,43 +10406,43 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
     </row>
     <row r="36">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="60" t="s">
         <v>225</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="63" t="s">
+      <c r="H36" s="62" t="s">
         <v>226</v>
       </c>
       <c r="I36" s="7"/>
@@ -10460,10 +10457,10 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="63" t="s">
         <v>228</v>
       </c>
       <c r="C37" s="7"/>
@@ -10484,31 +10481,31 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68" t="s">
+      <c r="F38" s="67"/>
+      <c r="G38" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="H38" s="68" t="s">
+      <c r="H38" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="69"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="68"/>
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
@@ -10518,27 +10515,27 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="G39" s="68" t="s">
+      <c r="G39" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="H39" s="68" t="s">
+      <c r="H39" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="69"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="68"/>
       <c r="L39" s="28"/>
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
@@ -10548,69 +10545,69 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="61" t="s">
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="F40" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="G40" s="68" t="s">
+      <c r="G40" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="H40" s="68" t="s">
+      <c r="H40" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="60"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="60"/>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="60"/>
-      <c r="Z40" s="60"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
     </row>
     <row r="41">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="E41" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68" t="s">
+      <c r="F41" s="67"/>
+      <c r="G41" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="H41" s="68" t="s">
+      <c r="H41" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="69"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="68"/>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
@@ -10620,26 +10617,26 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E42" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68" t="s">
+      <c r="F42" s="67"/>
+      <c r="G42" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="H42" s="68" t="s">
+      <c r="H42" s="67" t="s">
         <v>256</v>
       </c>
       <c r="I42" s="7"/>
@@ -10654,24 +10651,24 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -10684,24 +10681,24 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -10714,10 +10711,10 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="47" t="s">
         <v>264</v>
       </c>
       <c r="C45" s="4"/>
@@ -10738,26 +10735,26 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="73" t="s">
         <v>266</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="D46" s="75" t="s">
+      <c r="D46" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="E46" s="75" t="s">
+      <c r="E46" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="75" t="s">
+      <c r="F46" s="75"/>
+      <c r="G46" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="H46" s="77" t="s">
+      <c r="H46" s="76" t="s">
         <v>271</v>
       </c>
       <c r="I46" s="7"/>
@@ -10772,26 +10769,26 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="78" t="s">
+      <c r="A47" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="D47" s="81" t="s">
+      <c r="D47" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="50" t="s">
+      <c r="F47" s="39"/>
+      <c r="G47" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="H47" s="51" t="s">
+      <c r="H47" s="50" t="s">
         <v>273</v>
       </c>
       <c r="I47" s="4"/>
@@ -10806,26 +10803,26 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50" t="s">
+      <c r="F48" s="49"/>
+      <c r="G48" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="H48" s="82" t="s">
+      <c r="H48" s="81" t="s">
         <v>280</v>
       </c>
       <c r="I48" s="4"/>
@@ -10840,44 +10837,44 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="82" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="56" t="s">
         <v>282</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="39" t="s">
         <v>283</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="60"/>
-      <c r="V49" s="60"/>
-      <c r="W49" s="60"/>
-      <c r="X49" s="60"/>
-      <c r="Y49" s="60"/>
-      <c r="Z49" s="60"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="59"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="59"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="59"/>
     </row>
     <row r="50">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="38" t="s">
         <v>285</v>
       </c>
       <c r="C50" s="4"/>
@@ -10898,22 +10895,22 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="61" t="s">
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="41" t="s">
+      <c r="F51" s="36"/>
+      <c r="G51" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="H51" s="85" t="s">
+      <c r="H51" s="84" t="s">
         <v>290</v>
       </c>
       <c r="I51" s="7"/>
@@ -10928,24 +10925,24 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="86" t="s">
+      <c r="A52" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="86" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="61" t="s">
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="H52" s="85" t="s">
+      <c r="H52" s="84" t="s">
         <v>296</v>
       </c>
       <c r="I52" s="7"/>
@@ -10962,15 +10959,15 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="82" t="s">
         <v>291</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>298</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="88" t="s">
+      <c r="E53" s="87" t="s">
         <v>293</v>
       </c>
       <c r="F53" s="4"/>
@@ -10992,22 +10989,22 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="D54" s="75" t="s">
+      <c r="D54" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="49" t="s">
         <v>294</v>
       </c>
       <c r="G54" s="7" t="s">
@@ -11028,28 +11025,28 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="74" t="s">
         <v>310</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="F55" s="50" t="s">
+      <c r="F55" s="49" t="s">
         <v>294</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="32" t="s">
         <v>313</v>
       </c>
       <c r="I55" s="7"/>
@@ -11064,10 +11061,10 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="84" t="s">
+      <c r="A56" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="38" t="s">
         <v>298</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -11090,20 +11087,20 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="50"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="61" t="s">
+      <c r="E57" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37" t="s">
+      <c r="F57" s="36"/>
+      <c r="G57" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="H57" s="50" t="s">
+      <c r="H57" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I57" s="7"/>
@@ -11118,20 +11115,20 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="50"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="61" t="s">
+      <c r="E58" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37" t="s">
+      <c r="F58" s="36"/>
+      <c r="G58" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="H58" s="50" t="s">
+      <c r="H58" s="49" t="s">
         <v>321</v>
       </c>
       <c r="I58" s="7"/>
@@ -11146,29 +11143,29 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="D59" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="E59" s="61" t="s">
+      <c r="E59" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="F59" s="40" t="s">
+      <c r="F59" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="G59" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="H59" s="41" t="s">
+      <c r="G59" s="39" t="s">
         <v>328</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>329</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -11182,29 +11179,29 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="D60" s="75" t="s">
+      <c r="D60" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="E60" s="61" t="s">
+      <c r="E60" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="F60" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="G60" s="4" t="s">
+      <c r="F60" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="H60" s="40" t="s">
+      <c r="G60" s="39" t="s">
         <v>331</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>332</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -11218,23 +11215,23 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="B61" s="48" t="s">
+      <c r="A61" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="61" t="s">
+      <c r="B61" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="F61" s="90"/>
-      <c r="G61" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="H61" s="37" t="s">
+      <c r="F61" s="89"/>
+      <c r="G61" s="49" t="s">
         <v>335</v>
+      </c>
+      <c r="H61" s="36" t="s">
+        <v>336</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -11248,25 +11245,25 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="B62" s="56" t="s">
+      <c r="A62" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="C62" s="91" t="s">
+      <c r="B62" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="D62" s="75"/>
-      <c r="E62" s="50" t="s">
+      <c r="C62" s="90" t="s">
         <v>339</v>
       </c>
-      <c r="F62" s="76"/>
-      <c r="G62" s="37" t="s">
+      <c r="D62" s="74"/>
+      <c r="E62" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="H62" s="50" t="s">
+      <c r="F62" s="75"/>
+      <c r="G62" s="36" t="s">
         <v>341</v>
+      </c>
+      <c r="H62" s="49" t="s">
+        <v>342</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -11280,20 +11277,20 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="B63" s="48" t="s">
+      <c r="A63" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="C63" s="92" t="s">
+      <c r="B63" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="C63" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -11306,22 +11303,22 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="65" t="s">
-        <v>344</v>
-      </c>
-      <c r="B64" s="56" t="s">
+      <c r="A64" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
+      <c r="B64" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
@@ -11332,27 +11329,27 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B65" s="56" t="s">
+      <c r="A65" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="F65" s="75"/>
-      <c r="G65" s="94" t="s">
+      <c r="E65" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="F65" s="74"/>
+      <c r="G65" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="94" t="s">
-        <v>349</v>
+      <c r="H65" s="93" t="s">
+        <v>350</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -11366,27 +11363,27 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="B66" s="56" t="s">
+      <c r="A66" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="B66" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="50" t="s">
+      <c r="D66" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="F66" s="50"/>
-      <c r="G66" s="46" t="s">
+      <c r="E66" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="F66" s="49"/>
+      <c r="G66" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="H66" s="46" t="s">
-        <v>352</v>
+      <c r="H66" s="45" t="s">
+        <v>353</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -11400,27 +11397,27 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="65" t="s">
-        <v>353</v>
-      </c>
-      <c r="B67" s="56" t="s">
+      <c r="A67" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="B67" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="37" t="s">
+      <c r="C67" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="50" t="s">
+      <c r="D67" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="50" t="s">
-        <v>354</v>
-      </c>
-      <c r="F67" s="50"/>
+      <c r="E67" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="F67" s="49"/>
       <c r="G67" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="40" t="s">
-        <v>355</v>
+      <c r="H67" s="39" t="s">
+        <v>356</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -11434,27 +11431,27 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B68" s="56" t="s">
+      <c r="A68" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="B68" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E68" s="75" t="s">
-        <v>357</v>
-      </c>
-      <c r="F68" s="75"/>
+      <c r="E68" s="74" t="s">
+        <v>358</v>
+      </c>
+      <c r="F68" s="74"/>
       <c r="G68" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="76" t="s">
-        <v>358</v>
+      <c r="H68" s="75" t="s">
+        <v>359</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -11468,29 +11465,29 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="65" t="s">
-        <v>359</v>
-      </c>
-      <c r="B69" s="56" t="s">
+      <c r="A69" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="B69" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="50" t="s">
+      <c r="D69" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="E69" s="40" t="s">
-        <v>360</v>
-      </c>
-      <c r="F69" s="40" t="s">
+      <c r="E69" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="G69" s="37" t="s">
+      <c r="F69" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="G69" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="H69" s="50" t="s">
-        <v>362</v>
+      <c r="H69" s="49" t="s">
+        <v>363</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -11504,27 +11501,27 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="B70" s="56" t="s">
+      <c r="A70" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B70" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="E70" s="50" t="s">
+      <c r="D70" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="F70" s="50"/>
+      <c r="E70" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="F70" s="49"/>
       <c r="G70" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H70" s="40" t="s">
-        <v>366</v>
+      <c r="H70" s="39" t="s">
+        <v>367</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -11538,27 +11535,27 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="65" t="s">
-        <v>367</v>
-      </c>
-      <c r="B71" s="56" t="s">
+      <c r="A71" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C71" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="50" t="s">
+      <c r="D71" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="F71" s="50"/>
-      <c r="G71" s="44" t="s">
+      <c r="E71" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="F71" s="49"/>
+      <c r="G71" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H71" s="44" t="s">
-        <v>369</v>
+      <c r="H71" s="43" t="s">
+        <v>370</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -11572,27 +11569,27 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="B72" s="56" t="s">
+      <c r="A72" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="B72" s="55" t="s">
         <v>118</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D72" s="75" t="s">
+      <c r="D72" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="50" t="s">
-        <v>371</v>
-      </c>
-      <c r="F72" s="75"/>
-      <c r="G72" s="50" t="s">
+      <c r="E72" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="H72" s="50" t="s">
+      <c r="F72" s="74"/>
+      <c r="G72" s="49" t="s">
         <v>373</v>
+      </c>
+      <c r="H72" s="49" t="s">
+        <v>374</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -11606,27 +11603,27 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="B73" s="56" t="s">
+      <c r="A73" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B73" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D73" s="50" t="s">
+      <c r="D73" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="E73" s="50" t="s">
-        <v>375</v>
-      </c>
-      <c r="F73" s="75"/>
-      <c r="G73" s="50" t="s">
+      <c r="E73" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="H73" s="95" t="s">
+      <c r="F73" s="74"/>
+      <c r="G73" s="49" t="s">
         <v>377</v>
+      </c>
+      <c r="H73" s="94" t="s">
+        <v>378</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -11640,27 +11637,27 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="B74" s="56" t="s">
+      <c r="A74" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="B74" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C74" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D74" s="50" t="s">
+      <c r="D74" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="E74" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="F74" s="50"/>
-      <c r="G74" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="H74" s="46" t="s">
+      <c r="E74" s="49" t="s">
         <v>381</v>
+      </c>
+      <c r="F74" s="49"/>
+      <c r="G74" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>382</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -11674,27 +11671,27 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="B75" s="56" t="s">
+      <c r="A75" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="B75" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D75" s="50" t="s">
+      <c r="D75" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="E75" s="50" t="s">
-        <v>383</v>
-      </c>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="H75" s="50" t="s">
+      <c r="E75" s="49" t="s">
         <v>384</v>
+      </c>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="H75" s="49" t="s">
+        <v>385</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -11708,27 +11705,27 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="65" t="s">
-        <v>385</v>
-      </c>
-      <c r="B76" s="56" t="s">
+      <c r="A76" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="B76" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="D76" s="50" t="s">
+      <c r="C76" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E76" s="50" t="s">
+      <c r="D76" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="F76" s="40"/>
+      <c r="E76" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="F76" s="39"/>
       <c r="G76" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="H76" s="96" t="s">
         <v>391</v>
+      </c>
+      <c r="H76" s="95" t="s">
+        <v>392</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -11744,17 +11741,17 @@
     <row r="77">
       <c r="A77" s="19"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="61" t="s">
-        <v>389</v>
-      </c>
-      <c r="F77" s="76"/>
-      <c r="G77" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="H77" s="44" t="s">
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="F77" s="75"/>
+      <c r="G77" s="43" t="s">
         <v>393</v>
+      </c>
+      <c r="H77" s="43" t="s">
+        <v>394</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -11768,11 +11765,11 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="B78" s="48" t="s">
+      <c r="A78" s="48" t="s">
         <v>395</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>396</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>315</v>
@@ -11794,22 +11791,22 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="B79" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="C79" s="93"/>
-      <c r="D79" s="93"/>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="93"/>
-      <c r="H79" s="93"/>
+      <c r="A79" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
@@ -11820,27 +11817,27 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="65" t="s">
-        <v>397</v>
-      </c>
-      <c r="B80" s="56" t="s">
+      <c r="A80" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="C80" s="50" t="s">
+      <c r="B80" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="D80" s="50" t="s">
+      <c r="C80" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="E80" s="50" t="s">
+      <c r="D80" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="F80" s="50"/>
+      <c r="E80" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="F80" s="49"/>
       <c r="G80" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="H80" s="40" t="s">
         <v>403</v>
+      </c>
+      <c r="H80" s="39" t="s">
+        <v>404</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
@@ -11854,25 +11851,25 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="70" t="s">
-        <v>404</v>
-      </c>
-      <c r="B81" s="97" t="s">
+      <c r="A81" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="C81" s="98" t="s">
+      <c r="B81" s="96" t="s">
         <v>406</v>
       </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50" t="s">
+      <c r="C81" s="97" t="s">
         <v>407</v>
       </c>
-      <c r="F81" s="75"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="F81" s="74"/>
       <c r="G81" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="H81" s="40" t="s">
         <v>409</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>410</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -11886,11 +11883,11 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="83" t="s">
-        <v>410</v>
-      </c>
-      <c r="B82" s="35" t="s">
+      <c r="A82" s="82" t="s">
         <v>411</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>412</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -11910,27 +11907,27 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="84" t="s">
-        <v>412</v>
-      </c>
-      <c r="B83" s="39" t="s">
+      <c r="A83" s="83" t="s">
         <v>413</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="B83" s="38" t="s">
         <v>414</v>
       </c>
+      <c r="C83" s="49" t="s">
+        <v>415</v>
+      </c>
       <c r="D83" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E83" s="99" t="s">
         <v>416</v>
       </c>
-      <c r="F83" s="99"/>
-      <c r="G83" s="100" t="s">
+      <c r="E83" s="98" t="s">
+        <v>417</v>
+      </c>
+      <c r="F83" s="98"/>
+      <c r="G83" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="H83" s="101" t="s">
-        <v>417</v>
+      <c r="H83" s="100" t="s">
+        <v>418</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -11944,18 +11941,18 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="84" t="s">
-        <v>418</v>
-      </c>
-      <c r="B84" s="39" t="s">
+      <c r="A84" s="83" t="s">
         <v>419</v>
       </c>
-      <c r="C84" s="92" t="s">
+      <c r="B84" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="C84" s="91" t="s">
         <v>315</v>
       </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="102"/>
-      <c r="F84" s="102"/>
+      <c r="E84" s="101"/>
+      <c r="F84" s="101"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="7"/>
@@ -11970,25 +11967,25 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="B85" s="48" t="s">
+      <c r="A85" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="C85" s="103" t="s">
+      <c r="B85" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="C85" s="102" t="s">
         <v>315</v>
       </c>
       <c r="D85" s="4"/>
-      <c r="E85" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="37" t="s">
+      <c r="E85" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="F85" s="49"/>
+      <c r="G85" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H85" s="37" t="s">
-        <v>423</v>
+      <c r="H85" s="36" t="s">
+        <v>424</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -12002,27 +11999,27 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="B86" s="56" t="s">
+      <c r="A86" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="B86" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C86" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E86" s="99" t="s">
-        <v>425</v>
-      </c>
-      <c r="F86" s="99"/>
-      <c r="G86" s="40" t="s">
+      <c r="E86" s="98" t="s">
+        <v>426</v>
+      </c>
+      <c r="F86" s="98"/>
+      <c r="G86" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H86" s="40" t="s">
-        <v>426</v>
+      <c r="H86" s="39" t="s">
+        <v>427</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -12036,822 +12033,822 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="65" t="s">
-        <v>427</v>
-      </c>
-      <c r="B87" s="56" t="s">
+      <c r="A87" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="B87" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E87" s="99" t="s">
-        <v>428</v>
-      </c>
-      <c r="F87" s="99"/>
-      <c r="G87" s="76" t="s">
+      <c r="E87" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="F87" s="98"/>
+      <c r="G87" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="H87" s="76" t="s">
-        <v>429</v>
+      <c r="H87" s="75" t="s">
+        <v>430</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="65" t="s">
-        <v>430</v>
-      </c>
-      <c r="B88" s="56" t="s">
+      <c r="A88" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="B88" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="40" t="s">
+      <c r="E88" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="F88" s="49"/>
+      <c r="G88" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="H88" s="40" t="s">
-        <v>432</v>
+      <c r="H88" s="39" t="s">
+        <v>433</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="65" t="s">
-        <v>433</v>
-      </c>
-      <c r="B89" s="56" t="s">
+      <c r="A89" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="B89" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="E89" s="50" t="s">
-        <v>434</v>
-      </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="40" t="s">
+      <c r="D89" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="E89" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="H89" s="40" t="s">
+      <c r="F89" s="49"/>
+      <c r="G89" s="39" t="s">
         <v>436</v>
+      </c>
+      <c r="H89" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="65" t="s">
-        <v>437</v>
-      </c>
-      <c r="B90" s="56" t="s">
+      <c r="A90" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="B90" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="50" t="s">
+      <c r="C90" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="50" t="s">
+      <c r="D90" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E90" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50" t="s">
+      <c r="E90" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="H90" s="50" t="s">
-        <v>439</v>
+      <c r="H90" s="49" t="s">
+        <v>440</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="65" t="s">
-        <v>440</v>
-      </c>
-      <c r="B91" s="56" t="s">
+      <c r="A91" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="75" t="s">
+      <c r="C91" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="D91" s="75" t="s">
+      <c r="D91" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E91" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="F91" s="75"/>
-      <c r="G91" s="50" t="s">
-        <v>372</v>
-      </c>
-      <c r="H91" s="50" t="s">
+      <c r="E91" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="F91" s="74"/>
+      <c r="G91" s="49" t="s">
         <v>373</v>
+      </c>
+      <c r="H91" s="49" t="s">
+        <v>374</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="65" t="s">
-        <v>442</v>
-      </c>
-      <c r="B92" s="56" t="s">
+      <c r="A92" s="64" t="s">
+        <v>443</v>
+      </c>
+      <c r="B92" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C92" s="75" t="s">
+      <c r="C92" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="D92" s="75" t="s">
+      <c r="D92" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="E92" s="75" t="s">
-        <v>443</v>
-      </c>
-      <c r="F92" s="75"/>
-      <c r="G92" s="75" t="s">
-        <v>376</v>
-      </c>
-      <c r="H92" s="75" t="s">
+      <c r="E92" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="F92" s="74"/>
+      <c r="G92" s="74" t="s">
         <v>377</v>
+      </c>
+      <c r="H92" s="74" t="s">
+        <v>378</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="65" t="s">
-        <v>444</v>
-      </c>
-      <c r="B93" s="56" t="s">
-        <v>379</v>
-      </c>
-      <c r="C93" s="75" t="s">
+      <c r="A93" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="B93" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C93" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="D93" s="75" t="s">
+      <c r="D93" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E93" s="75" t="s">
-        <v>445</v>
-      </c>
-      <c r="F93" s="75"/>
-      <c r="G93" s="104" t="s">
-        <v>372</v>
-      </c>
-      <c r="H93" s="104" t="s">
+      <c r="E93" s="74" t="s">
         <v>446</v>
+      </c>
+      <c r="F93" s="74"/>
+      <c r="G93" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="H93" s="103" t="s">
+        <v>447</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="65" t="s">
-        <v>447</v>
-      </c>
-      <c r="B94" s="56" t="s">
+      <c r="A94" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="B94" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C94" s="50" t="s">
+      <c r="C94" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="E94" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="H94" s="50" t="s">
-        <v>384</v>
+      <c r="E94" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="H94" s="49" t="s">
+        <v>385</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="B95" s="48" t="s">
+      <c r="A95" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="C95" s="103" t="s">
+      <c r="B95" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="C95" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="D95" s="105"/>
-      <c r="E95" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37" t="s">
+      <c r="D95" s="104"/>
+      <c r="E95" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="H95" s="106" t="s">
-        <v>423</v>
+      <c r="F95" s="49"/>
+      <c r="G95" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="H95" s="105" t="s">
+        <v>424</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="65" t="s">
-        <v>453</v>
-      </c>
-      <c r="B96" s="56" t="s">
+      <c r="A96" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="B96" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C96" s="50" t="s">
+      <c r="C96" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="50" t="s">
+      <c r="D96" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="50" t="s">
-        <v>454</v>
-      </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="40" t="s">
+      <c r="E96" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="F96" s="49"/>
+      <c r="G96" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H96" s="107" t="s">
-        <v>455</v>
+      <c r="H96" s="106" t="s">
+        <v>456</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="65" t="s">
-        <v>456</v>
-      </c>
-      <c r="B97" s="56" t="s">
+      <c r="A97" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="B97" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C97" s="50" t="s">
+      <c r="C97" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E97" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="40" t="s">
+      <c r="E97" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="H97" s="40" t="s">
-        <v>458</v>
+      <c r="H97" s="39" t="s">
+        <v>459</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="65" t="s">
-        <v>459</v>
-      </c>
-      <c r="B98" s="56" t="s">
+      <c r="A98" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="B98" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C98" s="50" t="s">
+      <c r="C98" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D98" s="50" t="s">
+      <c r="D98" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E98" s="50" t="s">
-        <v>460</v>
-      </c>
-      <c r="F98" s="50"/>
-      <c r="G98" s="40" t="s">
+      <c r="E98" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="F98" s="49"/>
+      <c r="G98" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="H98" s="40" t="s">
-        <v>461</v>
+      <c r="H98" s="39" t="s">
+        <v>462</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="B99" s="56" t="s">
+      <c r="A99" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="B99" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C99" s="50" t="s">
+      <c r="C99" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D99" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="E99" s="50" t="s">
-        <v>463</v>
-      </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="40" t="s">
+      <c r="D99" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="F99" s="49"/>
+      <c r="G99" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="H99" s="40" t="s">
-        <v>464</v>
+      <c r="H99" s="39" t="s">
+        <v>465</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="65" t="s">
-        <v>465</v>
-      </c>
-      <c r="B100" s="56" t="s">
+      <c r="A100" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="B100" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E100" s="50" t="s">
-        <v>466</v>
-      </c>
-      <c r="F100" s="50"/>
-      <c r="G100" s="40" t="s">
+      <c r="E100" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="F100" s="49"/>
+      <c r="G100" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="H100" s="40" t="s">
-        <v>467</v>
+      <c r="H100" s="39" t="s">
+        <v>468</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="65" t="s">
-        <v>468</v>
-      </c>
-      <c r="B101" s="56" t="s">
+      <c r="A101" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="B101" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C101" s="50" t="s">
+      <c r="C101" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D101" s="50" t="s">
+      <c r="D101" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="E101" s="50" t="s">
-        <v>469</v>
-      </c>
-      <c r="F101" s="50"/>
-      <c r="G101" s="50" t="s">
-        <v>372</v>
-      </c>
-      <c r="H101" s="50" t="s">
+      <c r="E101" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49" t="s">
         <v>373</v>
+      </c>
+      <c r="H101" s="49" t="s">
+        <v>374</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="B102" s="56" t="s">
+      <c r="A102" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="B102" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C102" s="50" t="s">
+      <c r="C102" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="E102" s="50" t="s">
-        <v>471</v>
-      </c>
-      <c r="F102" s="50"/>
-      <c r="G102" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="H102" s="95" t="s">
+      <c r="E102" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49" t="s">
         <v>377</v>
+      </c>
+      <c r="H102" s="94" t="s">
+        <v>378</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="65" t="s">
-        <v>472</v>
-      </c>
-      <c r="B103" s="56" t="s">
-        <v>379</v>
-      </c>
-      <c r="C103" s="50" t="s">
+      <c r="A103" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="B103" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C103" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="E103" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="F103" s="50"/>
-      <c r="G103" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="H103" s="108" t="s">
+      <c r="E103" s="49" t="s">
         <v>474</v>
+      </c>
+      <c r="F103" s="49"/>
+      <c r="G103" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="H103" s="107" t="s">
+        <v>475</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="65" t="s">
-        <v>475</v>
-      </c>
-      <c r="B104" s="56" t="s">
+      <c r="A104" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="B104" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C104" s="50" t="s">
+      <c r="C104" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="50" t="s">
+      <c r="D104" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="E104" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F104" s="50"/>
-      <c r="G104" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="H104" s="95" t="s">
-        <v>384</v>
+      <c r="E104" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="H104" s="94" t="s">
+        <v>385</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="49" t="s">
-        <v>477</v>
-      </c>
-      <c r="B105" s="48" t="s">
+      <c r="A105" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="C105" s="50" t="s">
+      <c r="B105" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="C105" s="49" t="s">
         <v>480</v>
       </c>
-      <c r="E105" s="50" t="s">
+      <c r="D105" s="49" t="s">
         <v>481</v>
       </c>
-      <c r="F105" s="50"/>
-      <c r="G105" s="100" t="s">
+      <c r="E105" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="H105" s="101" t="s">
+      <c r="F105" s="49"/>
+      <c r="G105" s="99" t="s">
         <v>483</v>
+      </c>
+      <c r="H105" s="100" t="s">
+        <v>484</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="B106" s="48" t="s">
+      <c r="A106" s="48" t="s">
         <v>485</v>
+      </c>
+      <c r="B106" s="47" t="s">
+        <v>486</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="76" t="s">
-        <v>486</v>
-      </c>
-      <c r="F106" s="14"/>
+      <c r="E106" s="75" t="s">
+        <v>487</v>
+      </c>
+      <c r="F106" s="74"/>
       <c r="G106" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H106" s="109" t="s">
-        <v>423</v>
+      <c r="H106" s="108" t="s">
+        <v>424</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="65" t="s">
-        <v>487</v>
-      </c>
-      <c r="B107" s="56" t="s">
+      <c r="A107" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="B107" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="50" t="s">
+      <c r="C107" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D107" s="50" t="s">
+      <c r="D107" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E107" s="50" t="s">
-        <v>488</v>
-      </c>
-      <c r="F107" s="50"/>
-      <c r="G107" s="40" t="s">
+      <c r="E107" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="F107" s="49"/>
+      <c r="G107" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H107" s="40" t="s">
-        <v>489</v>
+      <c r="H107" s="39" t="s">
+        <v>490</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="B108" s="56" t="s">
+      <c r="A108" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="B108" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C108" s="50" t="s">
+      <c r="C108" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D108" s="50" t="s">
+      <c r="D108" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E108" s="50" t="s">
-        <v>491</v>
-      </c>
-      <c r="F108" s="50"/>
-      <c r="G108" s="40" t="s">
+      <c r="E108" s="49" t="s">
+        <v>492</v>
+      </c>
+      <c r="F108" s="49"/>
+      <c r="G108" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="H108" s="40" t="s">
-        <v>492</v>
+      <c r="H108" s="39" t="s">
+        <v>493</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="B109" s="56" t="s">
+      <c r="A109" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="B109" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="50" t="s">
+      <c r="C109" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D109" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="E109" s="75" t="s">
-        <v>494</v>
-      </c>
-      <c r="F109" s="75"/>
-      <c r="G109" s="76" t="s">
+      <c r="E109" s="74" t="s">
+        <v>495</v>
+      </c>
+      <c r="F109" s="74"/>
+      <c r="G109" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="H109" s="110" t="s">
-        <v>495</v>
+      <c r="H109" s="109" t="s">
+        <v>496</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="65" t="s">
-        <v>496</v>
-      </c>
-      <c r="B110" s="56" t="s">
+      <c r="A110" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="B110" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C110" s="50" t="s">
+      <c r="C110" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D110" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="E110" s="50" t="s">
-        <v>497</v>
-      </c>
-      <c r="F110" s="50"/>
-      <c r="G110" s="40" t="s">
+      <c r="D110" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="E110" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="F110" s="49"/>
+      <c r="G110" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="H110" s="40" t="s">
-        <v>498</v>
+      <c r="H110" s="39" t="s">
+        <v>499</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="65" t="s">
-        <v>499</v>
-      </c>
-      <c r="B111" s="56" t="s">
+      <c r="A111" s="64" t="s">
+        <v>500</v>
+      </c>
+      <c r="B111" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D111" s="50" t="s">
+      <c r="D111" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E111" s="99" t="s">
-        <v>500</v>
-      </c>
-      <c r="F111" s="99"/>
-      <c r="G111" s="50" t="s">
+      <c r="E111" s="98" t="s">
+        <v>501</v>
+      </c>
+      <c r="F111" s="98"/>
+      <c r="G111" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="H111" s="50" t="s">
-        <v>501</v>
+      <c r="H111" s="49" t="s">
+        <v>502</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="B112" s="56" t="s">
+      <c r="A112" s="64" t="s">
+        <v>503</v>
+      </c>
+      <c r="B112" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C112" s="75" t="s">
+      <c r="C112" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="D112" s="75" t="s">
+      <c r="D112" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E112" s="75" t="s">
-        <v>503</v>
-      </c>
-      <c r="F112" s="75"/>
-      <c r="G112" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="H112" s="75" t="s">
+      <c r="E112" s="74" t="s">
+        <v>504</v>
+      </c>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74" t="s">
         <v>373</v>
+      </c>
+      <c r="H112" s="74" t="s">
+        <v>374</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="65" t="s">
-        <v>504</v>
-      </c>
-      <c r="B113" s="56" t="s">
+      <c r="A113" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="B113" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="50" t="s">
+      <c r="C113" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D113" s="50" t="s">
+      <c r="D113" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="E113" s="50" t="s">
-        <v>505</v>
-      </c>
-      <c r="F113" s="50"/>
-      <c r="G113" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="H113" s="50" t="s">
+      <c r="E113" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49" t="s">
         <v>377</v>
+      </c>
+      <c r="H113" s="49" t="s">
+        <v>378</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="65" t="s">
-        <v>506</v>
-      </c>
-      <c r="B114" s="56" t="s">
-        <v>379</v>
-      </c>
-      <c r="C114" s="50" t="s">
+      <c r="A114" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="B114" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C114" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D114" s="50" t="s">
+      <c r="D114" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="E114" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="F114" s="50"/>
-      <c r="G114" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="H114" s="46" t="s">
+      <c r="E114" s="49" t="s">
         <v>508</v>
+      </c>
+      <c r="F114" s="49"/>
+      <c r="G114" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="H114" s="45" t="s">
+        <v>509</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="65" t="s">
-        <v>509</v>
-      </c>
-      <c r="B115" s="56" t="s">
+      <c r="A115" s="64" t="s">
+        <v>510</v>
+      </c>
+      <c r="B115" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C115" s="50" t="s">
+      <c r="C115" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="D115" s="50" t="s">
+      <c r="D115" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="50" t="s">
-        <v>510</v>
-      </c>
-      <c r="F115" s="50"/>
-      <c r="G115" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="H115" s="50" t="s">
-        <v>384</v>
+      <c r="E115" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="H115" s="49" t="s">
+        <v>385</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="84" t="s">
-        <v>511</v>
-      </c>
-      <c r="B116" s="39" t="s">
+      <c r="A116" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="C116" s="111" t="s">
+      <c r="B116" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="D116" s="111" t="s">
+      <c r="C116" s="110" t="s">
         <v>514</v>
       </c>
-      <c r="E116" s="112" t="s">
+      <c r="D116" s="110" t="s">
         <v>515</v>
       </c>
-      <c r="F116" s="112"/>
-      <c r="G116" s="40" t="s">
+      <c r="E116" s="111" t="s">
         <v>516</v>
       </c>
-      <c r="H116" s="113" t="s">
+      <c r="F116" s="111"/>
+      <c r="G116" s="39" t="s">
         <v>517</v>
+      </c>
+      <c r="H116" s="112" t="s">
+        <v>518</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="83" t="s">
-        <v>518</v>
-      </c>
-      <c r="B117" s="35" t="s">
+      <c r="A117" s="82" t="s">
         <v>519</v>
       </c>
-      <c r="C117" s="114" t="s">
+      <c r="B117" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="C117" s="113" t="s">
         <v>315</v>
       </c>
-      <c r="D117" s="114"/>
-      <c r="E117" s="112"/>
-      <c r="F117" s="112"/>
+      <c r="D117" s="113"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="111"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="7"/>
@@ -12859,18 +12856,18 @@
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="84" t="s">
-        <v>520</v>
-      </c>
-      <c r="B118" s="39" t="s">
+      <c r="A118" s="83" t="s">
         <v>521</v>
       </c>
-      <c r="C118" s="114" t="s">
+      <c r="B118" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="C118" s="113" t="s">
         <v>315</v>
       </c>
-      <c r="D118" s="111"/>
-      <c r="E118" s="115"/>
-      <c r="F118" s="115"/>
+      <c r="D118" s="110"/>
+      <c r="E118" s="114"/>
+      <c r="F118" s="114"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
@@ -12878,39 +12875,39 @@
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="49" t="s">
-        <v>522</v>
-      </c>
-      <c r="B119" s="48" t="s">
+      <c r="A119" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="B119" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="C119" s="114" t="s">
+      <c r="C119" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="D119" s="114" t="s">
+      <c r="D119" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="E119" s="116" t="s">
-        <v>523</v>
-      </c>
-      <c r="F119" s="116"/>
+      <c r="E119" s="115" t="s">
+        <v>524</v>
+      </c>
+      <c r="F119" s="115"/>
       <c r="G119" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H119" s="41" t="s">
+      <c r="H119" s="40" t="s">
         <v>168</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
-      <c r="K119" s="110" t="s">
-        <v>524</v>
+      <c r="K119" s="109" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="65" t="s">
-        <v>525</v>
-      </c>
-      <c r="B120" s="56" t="s">
+      <c r="A120" s="64" t="s">
+        <v>526</v>
+      </c>
+      <c r="B120" s="55" t="s">
         <v>170</v>
       </c>
       <c r="C120" s="7" t="s">
@@ -12919,10 +12916,10 @@
       <c r="D120" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E120" s="116" t="s">
-        <v>526</v>
-      </c>
-      <c r="F120" s="116"/>
+      <c r="E120" s="115" t="s">
+        <v>527</v>
+      </c>
+      <c r="F120" s="115"/>
       <c r="G120" s="4" t="s">
         <v>174</v>
       </c>
@@ -12934,18 +12931,18 @@
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="49" t="s">
-        <v>527</v>
-      </c>
-      <c r="B121" s="48" t="s">
+      <c r="A121" s="48" t="s">
+        <v>528</v>
+      </c>
+      <c r="B121" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C121" s="111" t="s">
+      <c r="C121" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="D121" s="111"/>
-      <c r="E121" s="116"/>
-      <c r="F121" s="116"/>
+      <c r="D121" s="110"/>
+      <c r="E121" s="115"/>
+      <c r="F121" s="115"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="7"/>
@@ -12953,22 +12950,22 @@
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="65" t="s">
-        <v>528</v>
-      </c>
-      <c r="B122" s="56" t="s">
+      <c r="A122" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="B122" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="C122" s="111" t="s">
+      <c r="C122" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="D122" s="111" t="s">
+      <c r="D122" s="110" t="s">
         <v>165</v>
       </c>
-      <c r="E122" s="112" t="s">
-        <v>529</v>
-      </c>
-      <c r="F122" s="112"/>
+      <c r="E122" s="111" t="s">
+        <v>530</v>
+      </c>
+      <c r="F122" s="111"/>
       <c r="G122" s="4" t="s">
         <v>201</v>
       </c>
@@ -12977,15 +12974,15 @@
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
-      <c r="K122" s="110" t="s">
-        <v>530</v>
+      <c r="K122" s="109" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="65" t="s">
-        <v>531</v>
-      </c>
-      <c r="B123" s="56" t="s">
+      <c r="A123" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="B123" s="55" t="s">
         <v>170</v>
       </c>
       <c r="C123" s="7" t="s">
@@ -12994,10 +12991,10 @@
       <c r="D123" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E123" s="112" t="s">
-        <v>532</v>
-      </c>
-      <c r="F123" s="112"/>
+      <c r="E123" s="111" t="s">
+        <v>533</v>
+      </c>
+      <c r="F123" s="111"/>
       <c r="G123" s="4" t="s">
         <v>205</v>
       </c>
@@ -13009,18 +13006,18 @@
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="49" t="s">
-        <v>533</v>
-      </c>
-      <c r="B124" s="48" t="s">
+      <c r="A124" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="B124" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="C124" s="111" t="s">
+      <c r="C124" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="D124" s="111"/>
-      <c r="E124" s="116"/>
-      <c r="F124" s="116"/>
+      <c r="D124" s="110"/>
+      <c r="E124" s="115"/>
+      <c r="F124" s="115"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="7"/>
@@ -13028,49 +13025,49 @@
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="65" t="s">
-        <v>534</v>
-      </c>
-      <c r="B125" s="56" t="s">
+      <c r="A125" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="B125" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C125" s="111" t="s">
+      <c r="C125" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="D125" s="111" t="s">
+      <c r="D125" s="110" t="s">
         <v>210</v>
       </c>
-      <c r="E125" s="116" t="s">
-        <v>535</v>
-      </c>
-      <c r="F125" s="116" t="s">
+      <c r="E125" s="115" t="s">
         <v>536</v>
       </c>
-      <c r="G125" s="37" t="s">
+      <c r="F125" s="115" t="s">
+        <v>537</v>
+      </c>
+      <c r="G125" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="H125" s="117" t="s">
-        <v>537</v>
+      <c r="H125" s="116" t="s">
+        <v>538</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="65" t="s">
-        <v>538</v>
-      </c>
-      <c r="B126" s="56" t="s">
+      <c r="A126" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="B126" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C126" s="75" t="s">
+      <c r="C126" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D126" s="75" t="s">
+      <c r="D126" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E126" s="115" t="s">
-        <v>539</v>
+      <c r="E126" s="114" t="s">
+        <v>540</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14" t="s">
@@ -13084,45 +13081,45 @@
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="B127" s="48" t="s">
+      <c r="A127" s="48" t="s">
         <v>541</v>
       </c>
-      <c r="C127" s="111" t="s">
+      <c r="B127" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C127" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="D127" s="111" t="s">
+      <c r="D127" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E127" s="115" t="s">
-        <v>542</v>
-      </c>
-      <c r="F127" s="115"/>
+      <c r="E127" s="114" t="s">
+        <v>543</v>
+      </c>
+      <c r="F127" s="114"/>
       <c r="G127" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H127" s="63" t="s">
-        <v>543</v>
+      <c r="H127" s="62" t="s">
+        <v>544</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="49" t="s">
-        <v>544</v>
-      </c>
-      <c r="B128" s="48" t="s">
+      <c r="A128" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="B128" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="C128" s="111" t="s">
+      <c r="C128" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="D128" s="111"/>
-      <c r="E128" s="116"/>
-      <c r="F128" s="116"/>
+      <c r="D128" s="110"/>
+      <c r="E128" s="115"/>
+      <c r="F128" s="115"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="7"/>
@@ -13130,26 +13127,26 @@
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="65" t="s">
-        <v>545</v>
-      </c>
-      <c r="B129" s="56" t="s">
+      <c r="A129" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="B129" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="C129" s="111" t="s">
+      <c r="C129" s="110" t="s">
         <v>231</v>
       </c>
-      <c r="D129" s="111" t="s">
+      <c r="D129" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="E129" s="116" t="s">
-        <v>546</v>
+      <c r="E129" s="115" t="s">
+        <v>547</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H129" s="118" t="s">
+      <c r="H129" s="117" t="s">
         <v>235</v>
       </c>
       <c r="I129" s="7"/>
@@ -13157,14 +13154,14 @@
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="70" t="s">
-        <v>547</v>
-      </c>
-      <c r="B130" s="97"/>
-      <c r="C130" s="111"/>
-      <c r="D130" s="111"/>
-      <c r="E130" s="116" t="s">
+      <c r="A130" s="69" t="s">
         <v>548</v>
+      </c>
+      <c r="B130" s="96"/>
+      <c r="C130" s="110"/>
+      <c r="D130" s="110"/>
+      <c r="E130" s="115" t="s">
+        <v>549</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>238</v>
@@ -13172,7 +13169,7 @@
       <c r="G130" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H130" s="118" t="s">
+      <c r="H130" s="117" t="s">
         <v>240</v>
       </c>
       <c r="I130" s="7"/>
@@ -13180,14 +13177,14 @@
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="70" t="s">
+      <c r="A131" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="B131" s="96"/>
+      <c r="C131" s="110"/>
+      <c r="D131" s="110"/>
+      <c r="E131" s="118" t="s">
         <v>549</v>
-      </c>
-      <c r="B131" s="97"/>
-      <c r="C131" s="111"/>
-      <c r="D131" s="111"/>
-      <c r="E131" s="119" t="s">
-        <v>548</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>242</v>
@@ -13203,20 +13200,20 @@
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="65" t="s">
-        <v>550</v>
-      </c>
-      <c r="B132" s="56" t="s">
+      <c r="A132" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="B132" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="C132" s="111" t="s">
+      <c r="C132" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="D132" s="111" t="s">
+      <c r="D132" s="110" t="s">
         <v>247</v>
       </c>
-      <c r="E132" s="116" t="s">
-        <v>551</v>
+      <c r="E132" s="115" t="s">
+        <v>552</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4" t="s">
@@ -13230,20 +13227,20 @@
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="65" t="s">
-        <v>552</v>
-      </c>
-      <c r="B133" s="56" t="s">
+      <c r="A133" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="B133" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C133" s="111" t="s">
+      <c r="C133" s="110" t="s">
         <v>253</v>
       </c>
-      <c r="D133" s="111" t="s">
+      <c r="D133" s="110" t="s">
         <v>254</v>
       </c>
-      <c r="E133" s="116" t="s">
-        <v>553</v>
+      <c r="E133" s="115" t="s">
+        <v>554</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4" t="s">
@@ -13257,76 +13254,76 @@
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="65" t="s">
-        <v>554</v>
-      </c>
-      <c r="B134" s="56" t="s">
+      <c r="A134" s="64" t="s">
         <v>555</v>
+      </c>
+      <c r="B134" s="55" t="s">
+        <v>556</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="D134" s="75" t="s">
+      <c r="D134" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="E134" s="116" t="s">
-        <v>556</v>
-      </c>
-      <c r="F134" s="50"/>
-      <c r="G134" s="41" t="s">
+      <c r="E134" s="115" t="s">
         <v>557</v>
       </c>
-      <c r="H134" s="41" t="s">
+      <c r="F134" s="49"/>
+      <c r="G134" s="40" t="s">
         <v>558</v>
+      </c>
+      <c r="H134" s="40" t="s">
+        <v>559</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="65" t="s">
-        <v>559</v>
-      </c>
-      <c r="B135" s="56" t="s">
+      <c r="A135" s="64" t="s">
         <v>560</v>
+      </c>
+      <c r="B135" s="55" t="s">
+        <v>561</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="D135" s="75" t="s">
+      <c r="D135" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="E135" s="120" t="s">
-        <v>556</v>
-      </c>
-      <c r="F135" s="50"/>
-      <c r="G135" s="41" t="s">
+      <c r="E135" s="119" t="s">
         <v>557</v>
       </c>
-      <c r="H135" s="41" t="s">
+      <c r="F135" s="49"/>
+      <c r="G135" s="40" t="s">
         <v>558</v>
+      </c>
+      <c r="H135" s="40" t="s">
+        <v>559</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="49" t="s">
-        <v>561</v>
-      </c>
-      <c r="B136" s="48" t="s">
+      <c r="A136" s="48" t="s">
         <v>562</v>
       </c>
-      <c r="C136" s="111" t="s">
+      <c r="B136" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="C136" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="D136" s="111"/>
-      <c r="E136" s="121"/>
-      <c r="F136" s="121"/>
-      <c r="G136" s="122" t="s">
+      <c r="D136" s="110"/>
+      <c r="E136" s="120"/>
+      <c r="F136" s="120"/>
+      <c r="G136" s="121" t="s">
         <v>299</v>
       </c>
-      <c r="H136" s="122" t="s">
+      <c r="H136" s="121" t="s">
         <v>300</v>
       </c>
       <c r="I136" s="7"/>
@@ -13334,507 +13331,507 @@
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="65" t="s">
-        <v>563</v>
-      </c>
-      <c r="B137" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="C137" s="111"/>
-      <c r="D137" s="111"/>
-      <c r="E137" s="116"/>
-      <c r="F137" s="116"/>
+      <c r="A137" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="B137" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C137" s="110"/>
+      <c r="D137" s="110"/>
+      <c r="E137" s="115"/>
+      <c r="F137" s="115"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="65" t="s">
-        <v>565</v>
-      </c>
-      <c r="B138" s="56" t="s">
+      <c r="A138" s="64" t="s">
         <v>566</v>
       </c>
-      <c r="C138" s="111" t="s">
+      <c r="B138" s="55" t="s">
         <v>567</v>
       </c>
-      <c r="D138" s="111" t="s">
+      <c r="C138" s="110" t="s">
         <v>568</v>
       </c>
-      <c r="E138" s="123" t="s">
+      <c r="D138" s="110" t="s">
         <v>569</v>
       </c>
-      <c r="F138" s="73"/>
-      <c r="G138" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="H138" s="41" t="s">
+      <c r="E138" s="122" t="s">
         <v>570</v>
+      </c>
+      <c r="F138" s="72"/>
+      <c r="G138" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="H138" s="40" t="s">
+        <v>571</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="65" t="s">
-        <v>571</v>
-      </c>
-      <c r="B139" s="56" t="s">
-        <v>405</v>
-      </c>
-      <c r="C139" s="111" t="s">
+      <c r="A139" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="B139" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="D139" s="111"/>
-      <c r="E139" s="123" t="s">
-        <v>572</v>
-      </c>
-      <c r="F139" s="73"/>
-      <c r="G139" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="H139" s="41" t="s">
+      <c r="C139" s="110" t="s">
+        <v>407</v>
+      </c>
+      <c r="D139" s="110"/>
+      <c r="E139" s="122" t="s">
         <v>573</v>
+      </c>
+      <c r="F139" s="72"/>
+      <c r="G139" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="H139" s="40" t="s">
+        <v>574</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="65" t="s">
-        <v>574</v>
-      </c>
-      <c r="B140" s="56" t="s">
+      <c r="A140" s="64" t="s">
         <v>575</v>
       </c>
-      <c r="C140" s="111" t="s">
-        <v>406</v>
-      </c>
-      <c r="D140" s="111"/>
-      <c r="E140" s="123" t="s">
+      <c r="B140" s="55" t="s">
         <v>576</v>
       </c>
-      <c r="F140" s="73"/>
-      <c r="G140" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="H140" s="41" t="s">
+      <c r="C140" s="110" t="s">
+        <v>407</v>
+      </c>
+      <c r="D140" s="110"/>
+      <c r="E140" s="122" t="s">
+        <v>577</v>
+      </c>
+      <c r="F140" s="72"/>
+      <c r="G140" s="40" t="s">
         <v>341</v>
+      </c>
+      <c r="H140" s="40" t="s">
+        <v>342</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="B141" s="48" t="s">
+      <c r="A141" s="48" t="s">
         <v>579</v>
       </c>
-      <c r="C141" s="114" t="s">
+      <c r="B141" s="47" t="s">
+        <v>580</v>
+      </c>
+      <c r="C141" s="113" t="s">
         <v>315</v>
       </c>
-      <c r="D141" s="111"/>
-      <c r="E141" s="116"/>
-      <c r="F141" s="116"/>
+      <c r="D141" s="110"/>
+      <c r="E141" s="115"/>
+      <c r="F141" s="115"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
-      <c r="K141" s="76" t="s">
-        <v>580</v>
+      <c r="K141" s="75" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="65" t="s">
-        <v>581</v>
-      </c>
-      <c r="B142" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="C142" s="111"/>
-      <c r="D142" s="111"/>
-      <c r="E142" s="116"/>
-      <c r="F142" s="115"/>
+      <c r="A142" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="B142" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C142" s="110"/>
+      <c r="D142" s="110"/>
+      <c r="E142" s="115"/>
+      <c r="F142" s="114"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="65" t="s">
-        <v>582</v>
-      </c>
-      <c r="B143" s="56" t="s">
+      <c r="A143" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="B143" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="111" t="s">
+      <c r="C143" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="D143" s="111" t="s">
+      <c r="D143" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="E143" s="123" t="s">
-        <v>583</v>
-      </c>
-      <c r="F143" s="123"/>
-      <c r="G143" s="100" t="s">
+      <c r="E143" s="122" t="s">
+        <v>584</v>
+      </c>
+      <c r="F143" s="122"/>
+      <c r="G143" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="H143" s="100" t="s">
-        <v>584</v>
+      <c r="H143" s="99" t="s">
+        <v>585</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="65" t="s">
-        <v>585</v>
-      </c>
-      <c r="B144" s="56" t="s">
+      <c r="A144" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="B144" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C144" s="111" t="s">
+      <c r="C144" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="D144" s="111" t="s">
+      <c r="D144" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="E144" s="123" t="s">
-        <v>586</v>
-      </c>
-      <c r="F144" s="123"/>
-      <c r="G144" s="100" t="s">
+      <c r="E144" s="122" t="s">
+        <v>587</v>
+      </c>
+      <c r="F144" s="122"/>
+      <c r="G144" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="H144" s="100" t="s">
-        <v>587</v>
+      <c r="H144" s="99" t="s">
+        <v>588</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="65" t="s">
-        <v>588</v>
-      </c>
-      <c r="B145" s="56" t="s">
+      <c r="A145" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="B145" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C145" s="111" t="s">
+      <c r="C145" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="D145" s="111" t="s">
+      <c r="D145" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="E145" s="123" t="s">
-        <v>589</v>
-      </c>
-      <c r="F145" s="123"/>
-      <c r="G145" s="100" t="s">
+      <c r="E145" s="122" t="s">
+        <v>590</v>
+      </c>
+      <c r="F145" s="122"/>
+      <c r="G145" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="H145" s="100" t="s">
-        <v>590</v>
+      <c r="H145" s="99" t="s">
+        <v>591</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="65" t="s">
-        <v>591</v>
-      </c>
-      <c r="B146" s="56" t="s">
+      <c r="A146" s="64" t="s">
+        <v>592</v>
+      </c>
+      <c r="B146" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C146" s="111" t="s">
+      <c r="C146" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="D146" s="111" t="s">
+      <c r="D146" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="E146" s="123" t="s">
-        <v>592</v>
-      </c>
-      <c r="F146" s="123"/>
-      <c r="G146" s="100" t="s">
+      <c r="E146" s="122" t="s">
+        <v>593</v>
+      </c>
+      <c r="F146" s="122"/>
+      <c r="G146" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="H146" s="100" t="s">
-        <v>593</v>
+      <c r="H146" s="99" t="s">
+        <v>594</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="65" t="s">
-        <v>594</v>
-      </c>
-      <c r="B147" s="56" t="s">
+      <c r="A147" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="B147" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C147" s="111" t="s">
+      <c r="C147" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="111" t="s">
+      <c r="D147" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="E147" s="123" t="s">
-        <v>595</v>
-      </c>
-      <c r="F147" s="123" t="s">
+      <c r="E147" s="122" t="s">
         <v>596</v>
       </c>
-      <c r="G147" s="100" t="s">
+      <c r="F147" s="122" t="s">
+        <v>597</v>
+      </c>
+      <c r="G147" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="H147" s="100" t="s">
-        <v>597</v>
+      <c r="H147" s="99" t="s">
+        <v>598</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="65" t="s">
-        <v>599</v>
-      </c>
-      <c r="B148" s="56" t="s">
+      <c r="A148" s="64" t="s">
+        <v>600</v>
+      </c>
+      <c r="B148" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C148" s="111" t="s">
+      <c r="C148" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="D148" s="111" t="s">
-        <v>364</v>
-      </c>
-      <c r="E148" s="123" t="s">
-        <v>600</v>
-      </c>
-      <c r="F148" s="123"/>
-      <c r="G148" s="100" t="s">
+      <c r="D148" s="110" t="s">
+        <v>365</v>
+      </c>
+      <c r="E148" s="122" t="s">
+        <v>601</v>
+      </c>
+      <c r="F148" s="122"/>
+      <c r="G148" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="H148" s="100" t="s">
-        <v>601</v>
+      <c r="H148" s="99" t="s">
+        <v>602</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="65" t="s">
-        <v>602</v>
-      </c>
-      <c r="B149" s="56" t="s">
+      <c r="A149" s="64" t="s">
+        <v>603</v>
+      </c>
+      <c r="B149" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C149" s="111" t="s">
+      <c r="C149" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="D149" s="111" t="s">
+      <c r="D149" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="E149" s="123" t="s">
-        <v>603</v>
-      </c>
-      <c r="F149" s="123"/>
-      <c r="G149" s="100" t="s">
+      <c r="E149" s="122" t="s">
+        <v>604</v>
+      </c>
+      <c r="F149" s="122"/>
+      <c r="G149" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="H149" s="100" t="s">
-        <v>604</v>
+      <c r="H149" s="99" t="s">
+        <v>605</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="65" t="s">
-        <v>605</v>
-      </c>
-      <c r="B150" s="56" t="s">
+      <c r="A150" s="64" t="s">
+        <v>606</v>
+      </c>
+      <c r="B150" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C150" s="114" t="s">
+      <c r="C150" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D150" s="111" t="s">
+      <c r="D150" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="E150" s="123" t="s">
-        <v>606</v>
-      </c>
-      <c r="F150" s="123"/>
-      <c r="G150" s="100" t="s">
-        <v>372</v>
-      </c>
-      <c r="H150" s="100" t="s">
+      <c r="E150" s="122" t="s">
+        <v>607</v>
+      </c>
+      <c r="F150" s="122"/>
+      <c r="G150" s="99" t="s">
         <v>373</v>
+      </c>
+      <c r="H150" s="99" t="s">
+        <v>374</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="65" t="s">
-        <v>607</v>
-      </c>
-      <c r="B151" s="56" t="s">
+      <c r="A151" s="64" t="s">
+        <v>608</v>
+      </c>
+      <c r="B151" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C151" s="111" t="s">
+      <c r="C151" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="D151" s="111" t="s">
+      <c r="D151" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="E151" s="123" t="s">
-        <v>608</v>
-      </c>
-      <c r="F151" s="123"/>
-      <c r="G151" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="H151" s="100" t="s">
+      <c r="E151" s="122" t="s">
+        <v>609</v>
+      </c>
+      <c r="F151" s="122"/>
+      <c r="G151" s="99" t="s">
         <v>377</v>
+      </c>
+      <c r="H151" s="99" t="s">
+        <v>378</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="65" t="s">
-        <v>609</v>
-      </c>
-      <c r="B152" s="56" t="s">
+      <c r="A152" s="64" t="s">
         <v>610</v>
       </c>
-      <c r="C152" s="111" t="s">
+      <c r="B152" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="C152" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="D152" s="111" t="s">
+      <c r="D152" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="E152" s="123" t="s">
-        <v>611</v>
-      </c>
-      <c r="F152" s="123"/>
-      <c r="G152" s="100" t="s">
-        <v>372</v>
-      </c>
-      <c r="H152" s="100" t="s">
+      <c r="E152" s="122" t="s">
         <v>612</v>
+      </c>
+      <c r="F152" s="122"/>
+      <c r="G152" s="99" t="s">
+        <v>373</v>
+      </c>
+      <c r="H152" s="99" t="s">
+        <v>613</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="65" t="s">
-        <v>613</v>
-      </c>
-      <c r="B153" s="56" t="s">
+      <c r="A153" s="64" t="s">
+        <v>614</v>
+      </c>
+      <c r="B153" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C153" s="111" t="s">
+      <c r="C153" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="D153" s="111" t="s">
+      <c r="D153" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="E153" s="123" t="s">
-        <v>614</v>
-      </c>
-      <c r="F153" s="123"/>
-      <c r="G153" s="100" t="s">
-        <v>376</v>
-      </c>
-      <c r="H153" s="100" t="s">
-        <v>384</v>
+      <c r="E153" s="122" t="s">
+        <v>615</v>
+      </c>
+      <c r="F153" s="122"/>
+      <c r="G153" s="99" t="s">
+        <v>377</v>
+      </c>
+      <c r="H153" s="99" t="s">
+        <v>385</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="65" t="s">
-        <v>615</v>
-      </c>
-      <c r="B154" s="56" t="s">
-        <v>386</v>
-      </c>
-      <c r="C154" s="111" t="s">
+      <c r="A154" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="D154" s="111"/>
-      <c r="E154" s="123" t="s">
+      <c r="B154" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="C154" s="110" t="s">
         <v>617</v>
       </c>
-      <c r="F154" s="73"/>
-      <c r="G154" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="H154" s="124" t="s">
+      <c r="D154" s="110"/>
+      <c r="E154" s="122" t="s">
         <v>618</v>
+      </c>
+      <c r="F154" s="72"/>
+      <c r="G154" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="H154" s="123" t="s">
+        <v>619</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="77" t="s">
+        <v>616</v>
+      </c>
+      <c r="B155" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="C155" s="124"/>
+      <c r="D155" s="124"/>
+      <c r="E155" s="119" t="s">
+        <v>618</v>
+      </c>
+      <c r="F155" s="72"/>
+      <c r="G155" s="125" t="s">
+        <v>391</v>
+      </c>
+      <c r="H155" s="126" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="78" t="s">
-        <v>615</v>
-      </c>
-      <c r="B155" s="79" t="s">
-        <v>386</v>
-      </c>
-      <c r="C155" s="125"/>
-      <c r="D155" s="125"/>
-      <c r="E155" s="120" t="s">
-        <v>617</v>
-      </c>
-      <c r="F155" s="73"/>
-      <c r="G155" s="126" t="s">
-        <v>390</v>
-      </c>
-      <c r="H155" s="127" t="s">
-        <v>618</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="84" t="s">
-        <v>620</v>
-      </c>
-      <c r="B156" s="39" t="s">
+      <c r="A156" s="83" t="s">
         <v>621</v>
       </c>
-      <c r="C156" s="111" t="s">
+      <c r="B156" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="C156" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="D156" s="111"/>
-      <c r="E156" s="115"/>
-      <c r="F156" s="115"/>
+      <c r="D156" s="110"/>
+      <c r="E156" s="114"/>
+      <c r="F156" s="114"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="7"/>
@@ -13842,315 +13839,315 @@
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="49" t="s">
-        <v>622</v>
-      </c>
-      <c r="B157" s="48" t="s">
+      <c r="A157" s="48" t="s">
         <v>623</v>
       </c>
-      <c r="C157" s="111" t="s">
+      <c r="B157" s="47" t="s">
+        <v>624</v>
+      </c>
+      <c r="C157" s="110" t="s">
         <v>315</v>
       </c>
-      <c r="D157" s="111"/>
-      <c r="E157" s="121"/>
-      <c r="F157" s="121"/>
-      <c r="G157" s="128" t="s">
-        <v>624</v>
-      </c>
-      <c r="H157" s="129" t="s">
+      <c r="D157" s="110"/>
+      <c r="E157" s="120"/>
+      <c r="F157" s="120"/>
+      <c r="G157" s="127" t="s">
         <v>625</v>
+      </c>
+      <c r="H157" s="128" t="s">
+        <v>626</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="65" t="s">
-        <v>626</v>
-      </c>
-      <c r="B158" s="56" t="s">
+      <c r="A158" s="64" t="s">
         <v>627</v>
       </c>
-      <c r="C158" s="130" t="s">
+      <c r="B158" s="55" t="s">
         <v>628</v>
       </c>
-      <c r="D158" s="130" t="s">
+      <c r="C158" s="129" t="s">
         <v>629</v>
       </c>
-      <c r="E158" s="123" t="s">
+      <c r="D158" s="129" t="s">
         <v>630</v>
       </c>
-      <c r="F158" s="123"/>
-      <c r="G158" s="100" t="s">
+      <c r="E158" s="122" t="s">
         <v>631</v>
       </c>
-      <c r="H158" s="100" t="s">
+      <c r="F158" s="122"/>
+      <c r="G158" s="99" t="s">
         <v>632</v>
+      </c>
+      <c r="H158" s="99" t="s">
+        <v>633</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="49" t="s">
-        <v>633</v>
-      </c>
-      <c r="B159" s="48" t="s">
+      <c r="A159" s="48" t="s">
         <v>634</v>
       </c>
-      <c r="C159" s="130" t="s">
+      <c r="B159" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="C159" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="D159" s="131"/>
-      <c r="E159" s="123"/>
-      <c r="F159" s="123"/>
-      <c r="G159" s="100"/>
-      <c r="H159" s="73"/>
+      <c r="D159" s="130"/>
+      <c r="E159" s="122"/>
+      <c r="F159" s="122"/>
+      <c r="G159" s="99"/>
+      <c r="H159" s="72"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="65" t="s">
-        <v>635</v>
-      </c>
-      <c r="B160" s="56" t="s">
+      <c r="A160" s="64" t="s">
         <v>636</v>
       </c>
-      <c r="C160" s="130" t="s">
+      <c r="B160" s="55" t="s">
         <v>637</v>
       </c>
-      <c r="D160" s="130" t="s">
+      <c r="C160" s="129" t="s">
         <v>638</v>
       </c>
-      <c r="E160" s="123" t="s">
+      <c r="D160" s="129" t="s">
         <v>639</v>
       </c>
-      <c r="F160" s="123"/>
-      <c r="G160" s="100" t="s">
+      <c r="E160" s="122" t="s">
         <v>640</v>
       </c>
-      <c r="H160" s="132" t="s">
+      <c r="F160" s="122"/>
+      <c r="G160" s="99" t="s">
         <v>641</v>
+      </c>
+      <c r="H160" s="131" t="s">
+        <v>642</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="65" t="s">
-        <v>642</v>
-      </c>
-      <c r="B161" s="74" t="s">
+      <c r="A161" s="64" t="s">
         <v>643</v>
       </c>
-      <c r="C161" s="130" t="s">
+      <c r="B161" s="73" t="s">
         <v>644</v>
       </c>
-      <c r="D161" s="130" t="s">
+      <c r="C161" s="129" t="s">
         <v>645</v>
       </c>
-      <c r="E161" s="133" t="s">
+      <c r="D161" s="129" t="s">
         <v>646</v>
       </c>
-      <c r="F161" s="133"/>
-      <c r="G161" s="134" t="s">
-        <v>631</v>
-      </c>
-      <c r="H161" s="134" t="s">
+      <c r="E161" s="132" t="s">
         <v>647</v>
+      </c>
+      <c r="F161" s="132"/>
+      <c r="G161" s="133" t="s">
+        <v>632</v>
+      </c>
+      <c r="H161" s="133" t="s">
+        <v>648</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="65" t="s">
-        <v>648</v>
-      </c>
-      <c r="B162" s="74" t="s">
+      <c r="A162" s="64" t="s">
         <v>649</v>
       </c>
-      <c r="C162" s="130" t="s">
-        <v>637</v>
-      </c>
-      <c r="D162" s="130" t="s">
+      <c r="B162" s="73" t="s">
+        <v>650</v>
+      </c>
+      <c r="C162" s="129" t="s">
         <v>638</v>
       </c>
-      <c r="E162" s="133" t="s">
-        <v>650</v>
-      </c>
-      <c r="F162" s="133"/>
-      <c r="G162" s="134" t="s">
-        <v>640</v>
-      </c>
-      <c r="H162" s="135" t="s">
+      <c r="D162" s="129" t="s">
+        <v>639</v>
+      </c>
+      <c r="E162" s="132" t="s">
         <v>651</v>
+      </c>
+      <c r="F162" s="132"/>
+      <c r="G162" s="133" t="s">
+        <v>641</v>
+      </c>
+      <c r="H162" s="134" t="s">
+        <v>652</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="65" t="s">
-        <v>652</v>
-      </c>
-      <c r="B163" s="74" t="s">
+      <c r="A163" s="64" t="s">
         <v>653</v>
       </c>
-      <c r="C163" s="130" t="s">
-        <v>644</v>
-      </c>
-      <c r="D163" s="130" t="s">
+      <c r="B163" s="73" t="s">
+        <v>654</v>
+      </c>
+      <c r="C163" s="129" t="s">
         <v>645</v>
       </c>
-      <c r="E163" s="133" t="s">
-        <v>654</v>
-      </c>
-      <c r="F163" s="133"/>
-      <c r="G163" s="134" t="s">
-        <v>631</v>
-      </c>
-      <c r="H163" s="135" t="s">
-        <v>647</v>
+      <c r="D163" s="129" t="s">
+        <v>646</v>
+      </c>
+      <c r="E163" s="132" t="s">
+        <v>655</v>
+      </c>
+      <c r="F163" s="132"/>
+      <c r="G163" s="133" t="s">
+        <v>632</v>
+      </c>
+      <c r="H163" s="134" t="s">
+        <v>648</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="49" t="s">
-        <v>655</v>
-      </c>
-      <c r="B164" s="64" t="s">
+      <c r="A164" s="48" t="s">
         <v>656</v>
       </c>
-      <c r="C164" s="130" t="s">
+      <c r="B164" s="63" t="s">
+        <v>657</v>
+      </c>
+      <c r="C164" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="D164" s="131"/>
-      <c r="E164" s="133"/>
-      <c r="F164" s="133"/>
-      <c r="G164" s="134"/>
-      <c r="H164" s="134"/>
+      <c r="D164" s="130"/>
+      <c r="E164" s="132"/>
+      <c r="F164" s="132"/>
+      <c r="G164" s="133"/>
+      <c r="H164" s="133"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="65" t="s">
-        <v>657</v>
-      </c>
-      <c r="B165" s="74" t="s">
-        <v>345</v>
-      </c>
-      <c r="C165" s="130"/>
-      <c r="D165" s="131"/>
-      <c r="E165" s="133"/>
-      <c r="F165" s="133"/>
-      <c r="G165" s="134"/>
-      <c r="H165" s="134"/>
+      <c r="A165" s="64" t="s">
+        <v>658</v>
+      </c>
+      <c r="B165" s="73" t="s">
+        <v>346</v>
+      </c>
+      <c r="C165" s="129"/>
+      <c r="D165" s="130"/>
+      <c r="E165" s="132"/>
+      <c r="F165" s="132"/>
+      <c r="G165" s="133"/>
+      <c r="H165" s="133"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="65" t="s">
-        <v>658</v>
-      </c>
-      <c r="B166" s="74" t="s">
+      <c r="A166" s="64" t="s">
         <v>659</v>
       </c>
-      <c r="C166" s="130" t="s">
-        <v>616</v>
-      </c>
-      <c r="D166" s="131"/>
-      <c r="E166" s="133" t="s">
+      <c r="B166" s="73" t="s">
         <v>660</v>
       </c>
-      <c r="F166" s="133"/>
-      <c r="G166" s="136" t="s">
-        <v>402</v>
-      </c>
-      <c r="H166" s="136" t="s">
+      <c r="C166" s="129" t="s">
+        <v>617</v>
+      </c>
+      <c r="D166" s="130"/>
+      <c r="E166" s="132" t="s">
         <v>661</v>
+      </c>
+      <c r="F166" s="132"/>
+      <c r="G166" s="135" t="s">
+        <v>403</v>
+      </c>
+      <c r="H166" s="135" t="s">
+        <v>662</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="65" t="s">
-        <v>662</v>
-      </c>
-      <c r="B167" s="74" t="s">
-        <v>405</v>
-      </c>
-      <c r="C167" s="130" t="s">
+      <c r="A167" s="64" t="s">
+        <v>663</v>
+      </c>
+      <c r="B167" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="D167" s="131"/>
-      <c r="E167" s="133" t="s">
-        <v>663</v>
-      </c>
-      <c r="F167" s="133"/>
-      <c r="G167" s="136" t="s">
-        <v>408</v>
-      </c>
-      <c r="H167" s="136" t="s">
+      <c r="C167" s="129" t="s">
+        <v>407</v>
+      </c>
+      <c r="D167" s="130"/>
+      <c r="E167" s="132" t="s">
         <v>664</v>
+      </c>
+      <c r="F167" s="132"/>
+      <c r="G167" s="135" t="s">
+        <v>409</v>
+      </c>
+      <c r="H167" s="135" t="s">
+        <v>665</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="65" t="s">
-        <v>665</v>
-      </c>
-      <c r="B168" s="74" t="s">
+      <c r="A168" s="64" t="s">
         <v>666</v>
       </c>
-      <c r="C168" s="130" t="s">
-        <v>616</v>
-      </c>
-      <c r="D168" s="131"/>
-      <c r="E168" s="133" t="s">
+      <c r="B168" s="73" t="s">
         <v>667</v>
       </c>
-      <c r="F168" s="133"/>
-      <c r="G168" s="136" t="s">
-        <v>402</v>
-      </c>
-      <c r="H168" s="136" t="s">
+      <c r="C168" s="129" t="s">
+        <v>617</v>
+      </c>
+      <c r="D168" s="130"/>
+      <c r="E168" s="132" t="s">
         <v>668</v>
+      </c>
+      <c r="F168" s="132"/>
+      <c r="G168" s="135" t="s">
+        <v>403</v>
+      </c>
+      <c r="H168" s="135" t="s">
+        <v>669</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="65" t="s">
-        <v>669</v>
-      </c>
-      <c r="B169" s="74" t="s">
-        <v>405</v>
-      </c>
-      <c r="C169" s="130" t="s">
+      <c r="A169" s="64" t="s">
+        <v>670</v>
+      </c>
+      <c r="B169" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="D169" s="131"/>
-      <c r="E169" s="133" t="s">
-        <v>670</v>
-      </c>
-      <c r="F169" s="133"/>
-      <c r="G169" s="136" t="s">
-        <v>408</v>
-      </c>
-      <c r="H169" s="136" t="s">
+      <c r="C169" s="129" t="s">
+        <v>407</v>
+      </c>
+      <c r="D169" s="130"/>
+      <c r="E169" s="132" t="s">
         <v>671</v>
+      </c>
+      <c r="F169" s="132"/>
+      <c r="G169" s="135" t="s">
+        <v>409</v>
+      </c>
+      <c r="H169" s="135" t="s">
+        <v>672</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -14232,201 +14229,201 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="137" t="s">
-        <v>578</v>
-      </c>
-      <c r="B1" s="138" t="s">
+      <c r="A1" s="136" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="B2" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="39" t="s">
         <v>674</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>675</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="74" t="s">
         <v>676</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>677</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="B3" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="B3" s="75" t="s">
         <v>338</v>
       </c>
+      <c r="C3" s="137" t="s">
+        <v>339</v>
+      </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="40" t="s">
-        <v>678</v>
-      </c>
-      <c r="F3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>679</v>
       </c>
+      <c r="F3" s="39" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="140" t="s">
-        <v>680</v>
-      </c>
-      <c r="B4" s="136" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="41" t="s">
+      <c r="A4" s="138" t="s">
         <v>681</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="B4" s="135" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="40" t="s">
         <v>682</v>
+      </c>
+      <c r="F4" s="140" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B5" s="76" t="s">
         <v>386</v>
       </c>
+      <c r="B5" s="75" t="s">
+        <v>387</v>
+      </c>
       <c r="C5" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>683</v>
-      </c>
-      <c r="F5" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="143"/>
-      <c r="W5" s="143"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
+      <c r="F5" s="39" t="s">
+        <v>685</v>
+      </c>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
     </row>
     <row r="6">
-      <c r="A6" s="141" t="s">
-        <v>396</v>
-      </c>
-      <c r="B6" s="136" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="41" t="s">
-        <v>685</v>
-      </c>
-      <c r="F6" s="41" t="s">
+      <c r="A6" s="139" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" s="135" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="40" t="s">
         <v>686</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="143"/>
-      <c r="W6" s="143"/>
-      <c r="X6" s="143"/>
-      <c r="Y6" s="143"/>
-      <c r="Z6" s="143"/>
+      <c r="F6" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="141"/>
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="141"/>
     </row>
     <row r="7">
-      <c r="A7" s="141" t="s">
-        <v>563</v>
-      </c>
-      <c r="B7" s="136" t="s">
-        <v>687</v>
-      </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="136" t="s">
-        <v>685</v>
-      </c>
-      <c r="F7" s="136" t="s">
+      <c r="A7" s="139" t="s">
+        <v>564</v>
+      </c>
+      <c r="B7" s="135" t="s">
         <v>688</v>
       </c>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="135" t="s">
+        <v>686</v>
+      </c>
+      <c r="F7" s="135" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="141" t="s">
-        <v>581</v>
-      </c>
-      <c r="B8" s="136" t="s">
-        <v>687</v>
-      </c>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="136" t="s">
+      <c r="A8" s="139" t="s">
+        <v>582</v>
+      </c>
+      <c r="B8" s="135" t="s">
+        <v>688</v>
+      </c>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="135" t="s">
+        <v>690</v>
+      </c>
+      <c r="F8" s="135" t="s">
         <v>689</v>
       </c>
-      <c r="F8" s="136" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="138" t="s">
+        <v>658</v>
+      </c>
+      <c r="B9" s="135" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="140" t="s">
-        <v>657</v>
-      </c>
-      <c r="B9" s="136" t="s">
-        <v>687</v>
-      </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="133" t="s">
-        <v>690</v>
-      </c>
-      <c r="F9" s="136" t="s">
-        <v>688</v>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="132" t="s">
+        <v>691</v>
+      </c>
+      <c r="F9" s="135" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="10">
@@ -18418,108 +18415,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="144" t="s">
-        <v>691</v>
-      </c>
-      <c r="B2" s="145" t="s">
+      <c r="A2" s="142" t="s">
         <v>692</v>
       </c>
+      <c r="B2" s="143" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="146" t="s">
-        <v>693</v>
-      </c>
-      <c r="B3" s="145" t="s">
+      <c r="A3" s="144" t="s">
         <v>694</v>
       </c>
+      <c r="B3" s="143" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="147" t="s">
-        <v>695</v>
+      <c r="A4" s="145" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="148" t="s">
-        <v>696</v>
-      </c>
-      <c r="B6" s="145" t="s">
+      <c r="A6" s="146" t="s">
         <v>697</v>
       </c>
+      <c r="B6" s="143" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="145" t="s">
-        <v>698</v>
+      <c r="B7" s="143" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="145"/>
+      <c r="B8" s="143"/>
     </row>
     <row r="9">
-      <c r="B9" s="145"/>
+      <c r="B9" s="143"/>
     </row>
     <row r="10">
-      <c r="A10" s="148" t="s">
-        <v>699</v>
+      <c r="A10" s="146" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="148" t="s">
-        <v>700</v>
-      </c>
-      <c r="B11" s="149" t="s">
+      <c r="A11" s="146" t="s">
         <v>701</v>
       </c>
+      <c r="B11" s="147" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="150" t="s">
-        <v>702</v>
+      <c r="B12" s="148" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="151"/>
-      <c r="B13" s="152" t="s">
-        <v>703</v>
+      <c r="A13" s="149"/>
+      <c r="B13" s="150" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="153" t="s">
-        <v>704</v>
+      <c r="B14" s="151" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="154" t="s">
-        <v>705</v>
+      <c r="B15" s="152" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="155" t="s">
-        <v>706</v>
+      <c r="B16" s="153" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="148"/>
+      <c r="A17" s="146"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="148" t="s">
-        <v>707</v>
-      </c>
-      <c r="B18" s="156" t="s">
+      <c r="A18" s="146" t="s">
         <v>708</v>
+      </c>
+      <c r="B18" s="154" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="157"/>
+        <v>710</v>
+      </c>
+      <c r="B19" s="155"/>
     </row>
     <row r="21">
-      <c r="A21" s="148" t="s">
-        <v>710</v>
-      </c>
-      <c r="B21" s="158" t="s">
+      <c r="A21" s="146" t="s">
         <v>711</v>
+      </c>
+      <c r="B21" s="156" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -18545,57 +18542,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
-        <v>713</v>
+      <c r="A2" s="36" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="159" t="s">
-        <v>715</v>
+      <c r="A4" s="157" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="159" t="s">
-        <v>719</v>
+      <c r="A8" s="157" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="160" t="s">
-        <v>720</v>
+      <c r="A9" s="158" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12">
@@ -18624,65 +18621,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B1" s="161" t="s">
-        <v>723</v>
+        <v>713</v>
+      </c>
+      <c r="B1" s="159" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="145" t="s">
-        <v>731</v>
+      <c r="A8" s="143" t="s">
+        <v>732</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="145" t="s">
-        <v>732</v>
+      <c r="A9" s="143" t="s">
+        <v>733</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="162" t="s">
-        <v>733</v>
+      <c r="A10" s="160" t="s">
+        <v>734</v>
       </c>
       <c r="B10" s="7"/>
     </row>
@@ -18702,7 +18699,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="149"/>
+      <c r="A1" s="147"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -18726,11 +18723,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="163" t="s">
-        <v>734</v>
-      </c>
-      <c r="C1" s="163" t="s">
+      <c r="A1" s="161" t="s">
         <v>735</v>
+      </c>
+      <c r="C1" s="161" t="s">
+        <v>736</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -18757,16 +18754,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -18792,14 +18789,14 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="40" t="s">
-        <v>740</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>741</v>
       </c>
+      <c r="B3" s="39" t="s">
+        <v>742</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -18829,14 +18826,14 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>743</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>741</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>742</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -18866,14 +18863,14 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="40" t="s">
-        <v>744</v>
-      </c>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>745</v>
       </c>
+      <c r="B5" s="39" t="s">
+        <v>746</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -18901,16 +18898,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -18937,16 +18934,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="D7" s="164" t="s">
-        <v>751</v>
+        <v>743</v>
+      </c>
+      <c r="D7" s="162" t="s">
+        <v>752</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -18973,16 +18970,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -19008,220 +19005,220 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="165" t="s">
-        <v>755</v>
-      </c>
-      <c r="B9" s="166" t="s">
+      <c r="A9" s="163" t="s">
         <v>756</v>
       </c>
-      <c r="C9" s="166" t="s">
-        <v>742</v>
-      </c>
-      <c r="D9" s="166" t="s">
+      <c r="B9" s="164" t="s">
         <v>757</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
+      <c r="C9" s="164" t="s">
+        <v>743</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>758</v>
+      </c>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="164"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
     </row>
     <row r="10">
-      <c r="A10" s="165" t="s">
-        <v>758</v>
-      </c>
-      <c r="B10" s="166" t="s">
-        <v>756</v>
-      </c>
-      <c r="C10" s="166" t="s">
-        <v>742</v>
-      </c>
-      <c r="D10" s="166" t="s">
+      <c r="A10" s="163" t="s">
         <v>759</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="166"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
+      <c r="B10" s="164" t="s">
+        <v>757</v>
+      </c>
+      <c r="C10" s="164" t="s">
+        <v>743</v>
+      </c>
+      <c r="D10" s="164" t="s">
+        <v>760</v>
+      </c>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
     </row>
     <row r="11">
-      <c r="A11" s="165" t="s">
-        <v>760</v>
-      </c>
-      <c r="B11" s="166" t="s">
+      <c r="A11" s="163" t="s">
         <v>761</v>
       </c>
-      <c r="C11" s="166" t="s">
-        <v>742</v>
-      </c>
-      <c r="D11" s="166" t="s">
+      <c r="B11" s="164" t="s">
         <v>762</v>
       </c>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="166"/>
+      <c r="C11" s="164" t="s">
+        <v>743</v>
+      </c>
+      <c r="D11" s="164" t="s">
+        <v>763</v>
+      </c>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
     </row>
     <row r="12">
-      <c r="A12" s="165" t="s">
-        <v>763</v>
-      </c>
-      <c r="B12" s="166" t="s">
-        <v>761</v>
-      </c>
-      <c r="C12" s="166" t="s">
-        <v>742</v>
-      </c>
-      <c r="D12" s="166" t="s">
+      <c r="A12" s="163" t="s">
         <v>764</v>
       </c>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166"/>
-      <c r="W12" s="166"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="166"/>
+      <c r="B12" s="164" t="s">
+        <v>762</v>
+      </c>
+      <c r="C12" s="164" t="s">
+        <v>743</v>
+      </c>
+      <c r="D12" s="164" t="s">
+        <v>765</v>
+      </c>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
     </row>
     <row r="13">
-      <c r="A13" s="165" t="s">
-        <v>765</v>
-      </c>
-      <c r="B13" s="165" t="s">
-        <v>745</v>
-      </c>
-      <c r="C13" s="166" t="s">
-        <v>742</v>
-      </c>
-      <c r="D13" s="166" t="s">
+      <c r="A13" s="163" t="s">
         <v>766</v>
       </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166"/>
-      <c r="W13" s="166"/>
-      <c r="X13" s="166"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
+      <c r="B13" s="163" t="s">
+        <v>746</v>
+      </c>
+      <c r="C13" s="164" t="s">
+        <v>743</v>
+      </c>
+      <c r="D13" s="164" t="s">
+        <v>767</v>
+      </c>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+      <c r="L13" s="164"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="164"/>
+      <c r="U13" s="164"/>
+      <c r="V13" s="164"/>
+      <c r="W13" s="164"/>
+      <c r="X13" s="164"/>
+      <c r="Y13" s="164"/>
+      <c r="Z13" s="164"/>
     </row>
     <row r="14">
-      <c r="A14" s="165" t="s">
-        <v>767</v>
-      </c>
-      <c r="B14" s="165" t="s">
-        <v>745</v>
-      </c>
-      <c r="C14" s="166" t="s">
-        <v>742</v>
-      </c>
-      <c r="D14" s="166" t="s">
+      <c r="A14" s="163" t="s">
         <v>768</v>
       </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="166"/>
-      <c r="X14" s="166"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="166"/>
+      <c r="B14" s="163" t="s">
+        <v>746</v>
+      </c>
+      <c r="C14" s="164" t="s">
+        <v>743</v>
+      </c>
+      <c r="D14" s="164" t="s">
+        <v>769</v>
+      </c>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="164"/>
+      <c r="S14" s="164"/>
+      <c r="T14" s="164"/>
+      <c r="U14" s="164"/>
+      <c r="V14" s="164"/>
+      <c r="W14" s="164"/>
+      <c r="X14" s="164"/>
+      <c r="Y14" s="164"/>
+      <c r="Z14" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19249,52 +19246,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="167" t="s">
-        <v>734</v>
+      <c r="A1" s="165" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="148" t="s">
-        <v>736</v>
-      </c>
-      <c r="B2" s="148" t="s">
+      <c r="A2" s="146" t="s">
         <v>737</v>
       </c>
-      <c r="C2" s="148" t="s">
+      <c r="B2" s="146" t="s">
         <v>738</v>
       </c>
-      <c r="D2" s="148" t="s">
+      <c r="C2" s="146" t="s">
         <v>739</v>
       </c>
+      <c r="D2" s="146" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="145" t="s">
-        <v>769</v>
-      </c>
-      <c r="B3" s="145" t="s">
+      <c r="A3" s="143" t="s">
         <v>770</v>
       </c>
+      <c r="B3" s="143" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="145" t="s">
-        <v>771</v>
-      </c>
-      <c r="B4" s="145" t="s">
+      <c r="A4" s="143" t="s">
         <v>772</v>
       </c>
+      <c r="B4" s="143" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="143" t="s">
+        <v>774</v>
+      </c>
+      <c r="B5" s="143" t="s">
+        <v>775</v>
+      </c>
+      <c r="C5" s="166" t="s">
         <v>773</v>
       </c>
-      <c r="B5" s="145" t="s">
-        <v>774</v>
-      </c>
-      <c r="C5" s="168" t="s">
-        <v>772</v>
-      </c>
-      <c r="D5" s="145" t="s">
-        <v>775</v>
+      <c r="D5" s="143" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="780">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.4.0</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <r>
@@ -2190,7 +2190,10 @@
     <t>epo:LotAwardOutcome / epo:TenderAwardOutcome / epo:Winner</t>
   </si>
   <si>
-    <t>?this epo:comprisesTenderAwardOutcome / epo:awardsLotToWinner ?value</t>
+    <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
+  </si>
+  <si>
+    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -4073,6 +4076,9 @@
     <t>Information on value of the contract/lot/concession</t>
   </si>
   <si>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT</t>
+  </si>
+  <si>
     <t>VII.1.6.0</t>
   </si>
   <si>
@@ -4315,7 +4321,10 @@
     <t>Description of the modifications</t>
   </si>
   <si>
-    <t>epo:ContractModificationNotice / epo:Notice</t>
+    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS</t>
+  </si>
+  <si>
+    <t>epo:ContractModification / epo:Notice</t>
   </si>
   <si>
     <t>?this epo:describesNotice ?value</t>
@@ -4978,7 +4987,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -5102,11 +5111,6 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
@@ -5167,7 +5171,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5250,12 +5254,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF34A853"/>
         <bgColor rgb="FF34A853"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -5359,7 +5357,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="164">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5712,46 +5710,37 @@
     <xf borderId="0" fillId="10" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="7" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -5771,20 +5760,20 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5808,43 +5797,43 @@
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -11133,7 +11122,9 @@
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="K58" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="L58" s="28"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
@@ -11144,28 +11135,28 @@
     </row>
     <row r="59">
       <c r="A59" s="48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E59" s="60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="H59" s="40" t="s">
         <v>329</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>330</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -11180,28 +11171,28 @@
     </row>
     <row r="60">
       <c r="A60" s="48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C60" s="74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -11216,10 +11207,10 @@
     </row>
     <row r="61">
       <c r="A61" s="48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C61" s="89"/>
       <c r="D61" s="89"/>
@@ -11228,10 +11219,10 @@
       </c>
       <c r="F61" s="89"/>
       <c r="G61" s="49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -11246,24 +11237,24 @@
     </row>
     <row r="62">
       <c r="A62" s="64" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D62" s="74"/>
       <c r="E62" s="49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F62" s="75"/>
       <c r="G62" s="36" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H62" s="49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -11278,10 +11269,10 @@
     </row>
     <row r="63">
       <c r="A63" s="48" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C63" s="91" t="s">
         <v>315</v>
@@ -11304,10 +11295,10 @@
     </row>
     <row r="64">
       <c r="A64" s="64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C64" s="92"/>
       <c r="D64" s="92"/>
@@ -11318,7 +11309,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
@@ -11330,7 +11321,7 @@
     </row>
     <row r="65">
       <c r="A65" s="64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B65" s="55" t="s">
         <v>56</v>
@@ -11342,14 +11333,14 @@
         <v>58</v>
       </c>
       <c r="E65" s="74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F65" s="74"/>
       <c r="G65" s="93" t="s">
         <v>60</v>
       </c>
       <c r="H65" s="93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -11364,7 +11355,7 @@
     </row>
     <row r="66">
       <c r="A66" s="64" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B66" s="55" t="s">
         <v>63</v>
@@ -11376,14 +11367,14 @@
         <v>65</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F66" s="49"/>
       <c r="G66" s="45" t="s">
         <v>67</v>
       </c>
       <c r="H66" s="45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -11398,7 +11389,7 @@
     </row>
     <row r="67">
       <c r="A67" s="64" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B67" s="55" t="s">
         <v>70</v>
@@ -11410,14 +11401,14 @@
         <v>72</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H67" s="39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -11432,7 +11423,7 @@
     </row>
     <row r="68">
       <c r="A68" s="64" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B68" s="55" t="s">
         <v>77</v>
@@ -11444,14 +11435,14 @@
         <v>79</v>
       </c>
       <c r="E68" s="74" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F68" s="74"/>
       <c r="G68" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H68" s="75" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -11466,7 +11457,7 @@
     </row>
     <row r="69">
       <c r="A69" s="64" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B69" s="55" t="s">
         <v>83</v>
@@ -11478,16 +11469,16 @@
         <v>85</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>88</v>
       </c>
       <c r="H69" s="49" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -11502,7 +11493,7 @@
     </row>
     <row r="70">
       <c r="A70" s="64" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B70" s="55" t="s">
         <v>91</v>
@@ -11511,17 +11502,17 @@
         <v>92</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F70" s="49"/>
       <c r="G70" s="4" t="s">
         <v>95</v>
       </c>
       <c r="H70" s="39" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -11536,7 +11527,7 @@
     </row>
     <row r="71">
       <c r="A71" s="64" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B71" s="55" t="s">
         <v>98</v>
@@ -11548,14 +11539,14 @@
         <v>100</v>
       </c>
       <c r="E71" s="49" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F71" s="49"/>
       <c r="G71" s="43" t="s">
         <v>102</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -11570,7 +11561,7 @@
     </row>
     <row r="72">
       <c r="A72" s="64" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B72" s="55" t="s">
         <v>118</v>
@@ -11582,14 +11573,14 @@
         <v>120</v>
       </c>
       <c r="E72" s="49" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F72" s="74"/>
       <c r="G72" s="49" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H72" s="49" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -11604,7 +11595,7 @@
     </row>
     <row r="73">
       <c r="A73" s="64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B73" s="55" t="s">
         <v>112</v>
@@ -11616,14 +11607,14 @@
         <v>114</v>
       </c>
       <c r="E73" s="49" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F73" s="74"/>
       <c r="G73" s="49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H73" s="94" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -11638,10 +11629,10 @@
     </row>
     <row r="74">
       <c r="A74" s="64" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C74" s="49" t="s">
         <v>134</v>
@@ -11650,14 +11641,14 @@
         <v>135</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F74" s="49"/>
       <c r="G74" s="45" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H74" s="45" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -11672,7 +11663,7 @@
     </row>
     <row r="75">
       <c r="A75" s="64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B75" s="55" t="s">
         <v>125</v>
@@ -11684,14 +11675,14 @@
         <v>127</v>
       </c>
       <c r="E75" s="49" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F75" s="49"/>
       <c r="G75" s="49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H75" s="49" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -11706,26 +11697,26 @@
     </row>
     <row r="76">
       <c r="A76" s="64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B76" s="55" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F76" s="39"/>
       <c r="G76" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H76" s="95" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -11744,14 +11735,14 @@
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
       <c r="E77" s="60" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F77" s="75"/>
       <c r="G77" s="43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H77" s="43" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -11766,10 +11757,10 @@
     </row>
     <row r="78">
       <c r="A78" s="48" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>315</v>
@@ -11792,10 +11783,10 @@
     </row>
     <row r="79">
       <c r="A79" s="64" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C79" s="92"/>
       <c r="D79" s="92"/>
@@ -11806,7 +11797,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
@@ -11818,26 +11809,26 @@
     </row>
     <row r="80">
       <c r="A80" s="64" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B80" s="55" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C80" s="49" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E80" s="49" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F80" s="49"/>
       <c r="G80" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H80" s="39" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
@@ -11852,24 +11843,24 @@
     </row>
     <row r="81">
       <c r="A81" s="69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B81" s="96" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C81" s="97" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D81" s="49"/>
       <c r="E81" s="49" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F81" s="74"/>
       <c r="G81" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H81" s="39" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -11884,10 +11875,10 @@
     </row>
     <row r="82">
       <c r="A82" s="82" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -11908,26 +11899,26 @@
     </row>
     <row r="83">
       <c r="A83" s="83" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C83" s="49" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E83" s="98" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F83" s="98"/>
       <c r="G83" s="99" t="s">
         <v>152</v>
       </c>
       <c r="H83" s="100" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -11942,10 +11933,10 @@
     </row>
     <row r="84">
       <c r="A84" s="83" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C84" s="91" t="s">
         <v>315</v>
@@ -11968,24 +11959,24 @@
     </row>
     <row r="85">
       <c r="A85" s="48" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C85" s="102" t="s">
         <v>315</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F85" s="49"/>
       <c r="G85" s="36" t="s">
         <v>53</v>
       </c>
       <c r="H85" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -12000,7 +11991,7 @@
     </row>
     <row r="86">
       <c r="A86" s="64" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B86" s="55" t="s">
         <v>56</v>
@@ -12012,14 +12003,14 @@
         <v>58</v>
       </c>
       <c r="E86" s="98" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F86" s="98"/>
       <c r="G86" s="39" t="s">
         <v>60</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -12034,7 +12025,7 @@
     </row>
     <row r="87">
       <c r="A87" s="64" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B87" s="55" t="s">
         <v>70</v>
@@ -12046,14 +12037,14 @@
         <v>72</v>
       </c>
       <c r="E87" s="98" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F87" s="98"/>
       <c r="G87" s="75" t="s">
         <v>74</v>
       </c>
       <c r="H87" s="75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -12061,7 +12052,7 @@
     </row>
     <row r="88">
       <c r="A88" s="64" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B88" s="55" t="s">
         <v>77</v>
@@ -12073,14 +12064,14 @@
         <v>79</v>
       </c>
       <c r="E88" s="49" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F88" s="49"/>
       <c r="G88" s="39" t="s">
         <v>74</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -12088,7 +12079,7 @@
     </row>
     <row r="89">
       <c r="A89" s="64" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B89" s="55" t="s">
         <v>91</v>
@@ -12097,17 +12088,17 @@
         <v>92</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E89" s="49" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F89" s="49"/>
       <c r="G89" s="39" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H89" s="39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
@@ -12115,7 +12106,7 @@
     </row>
     <row r="90">
       <c r="A90" s="64" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B90" s="55" t="s">
         <v>98</v>
@@ -12127,14 +12118,14 @@
         <v>100</v>
       </c>
       <c r="E90" s="49" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F90" s="49"/>
       <c r="G90" s="49" t="s">
         <v>102</v>
       </c>
       <c r="H90" s="49" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
@@ -12142,7 +12133,7 @@
     </row>
     <row r="91">
       <c r="A91" s="64" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B91" s="55" t="s">
         <v>118</v>
@@ -12154,14 +12145,14 @@
         <v>120</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F91" s="74"/>
       <c r="G91" s="49" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H91" s="49" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
@@ -12169,7 +12160,7 @@
     </row>
     <row r="92">
       <c r="A92" s="64" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B92" s="55" t="s">
         <v>112</v>
@@ -12181,14 +12172,14 @@
         <v>114</v>
       </c>
       <c r="E92" s="74" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F92" s="74"/>
       <c r="G92" s="74" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H92" s="74" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
@@ -12196,10 +12187,10 @@
     </row>
     <row r="93">
       <c r="A93" s="64" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C93" s="74" t="s">
         <v>134</v>
@@ -12208,14 +12199,14 @@
         <v>135</v>
       </c>
       <c r="E93" s="74" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F93" s="74"/>
       <c r="G93" s="103" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H93" s="103" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
@@ -12223,7 +12214,7 @@
     </row>
     <row r="94">
       <c r="A94" s="64" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B94" s="55" t="s">
         <v>125</v>
@@ -12235,14 +12226,14 @@
         <v>127</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F94" s="49"/>
       <c r="G94" s="49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H94" s="49" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
@@ -12250,24 +12241,24 @@
     </row>
     <row r="95">
       <c r="A95" s="48" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C95" s="102" t="s">
         <v>315</v>
       </c>
       <c r="D95" s="104"/>
       <c r="E95" s="39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F95" s="49"/>
       <c r="G95" s="36" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H95" s="105" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
@@ -12275,7 +12266,7 @@
     </row>
     <row r="96">
       <c r="A96" s="64" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B96" s="55" t="s">
         <v>56</v>
@@ -12287,14 +12278,14 @@
         <v>58</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F96" s="49"/>
       <c r="G96" s="39" t="s">
         <v>60</v>
       </c>
       <c r="H96" s="106" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
@@ -12302,7 +12293,7 @@
     </row>
     <row r="97">
       <c r="A97" s="64" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B97" s="55" t="s">
         <v>70</v>
@@ -12314,14 +12305,14 @@
         <v>72</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="39" t="s">
         <v>74</v>
       </c>
       <c r="H97" s="39" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
@@ -12329,7 +12320,7 @@
     </row>
     <row r="98">
       <c r="A98" s="64" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B98" s="55" t="s">
         <v>77</v>
@@ -12341,14 +12332,14 @@
         <v>79</v>
       </c>
       <c r="E98" s="49" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F98" s="49"/>
       <c r="G98" s="39" t="s">
         <v>74</v>
       </c>
       <c r="H98" s="39" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -12356,7 +12347,7 @@
     </row>
     <row r="99">
       <c r="A99" s="64" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B99" s="55" t="s">
         <v>91</v>
@@ -12365,17 +12356,17 @@
         <v>92</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E99" s="49" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F99" s="49"/>
       <c r="G99" s="39" t="s">
         <v>95</v>
       </c>
       <c r="H99" s="39" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
@@ -12383,7 +12374,7 @@
     </row>
     <row r="100">
       <c r="A100" s="64" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B100" s="55" t="s">
         <v>98</v>
@@ -12395,14 +12386,14 @@
         <v>100</v>
       </c>
       <c r="E100" s="49" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F100" s="49"/>
       <c r="G100" s="39" t="s">
         <v>102</v>
       </c>
       <c r="H100" s="39" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -12410,7 +12401,7 @@
     </row>
     <row r="101">
       <c r="A101" s="64" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B101" s="55" t="s">
         <v>118</v>
@@ -12422,14 +12413,14 @@
         <v>120</v>
       </c>
       <c r="E101" s="49" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F101" s="49"/>
       <c r="G101" s="49" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H101" s="49" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
@@ -12437,7 +12428,7 @@
     </row>
     <row r="102">
       <c r="A102" s="64" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B102" s="55" t="s">
         <v>112</v>
@@ -12449,14 +12440,14 @@
         <v>114</v>
       </c>
       <c r="E102" s="49" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H102" s="94" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
@@ -12464,10 +12455,10 @@
     </row>
     <row r="103">
       <c r="A103" s="64" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C103" s="49" t="s">
         <v>134</v>
@@ -12476,14 +12467,14 @@
         <v>135</v>
       </c>
       <c r="E103" s="49" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F103" s="49"/>
       <c r="G103" s="45" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H103" s="107" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -12491,7 +12482,7 @@
     </row>
     <row r="104">
       <c r="A104" s="64" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B104" s="55" t="s">
         <v>125</v>
@@ -12503,14 +12494,14 @@
         <v>127</v>
       </c>
       <c r="E104" s="49" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F104" s="49"/>
       <c r="G104" s="49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H104" s="94" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -12518,26 +12509,26 @@
     </row>
     <row r="105">
       <c r="A105" s="48" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B105" s="47" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C105" s="49" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E105" s="49" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F105" s="49"/>
       <c r="G105" s="99" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H105" s="100" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -12545,22 +12536,22 @@
     </row>
     <row r="106">
       <c r="A106" s="48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="7"/>
       <c r="E106" s="75" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F106" s="74"/>
       <c r="G106" s="14" t="s">
         <v>53</v>
       </c>
       <c r="H106" s="108" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
@@ -12568,7 +12559,7 @@
     </row>
     <row r="107">
       <c r="A107" s="64" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B107" s="55" t="s">
         <v>56</v>
@@ -12580,14 +12571,14 @@
         <v>58</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F107" s="49"/>
       <c r="G107" s="39" t="s">
         <v>60</v>
       </c>
       <c r="H107" s="39" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
@@ -12595,7 +12586,7 @@
     </row>
     <row r="108">
       <c r="A108" s="64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B108" s="55" t="s">
         <v>70</v>
@@ -12607,14 +12598,14 @@
         <v>72</v>
       </c>
       <c r="E108" s="49" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F108" s="49"/>
       <c r="G108" s="39" t="s">
         <v>74</v>
       </c>
       <c r="H108" s="39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
@@ -12622,7 +12613,7 @@
     </row>
     <row r="109">
       <c r="A109" s="64" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B109" s="55" t="s">
         <v>77</v>
@@ -12634,14 +12625,14 @@
         <v>79</v>
       </c>
       <c r="E109" s="74" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F109" s="74"/>
       <c r="G109" s="75" t="s">
         <v>74</v>
       </c>
       <c r="H109" s="109" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
@@ -12649,7 +12640,7 @@
     </row>
     <row r="110">
       <c r="A110" s="64" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B110" s="55" t="s">
         <v>91</v>
@@ -12658,17 +12649,17 @@
         <v>92</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E110" s="49" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F110" s="49"/>
       <c r="G110" s="39" t="s">
         <v>95</v>
       </c>
       <c r="H110" s="39" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
@@ -12676,7 +12667,7 @@
     </row>
     <row r="111">
       <c r="A111" s="64" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B111" s="55" t="s">
         <v>98</v>
@@ -12688,14 +12679,14 @@
         <v>100</v>
       </c>
       <c r="E111" s="98" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F111" s="98"/>
       <c r="G111" s="49" t="s">
         <v>102</v>
       </c>
       <c r="H111" s="49" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
@@ -12703,7 +12694,7 @@
     </row>
     <row r="112">
       <c r="A112" s="64" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B112" s="55" t="s">
         <v>118</v>
@@ -12715,14 +12706,14 @@
         <v>120</v>
       </c>
       <c r="E112" s="74" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F112" s="74"/>
       <c r="G112" s="74" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H112" s="74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
@@ -12730,7 +12721,7 @@
     </row>
     <row r="113">
       <c r="A113" s="64" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B113" s="55" t="s">
         <v>112</v>
@@ -12742,14 +12733,14 @@
         <v>114</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F113" s="49"/>
       <c r="G113" s="49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H113" s="49" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
@@ -12757,10 +12748,10 @@
     </row>
     <row r="114">
       <c r="A114" s="64" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C114" s="49" t="s">
         <v>134</v>
@@ -12769,14 +12760,14 @@
         <v>135</v>
       </c>
       <c r="E114" s="49" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F114" s="49"/>
       <c r="G114" s="45" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
@@ -12784,7 +12775,7 @@
     </row>
     <row r="115">
       <c r="A115" s="64" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B115" s="55" t="s">
         <v>125</v>
@@ -12796,14 +12787,14 @@
         <v>127</v>
       </c>
       <c r="E115" s="49" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F115" s="49"/>
       <c r="G115" s="49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H115" s="49" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
@@ -12811,26 +12802,26 @@
     </row>
     <row r="116">
       <c r="A116" s="83" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C116" s="110" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D116" s="110" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E116" s="111" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F116" s="111"/>
       <c r="G116" s="39" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H116" s="112" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
@@ -12838,10 +12829,10 @@
     </row>
     <row r="117">
       <c r="A117" s="82" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C117" s="113" t="s">
         <v>315</v>
@@ -12857,10 +12848,10 @@
     </row>
     <row r="118">
       <c r="A118" s="83" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B118" s="38" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C118" s="113" t="s">
         <v>315</v>
@@ -12876,7 +12867,7 @@
     </row>
     <row r="119">
       <c r="A119" s="48" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B119" s="47" t="s">
         <v>163</v>
@@ -12888,24 +12879,24 @@
         <v>165</v>
       </c>
       <c r="E119" s="115" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F119" s="115"/>
       <c r="G119" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H119" s="40" t="s">
+      <c r="H119" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="109" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="64" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B120" s="55" t="s">
         <v>170</v>
@@ -12917,7 +12908,7 @@
         <v>172</v>
       </c>
       <c r="E120" s="115" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F120" s="115"/>
       <c r="G120" s="4" t="s">
@@ -12932,7 +12923,7 @@
     </row>
     <row r="121">
       <c r="A121" s="48" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B121" s="47" t="s">
         <v>198</v>
@@ -12951,7 +12942,7 @@
     </row>
     <row r="122">
       <c r="A122" s="64" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>163</v>
@@ -12963,7 +12954,7 @@
         <v>165</v>
       </c>
       <c r="E122" s="111" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F122" s="111"/>
       <c r="G122" s="4" t="s">
@@ -12975,12 +12966,12 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="109" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="64" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B123" s="55" t="s">
         <v>170</v>
@@ -12992,7 +12983,7 @@
         <v>172</v>
       </c>
       <c r="E123" s="111" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F123" s="111"/>
       <c r="G123" s="4" t="s">
@@ -13007,7 +12998,7 @@
     </row>
     <row r="124">
       <c r="A124" s="48" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B124" s="47" t="s">
         <v>207</v>
@@ -13026,7 +13017,7 @@
     </row>
     <row r="125">
       <c r="A125" s="64" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B125" s="55" t="s">
         <v>83</v>
@@ -13038,16 +13029,16 @@
         <v>210</v>
       </c>
       <c r="E125" s="115" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F125" s="115" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G125" s="36" t="s">
         <v>213</v>
       </c>
       <c r="H125" s="116" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -13055,7 +13046,7 @@
     </row>
     <row r="126">
       <c r="A126" s="64" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B126" s="55" t="s">
         <v>216</v>
@@ -13067,7 +13058,7 @@
         <v>218</v>
       </c>
       <c r="E126" s="114" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14" t="s">
@@ -13082,10 +13073,10 @@
     </row>
     <row r="127">
       <c r="A127" s="48" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C127" s="110" t="s">
         <v>224</v>
@@ -13094,14 +13085,14 @@
         <v>8</v>
       </c>
       <c r="E127" s="114" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F127" s="114"/>
       <c r="G127" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H127" s="62" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
@@ -13109,7 +13100,7 @@
     </row>
     <row r="128">
       <c r="A128" s="48" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B128" s="47" t="s">
         <v>228</v>
@@ -13128,7 +13119,7 @@
     </row>
     <row r="129">
       <c r="A129" s="64" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B129" s="55" t="s">
         <v>230</v>
@@ -13140,7 +13131,7 @@
         <v>232</v>
       </c>
       <c r="E129" s="115" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4" t="s">
@@ -13155,13 +13146,13 @@
     </row>
     <row r="130">
       <c r="A130" s="69" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B130" s="96"/>
       <c r="C130" s="110"/>
       <c r="D130" s="110"/>
       <c r="E130" s="115" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>238</v>
@@ -13178,13 +13169,13 @@
     </row>
     <row r="131">
       <c r="A131" s="69" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B131" s="96"/>
       <c r="C131" s="110"/>
       <c r="D131" s="110"/>
       <c r="E131" s="118" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>242</v>
@@ -13201,7 +13192,7 @@
     </row>
     <row r="132">
       <c r="A132" s="64" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B132" s="55" t="s">
         <v>245</v>
@@ -13213,7 +13204,7 @@
         <v>247</v>
       </c>
       <c r="E132" s="115" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4" t="s">
@@ -13228,7 +13219,7 @@
     </row>
     <row r="133">
       <c r="A133" s="64" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B133" s="55" t="s">
         <v>252</v>
@@ -13240,7 +13231,7 @@
         <v>254</v>
       </c>
       <c r="E133" s="115" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4" t="s">
@@ -13255,10 +13246,10 @@
     </row>
     <row r="134">
       <c r="A134" s="64" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B134" s="55" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>259</v>
@@ -13267,14 +13258,14 @@
         <v>260</v>
       </c>
       <c r="E134" s="115" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F134" s="49"/>
-      <c r="G134" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="H134" s="40" t="s">
+      <c r="G134" s="39" t="s">
         <v>559</v>
+      </c>
+      <c r="H134" s="39" t="s">
+        <v>560</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -13282,10 +13273,10 @@
     </row>
     <row r="135">
       <c r="A135" s="64" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B135" s="55" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>259</v>
@@ -13294,14 +13285,14 @@
         <v>260</v>
       </c>
       <c r="E135" s="119" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F135" s="49"/>
-      <c r="G135" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="H135" s="40" t="s">
+      <c r="G135" s="39" t="s">
         <v>559</v>
+      </c>
+      <c r="H135" s="39" t="s">
+        <v>560</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
@@ -13309,21 +13300,23 @@
     </row>
     <row r="136">
       <c r="A136" s="48" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C136" s="110" t="s">
         <v>315</v>
       </c>
       <c r="D136" s="110"/>
-      <c r="E136" s="120"/>
-      <c r="F136" s="120"/>
-      <c r="G136" s="121" t="s">
+      <c r="E136" s="115" t="s">
+        <v>565</v>
+      </c>
+      <c r="F136" s="115"/>
+      <c r="G136" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="H136" s="121" t="s">
+      <c r="H136" s="36" t="s">
         <v>300</v>
       </c>
       <c r="I136" s="7"/>
@@ -13332,10 +13325,10 @@
     </row>
     <row r="137">
       <c r="A137" s="64" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C137" s="110"/>
       <c r="D137" s="110"/>
@@ -13346,31 +13339,31 @@
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="64" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B138" s="55" t="s">
-        <v>567</v>
-      </c>
-      <c r="C138" s="110" t="s">
-        <v>568</v>
-      </c>
-      <c r="D138" s="110" t="s">
         <v>569</v>
       </c>
-      <c r="E138" s="122" t="s">
+      <c r="C138" s="120" t="s">
         <v>570</v>
       </c>
-      <c r="F138" s="72"/>
-      <c r="G138" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="H138" s="40" t="s">
+      <c r="D138" s="120" t="s">
         <v>571</v>
+      </c>
+      <c r="E138" s="121" t="s">
+        <v>572</v>
+      </c>
+      <c r="F138" s="39"/>
+      <c r="G138" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H138" s="39" t="s">
+        <v>573</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -13378,24 +13371,24 @@
     </row>
     <row r="139">
       <c r="A139" s="64" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B139" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="C139" s="110" t="s">
         <v>407</v>
       </c>
-      <c r="D139" s="110"/>
-      <c r="E139" s="122" t="s">
-        <v>573</v>
-      </c>
-      <c r="F139" s="72"/>
-      <c r="G139" s="40" t="s">
-        <v>409</v>
-      </c>
-      <c r="H139" s="40" t="s">
-        <v>574</v>
+      <c r="C139" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="D139" s="122"/>
+      <c r="E139" s="121" t="s">
+        <v>575</v>
+      </c>
+      <c r="F139" s="39"/>
+      <c r="G139" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H139" s="39" t="s">
+        <v>576</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -13403,37 +13396,37 @@
     </row>
     <row r="140">
       <c r="A140" s="64" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B140" s="55" t="s">
-        <v>576</v>
-      </c>
-      <c r="C140" s="110" t="s">
-        <v>407</v>
-      </c>
-      <c r="D140" s="110"/>
-      <c r="E140" s="122" t="s">
-        <v>577</v>
-      </c>
-      <c r="F140" s="72"/>
-      <c r="G140" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="H140" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="C140" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="D140" s="122"/>
+      <c r="E140" s="121" t="s">
+        <v>579</v>
+      </c>
+      <c r="F140" s="39"/>
+      <c r="G140" s="4" t="s">
         <v>342</v>
+      </c>
+      <c r="H140" s="39" t="s">
+        <v>343</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="48" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C141" s="113" t="s">
         <v>315</v>
@@ -13446,15 +13439,15 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="75" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="64" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B142" s="55" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C142" s="110"/>
       <c r="D142" s="110"/>
@@ -13465,31 +13458,31 @@
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="64" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B143" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="110" t="s">
+      <c r="C143" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="D143" s="110" t="s">
+      <c r="D143" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="E143" s="122" t="s">
-        <v>584</v>
-      </c>
-      <c r="F143" s="122"/>
-      <c r="G143" s="99" t="s">
+      <c r="E143" s="121" t="s">
+        <v>586</v>
+      </c>
+      <c r="F143" s="121"/>
+      <c r="G143" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H143" s="99" t="s">
-        <v>585</v>
+      <c r="H143" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
@@ -13497,26 +13490,26 @@
     </row>
     <row r="144">
       <c r="A144" s="64" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B144" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C144" s="110" t="s">
+      <c r="C144" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="D144" s="110" t="s">
+      <c r="D144" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="E144" s="122" t="s">
-        <v>587</v>
-      </c>
-      <c r="F144" s="122"/>
-      <c r="G144" s="99" t="s">
+      <c r="E144" s="121" t="s">
+        <v>589</v>
+      </c>
+      <c r="F144" s="121"/>
+      <c r="G144" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H144" s="99" t="s">
-        <v>588</v>
+      <c r="H144" s="4" t="s">
+        <v>590</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
@@ -13524,26 +13517,26 @@
     </row>
     <row r="145">
       <c r="A145" s="64" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B145" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C145" s="110" t="s">
+      <c r="C145" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="D145" s="110" t="s">
+      <c r="D145" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="E145" s="122" t="s">
-        <v>590</v>
-      </c>
-      <c r="F145" s="122"/>
-      <c r="G145" s="99" t="s">
+      <c r="E145" s="121" t="s">
+        <v>592</v>
+      </c>
+      <c r="F145" s="121"/>
+      <c r="G145" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H145" s="99" t="s">
-        <v>591</v>
+      <c r="H145" s="4" t="s">
+        <v>593</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
@@ -13551,26 +13544,26 @@
     </row>
     <row r="146">
       <c r="A146" s="64" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B146" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C146" s="110" t="s">
+      <c r="C146" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="D146" s="110" t="s">
+      <c r="D146" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="E146" s="122" t="s">
-        <v>593</v>
-      </c>
-      <c r="F146" s="122"/>
-      <c r="G146" s="99" t="s">
+      <c r="E146" s="121" t="s">
+        <v>595</v>
+      </c>
+      <c r="F146" s="121"/>
+      <c r="G146" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H146" s="99" t="s">
-        <v>594</v>
+      <c r="H146" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -13578,57 +13571,57 @@
     </row>
     <row r="147">
       <c r="A147" s="64" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B147" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C147" s="110" t="s">
+      <c r="C147" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="110" t="s">
+      <c r="D147" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="E147" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="F147" s="122" t="s">
-        <v>597</v>
-      </c>
-      <c r="G147" s="99" t="s">
+      <c r="E147" s="121" t="s">
+        <v>598</v>
+      </c>
+      <c r="F147" s="121" t="s">
+        <v>599</v>
+      </c>
+      <c r="G147" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H147" s="99" t="s">
-        <v>598</v>
+      <c r="H147" s="4" t="s">
+        <v>600</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="64" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B148" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C148" s="110" t="s">
+      <c r="C148" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="D148" s="110" t="s">
-        <v>365</v>
-      </c>
-      <c r="E148" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="F148" s="122"/>
-      <c r="G148" s="99" t="s">
+      <c r="D148" s="120" t="s">
+        <v>366</v>
+      </c>
+      <c r="E148" s="121" t="s">
+        <v>603</v>
+      </c>
+      <c r="F148" s="121"/>
+      <c r="G148" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H148" s="99" t="s">
-        <v>602</v>
+      <c r="H148" s="4" t="s">
+        <v>604</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -13636,26 +13629,26 @@
     </row>
     <row r="149">
       <c r="A149" s="64" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B149" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C149" s="110" t="s">
+      <c r="C149" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="D149" s="110" t="s">
+      <c r="D149" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E149" s="122" t="s">
-        <v>604</v>
-      </c>
-      <c r="F149" s="122"/>
-      <c r="G149" s="99" t="s">
+      <c r="E149" s="121" t="s">
+        <v>606</v>
+      </c>
+      <c r="F149" s="121"/>
+      <c r="G149" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H149" s="99" t="s">
-        <v>605</v>
+      <c r="H149" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -13663,26 +13656,26 @@
     </row>
     <row r="150">
       <c r="A150" s="64" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B150" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C150" s="113" t="s">
+      <c r="C150" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="D150" s="110" t="s">
+      <c r="D150" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="E150" s="122" t="s">
-        <v>607</v>
-      </c>
-      <c r="F150" s="122"/>
-      <c r="G150" s="99" t="s">
-        <v>373</v>
-      </c>
-      <c r="H150" s="99" t="s">
+      <c r="E150" s="121" t="s">
+        <v>609</v>
+      </c>
+      <c r="F150" s="121"/>
+      <c r="G150" s="4" t="s">
         <v>374</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
@@ -13690,26 +13683,26 @@
     </row>
     <row r="151">
       <c r="A151" s="64" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B151" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C151" s="110" t="s">
+      <c r="C151" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="D151" s="110" t="s">
+      <c r="D151" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="E151" s="122" t="s">
-        <v>609</v>
-      </c>
-      <c r="F151" s="122"/>
-      <c r="G151" s="99" t="s">
-        <v>377</v>
-      </c>
-      <c r="H151" s="99" t="s">
+      <c r="E151" s="121" t="s">
+        <v>611</v>
+      </c>
+      <c r="F151" s="121"/>
+      <c r="G151" s="4" t="s">
         <v>378</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
@@ -13717,26 +13710,26 @@
     </row>
     <row r="152">
       <c r="A152" s="64" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B152" s="55" t="s">
-        <v>611</v>
-      </c>
-      <c r="C152" s="110" t="s">
+        <v>613</v>
+      </c>
+      <c r="C152" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D152" s="110" t="s">
+      <c r="D152" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="E152" s="122" t="s">
-        <v>612</v>
-      </c>
-      <c r="F152" s="122"/>
-      <c r="G152" s="99" t="s">
-        <v>373</v>
-      </c>
-      <c r="H152" s="99" t="s">
-        <v>613</v>
+      <c r="E152" s="121" t="s">
+        <v>614</v>
+      </c>
+      <c r="F152" s="121"/>
+      <c r="G152" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -13744,26 +13737,26 @@
     </row>
     <row r="153">
       <c r="A153" s="64" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B153" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C153" s="110" t="s">
+      <c r="C153" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="D153" s="110" t="s">
+      <c r="D153" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="E153" s="122" t="s">
-        <v>615</v>
-      </c>
-      <c r="F153" s="122"/>
-      <c r="G153" s="99" t="s">
-        <v>377</v>
-      </c>
-      <c r="H153" s="99" t="s">
-        <v>385</v>
+      <c r="E153" s="121" t="s">
+        <v>617</v>
+      </c>
+      <c r="F153" s="121"/>
+      <c r="G153" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -13771,49 +13764,49 @@
     </row>
     <row r="154">
       <c r="A154" s="64" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B154" s="55" t="s">
-        <v>387</v>
-      </c>
-      <c r="C154" s="110" t="s">
-        <v>617</v>
-      </c>
-      <c r="D154" s="110"/>
-      <c r="E154" s="122" t="s">
-        <v>618</v>
-      </c>
-      <c r="F154" s="72"/>
-      <c r="G154" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="H154" s="123" t="s">
+        <v>388</v>
+      </c>
+      <c r="C154" s="120" t="s">
         <v>619</v>
+      </c>
+      <c r="D154" s="122"/>
+      <c r="E154" s="121" t="s">
+        <v>620</v>
+      </c>
+      <c r="F154" s="39"/>
+      <c r="G154" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H154" s="95" t="s">
+        <v>621</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="77" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B155" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="C155" s="124"/>
-      <c r="D155" s="124"/>
+        <v>388</v>
+      </c>
+      <c r="C155" s="120"/>
+      <c r="D155" s="122"/>
       <c r="E155" s="119" t="s">
-        <v>618</v>
-      </c>
-      <c r="F155" s="72"/>
-      <c r="G155" s="125" t="s">
-        <v>391</v>
-      </c>
-      <c r="H155" s="126" t="s">
-        <v>619</v>
+        <v>620</v>
+      </c>
+      <c r="F155" s="39"/>
+      <c r="G155" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="H155" s="124" t="s">
+        <v>621</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -13821,10 +13814,10 @@
     </row>
     <row r="156">
       <c r="A156" s="83" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C156" s="110" t="s">
         <v>315</v>
@@ -13840,22 +13833,24 @@
     </row>
     <row r="157">
       <c r="A157" s="48" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>624</v>
-      </c>
-      <c r="C157" s="110" t="s">
+        <v>626</v>
+      </c>
+      <c r="C157" s="120" t="s">
         <v>315</v>
       </c>
-      <c r="D157" s="110"/>
-      <c r="E157" s="120"/>
-      <c r="F157" s="120"/>
-      <c r="G157" s="127" t="s">
-        <v>625</v>
-      </c>
-      <c r="H157" s="128" t="s">
-        <v>626</v>
+      <c r="D157" s="122"/>
+      <c r="E157" s="121" t="s">
+        <v>627</v>
+      </c>
+      <c r="F157" s="121"/>
+      <c r="G157" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="H157" s="117" t="s">
+        <v>629</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -13863,26 +13858,26 @@
     </row>
     <row r="158">
       <c r="A158" s="64" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B158" s="55" t="s">
-        <v>628</v>
-      </c>
-      <c r="C158" s="129" t="s">
-        <v>629</v>
-      </c>
-      <c r="D158" s="129" t="s">
-        <v>630</v>
-      </c>
-      <c r="E158" s="122" t="s">
         <v>631</v>
       </c>
-      <c r="F158" s="122"/>
-      <c r="G158" s="99" t="s">
+      <c r="C158" s="120" t="s">
         <v>632</v>
       </c>
-      <c r="H158" s="99" t="s">
+      <c r="D158" s="120" t="s">
         <v>633</v>
+      </c>
+      <c r="E158" s="121" t="s">
+        <v>634</v>
+      </c>
+      <c r="F158" s="121"/>
+      <c r="G158" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>636</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -13890,45 +13885,45 @@
     </row>
     <row r="159">
       <c r="A159" s="48" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="C159" s="129" t="s">
+        <v>638</v>
+      </c>
+      <c r="C159" s="120" t="s">
         <v>315</v>
       </c>
-      <c r="D159" s="130"/>
-      <c r="E159" s="122"/>
-      <c r="F159" s="122"/>
-      <c r="G159" s="99"/>
-      <c r="H159" s="72"/>
+      <c r="D159" s="122"/>
+      <c r="E159" s="121"/>
+      <c r="F159" s="121"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
       <c r="A160" s="64" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B160" s="55" t="s">
-        <v>637</v>
-      </c>
-      <c r="C160" s="129" t="s">
-        <v>638</v>
-      </c>
-      <c r="D160" s="129" t="s">
-        <v>639</v>
-      </c>
-      <c r="E160" s="122" t="s">
         <v>640</v>
       </c>
-      <c r="F160" s="122"/>
-      <c r="G160" s="99" t="s">
+      <c r="C160" s="120" t="s">
         <v>641</v>
       </c>
-      <c r="H160" s="131" t="s">
+      <c r="D160" s="120" t="s">
         <v>642</v>
+      </c>
+      <c r="E160" s="121" t="s">
+        <v>643</v>
+      </c>
+      <c r="F160" s="121"/>
+      <c r="G160" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="H160" s="125" t="s">
+        <v>645</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -13936,26 +13931,26 @@
     </row>
     <row r="161">
       <c r="A161" s="64" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B161" s="73" t="s">
-        <v>644</v>
-      </c>
-      <c r="C161" s="129" t="s">
-        <v>645</v>
-      </c>
-      <c r="D161" s="129" t="s">
-        <v>646</v>
-      </c>
-      <c r="E161" s="132" t="s">
         <v>647</v>
       </c>
-      <c r="F161" s="132"/>
-      <c r="G161" s="133" t="s">
-        <v>632</v>
-      </c>
-      <c r="H161" s="133" t="s">
+      <c r="C161" s="120" t="s">
         <v>648</v>
+      </c>
+      <c r="D161" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="E161" s="126" t="s">
+        <v>650</v>
+      </c>
+      <c r="F161" s="126"/>
+      <c r="G161" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>651</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
@@ -13963,26 +13958,26 @@
     </row>
     <row r="162">
       <c r="A162" s="64" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B162" s="73" t="s">
-        <v>650</v>
-      </c>
-      <c r="C162" s="129" t="s">
-        <v>638</v>
-      </c>
-      <c r="D162" s="129" t="s">
-        <v>639</v>
-      </c>
-      <c r="E162" s="132" t="s">
-        <v>651</v>
-      </c>
-      <c r="F162" s="132"/>
-      <c r="G162" s="133" t="s">
+        <v>653</v>
+      </c>
+      <c r="C162" s="120" t="s">
         <v>641</v>
       </c>
-      <c r="H162" s="134" t="s">
-        <v>652</v>
+      <c r="D162" s="120" t="s">
+        <v>642</v>
+      </c>
+      <c r="E162" s="126" t="s">
+        <v>654</v>
+      </c>
+      <c r="F162" s="126"/>
+      <c r="G162" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="H162" s="127" t="s">
+        <v>655</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
@@ -13990,26 +13985,26 @@
     </row>
     <row r="163">
       <c r="A163" s="64" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B163" s="73" t="s">
-        <v>654</v>
-      </c>
-      <c r="C163" s="129" t="s">
-        <v>645</v>
-      </c>
-      <c r="D163" s="129" t="s">
-        <v>646</v>
-      </c>
-      <c r="E163" s="132" t="s">
-        <v>655</v>
-      </c>
-      <c r="F163" s="132"/>
-      <c r="G163" s="133" t="s">
-        <v>632</v>
-      </c>
-      <c r="H163" s="134" t="s">
+        <v>657</v>
+      </c>
+      <c r="C163" s="120" t="s">
         <v>648</v>
+      </c>
+      <c r="D163" s="120" t="s">
+        <v>649</v>
+      </c>
+      <c r="E163" s="126" t="s">
+        <v>658</v>
+      </c>
+      <c r="F163" s="126"/>
+      <c r="G163" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="H163" s="128" t="s">
+        <v>651</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -14017,62 +14012,62 @@
     </row>
     <row r="164">
       <c r="A164" s="48" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B164" s="63" t="s">
-        <v>657</v>
-      </c>
-      <c r="C164" s="129" t="s">
+        <v>660</v>
+      </c>
+      <c r="C164" s="120" t="s">
         <v>315</v>
       </c>
-      <c r="D164" s="130"/>
-      <c r="E164" s="132"/>
-      <c r="F164" s="132"/>
-      <c r="G164" s="133"/>
-      <c r="H164" s="133"/>
+      <c r="D164" s="122"/>
+      <c r="E164" s="126"/>
+      <c r="F164" s="126"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
     <row r="165">
       <c r="A165" s="64" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B165" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="C165" s="129"/>
-      <c r="D165" s="130"/>
-      <c r="E165" s="132"/>
-      <c r="F165" s="132"/>
-      <c r="G165" s="133"/>
-      <c r="H165" s="133"/>
+        <v>347</v>
+      </c>
+      <c r="C165" s="120"/>
+      <c r="D165" s="122"/>
+      <c r="E165" s="126"/>
+      <c r="F165" s="126"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="64" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B166" s="73" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C166" s="129" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D166" s="130"/>
-      <c r="E166" s="132" t="s">
-        <v>661</v>
-      </c>
-      <c r="F166" s="132"/>
-      <c r="G166" s="135" t="s">
-        <v>403</v>
-      </c>
-      <c r="H166" s="135" t="s">
-        <v>662</v>
+      <c r="E166" s="131" t="s">
+        <v>664</v>
+      </c>
+      <c r="F166" s="131"/>
+      <c r="G166" s="132" t="s">
+        <v>404</v>
+      </c>
+      <c r="H166" s="132" t="s">
+        <v>665</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
@@ -14080,24 +14075,24 @@
     </row>
     <row r="167">
       <c r="A167" s="64" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B167" s="73" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C167" s="129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D167" s="130"/>
-      <c r="E167" s="132" t="s">
-        <v>664</v>
-      </c>
-      <c r="F167" s="132"/>
-      <c r="G167" s="135" t="s">
-        <v>409</v>
-      </c>
-      <c r="H167" s="135" t="s">
-        <v>665</v>
+      <c r="E167" s="131" t="s">
+        <v>667</v>
+      </c>
+      <c r="F167" s="131"/>
+      <c r="G167" s="132" t="s">
+        <v>410</v>
+      </c>
+      <c r="H167" s="132" t="s">
+        <v>668</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -14105,24 +14100,24 @@
     </row>
     <row r="168">
       <c r="A168" s="64" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B168" s="73" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C168" s="129" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D168" s="130"/>
-      <c r="E168" s="132" t="s">
-        <v>668</v>
-      </c>
-      <c r="F168" s="132"/>
-      <c r="G168" s="135" t="s">
-        <v>403</v>
-      </c>
-      <c r="H168" s="135" t="s">
-        <v>669</v>
+      <c r="E168" s="131" t="s">
+        <v>671</v>
+      </c>
+      <c r="F168" s="131"/>
+      <c r="G168" s="132" t="s">
+        <v>404</v>
+      </c>
+      <c r="H168" s="132" t="s">
+        <v>672</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -14130,24 +14125,24 @@
     </row>
     <row r="169">
       <c r="A169" s="64" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B169" s="73" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C169" s="129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D169" s="130"/>
-      <c r="E169" s="132" t="s">
-        <v>671</v>
-      </c>
-      <c r="F169" s="132"/>
-      <c r="G169" s="135" t="s">
-        <v>409</v>
-      </c>
-      <c r="H169" s="135" t="s">
-        <v>672</v>
+      <c r="E169" s="131" t="s">
+        <v>674</v>
+      </c>
+      <c r="F169" s="131"/>
+      <c r="G169" s="132" t="s">
+        <v>410</v>
+      </c>
+      <c r="H169" s="132" t="s">
+        <v>675</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -14229,8 +14224,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="136" t="s">
-        <v>579</v>
+      <c r="A1" s="133" t="s">
+        <v>581</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>34</v>
@@ -14250,180 +14245,180 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" s="137" t="s">
         <v>339</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>340</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="39" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="138" t="s">
-        <v>681</v>
-      </c>
-      <c r="B4" s="135" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
+      <c r="A4" s="135" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="40" t="s">
-        <v>682</v>
-      </c>
-      <c r="F4" s="140" t="s">
-        <v>683</v>
+        <v>685</v>
+      </c>
+      <c r="F4" s="137" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>685</v>
-      </c>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
+        <v>688</v>
+      </c>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="138"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
+      <c r="W5" s="138"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="138"/>
     </row>
     <row r="6">
-      <c r="A6" s="139" t="s">
-        <v>397</v>
-      </c>
-      <c r="B6" s="135" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
+      <c r="A6" s="136" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="132" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
       <c r="E6" s="40" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>687</v>
-      </c>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="141"/>
-      <c r="U6" s="141"/>
-      <c r="V6" s="141"/>
-      <c r="W6" s="141"/>
-      <c r="X6" s="141"/>
-      <c r="Y6" s="141"/>
-      <c r="Z6" s="141"/>
+        <v>690</v>
+      </c>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="138"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="138"/>
+      <c r="W6" s="138"/>
+      <c r="X6" s="138"/>
+      <c r="Y6" s="138"/>
+      <c r="Z6" s="138"/>
     </row>
     <row r="7">
-      <c r="A7" s="139" t="s">
-        <v>564</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>688</v>
-      </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="135" t="s">
-        <v>686</v>
-      </c>
-      <c r="F7" s="135" t="s">
+      <c r="A7" s="136" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="132" t="s">
+        <v>691</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="132" t="s">
         <v>689</v>
       </c>
+      <c r="F7" s="132" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="139" t="s">
-        <v>582</v>
-      </c>
-      <c r="B8" s="135" t="s">
-        <v>688</v>
-      </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="135" t="s">
-        <v>690</v>
-      </c>
-      <c r="F8" s="135" t="s">
-        <v>689</v>
+      <c r="A8" s="136" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" s="132" t="s">
+        <v>691</v>
+      </c>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="132" t="s">
+        <v>693</v>
+      </c>
+      <c r="F8" s="132" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="138" t="s">
-        <v>658</v>
-      </c>
-      <c r="B9" s="135" t="s">
-        <v>688</v>
-      </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="132" t="s">
+      <c r="A9" s="135" t="s">
+        <v>661</v>
+      </c>
+      <c r="B9" s="132" t="s">
         <v>691</v>
       </c>
-      <c r="F9" s="135" t="s">
-        <v>689</v>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="131" t="s">
+        <v>694</v>
+      </c>
+      <c r="F9" s="132" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="10">
@@ -18415,108 +18410,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="142" t="s">
-        <v>692</v>
-      </c>
-      <c r="B2" s="143" t="s">
-        <v>693</v>
+      <c r="A2" s="139" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="144" t="s">
-        <v>694</v>
-      </c>
-      <c r="B3" s="143" t="s">
-        <v>695</v>
+      <c r="A3" s="141" t="s">
+        <v>697</v>
+      </c>
+      <c r="B3" s="140" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="145" t="s">
-        <v>696</v>
+      <c r="A4" s="142" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="146" t="s">
-        <v>697</v>
-      </c>
-      <c r="B6" s="143" t="s">
-        <v>698</v>
+      <c r="A6" s="143" t="s">
+        <v>700</v>
+      </c>
+      <c r="B6" s="140" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="143" t="s">
-        <v>699</v>
+      <c r="B7" s="140" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="143"/>
+      <c r="B8" s="140"/>
     </row>
     <row r="9">
-      <c r="B9" s="143"/>
+      <c r="B9" s="140"/>
     </row>
     <row r="10">
-      <c r="A10" s="146" t="s">
-        <v>700</v>
+      <c r="A10" s="143" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="146" t="s">
-        <v>701</v>
-      </c>
-      <c r="B11" s="147" t="s">
-        <v>702</v>
+      <c r="A11" s="143" t="s">
+        <v>704</v>
+      </c>
+      <c r="B11" s="144" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="148" t="s">
-        <v>703</v>
+      <c r="B12" s="145" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="149"/>
-      <c r="B13" s="150" t="s">
-        <v>704</v>
+      <c r="A13" s="146"/>
+      <c r="B13" s="147" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="151" t="s">
-        <v>705</v>
+      <c r="B14" s="148" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="152" t="s">
-        <v>706</v>
+      <c r="B15" s="149" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="153" t="s">
-        <v>707</v>
+      <c r="B16" s="150" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="146"/>
+      <c r="A17" s="143"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="146" t="s">
-        <v>708</v>
-      </c>
-      <c r="B18" s="154" t="s">
-        <v>709</v>
+      <c r="A18" s="143" t="s">
+        <v>711</v>
+      </c>
+      <c r="B18" s="151" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="B19" s="155"/>
+        <v>713</v>
+      </c>
+      <c r="B19" s="152"/>
     </row>
     <row r="21">
-      <c r="A21" s="146" t="s">
-        <v>711</v>
-      </c>
-      <c r="B21" s="156" t="s">
-        <v>712</v>
+      <c r="A21" s="143" t="s">
+        <v>714</v>
+      </c>
+      <c r="B21" s="153" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -18542,57 +18537,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="157" t="s">
-        <v>716</v>
+      <c r="A4" s="154" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="157" t="s">
-        <v>720</v>
+      <c r="A8" s="154" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="158" t="s">
-        <v>721</v>
+      <c r="A9" s="155" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12">
@@ -18621,65 +18616,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B1" s="159" t="s">
-        <v>724</v>
+        <v>716</v>
+      </c>
+      <c r="B1" s="156" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="143" t="s">
-        <v>732</v>
+      <c r="A8" s="140" t="s">
+        <v>735</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="143" t="s">
-        <v>733</v>
+      <c r="A9" s="140" t="s">
+        <v>736</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="160" t="s">
-        <v>734</v>
+      <c r="A10" s="157" t="s">
+        <v>737</v>
       </c>
       <c r="B10" s="7"/>
     </row>
@@ -18699,7 +18694,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="147"/>
+      <c r="A1" s="144"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -18723,11 +18718,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="161" t="s">
-        <v>735</v>
-      </c>
-      <c r="C1" s="161" t="s">
-        <v>736</v>
+      <c r="A1" s="158" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1" s="158" t="s">
+        <v>739</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -18754,16 +18749,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -18790,13 +18785,13 @@
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -18827,13 +18822,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -18864,13 +18859,13 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>743</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -18898,16 +18893,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -18934,16 +18929,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="D7" s="162" t="s">
-        <v>752</v>
+        <v>746</v>
+      </c>
+      <c r="D7" s="159" t="s">
+        <v>755</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -18970,16 +18965,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -19005,220 +19000,220 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="163" t="s">
-        <v>756</v>
-      </c>
-      <c r="B9" s="164" t="s">
-        <v>757</v>
-      </c>
-      <c r="C9" s="164" t="s">
-        <v>743</v>
-      </c>
-      <c r="D9" s="164" t="s">
-        <v>758</v>
-      </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
+      <c r="A9" s="160" t="s">
+        <v>759</v>
+      </c>
+      <c r="B9" s="161" t="s">
+        <v>760</v>
+      </c>
+      <c r="C9" s="161" t="s">
+        <v>746</v>
+      </c>
+      <c r="D9" s="161" t="s">
+        <v>761</v>
+      </c>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="161"/>
+      <c r="X9" s="161"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="161"/>
     </row>
     <row r="10">
-      <c r="A10" s="163" t="s">
-        <v>759</v>
-      </c>
-      <c r="B10" s="164" t="s">
-        <v>757</v>
-      </c>
-      <c r="C10" s="164" t="s">
-        <v>743</v>
-      </c>
-      <c r="D10" s="164" t="s">
+      <c r="A10" s="160" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="161" t="s">
         <v>760</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
+      <c r="C10" s="161" t="s">
+        <v>746</v>
+      </c>
+      <c r="D10" s="161" t="s">
+        <v>763</v>
+      </c>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="161"/>
+      <c r="U10" s="161"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="161"/>
     </row>
     <row r="11">
-      <c r="A11" s="163" t="s">
-        <v>761</v>
-      </c>
-      <c r="B11" s="164" t="s">
-        <v>762</v>
-      </c>
-      <c r="C11" s="164" t="s">
-        <v>743</v>
-      </c>
-      <c r="D11" s="164" t="s">
-        <v>763</v>
-      </c>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="164"/>
+      <c r="A11" s="160" t="s">
+        <v>764</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>765</v>
+      </c>
+      <c r="C11" s="161" t="s">
+        <v>746</v>
+      </c>
+      <c r="D11" s="161" t="s">
+        <v>766</v>
+      </c>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="161"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="161"/>
+      <c r="X11" s="161"/>
+      <c r="Y11" s="161"/>
+      <c r="Z11" s="161"/>
     </row>
     <row r="12">
-      <c r="A12" s="163" t="s">
-        <v>764</v>
-      </c>
-      <c r="B12" s="164" t="s">
-        <v>762</v>
-      </c>
-      <c r="C12" s="164" t="s">
-        <v>743</v>
-      </c>
-      <c r="D12" s="164" t="s">
+      <c r="A12" s="160" t="s">
+        <v>767</v>
+      </c>
+      <c r="B12" s="161" t="s">
         <v>765</v>
       </c>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
+      <c r="C12" s="161" t="s">
+        <v>746</v>
+      </c>
+      <c r="D12" s="161" t="s">
+        <v>768</v>
+      </c>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="161"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="161"/>
+      <c r="U12" s="161"/>
+      <c r="V12" s="161"/>
+      <c r="W12" s="161"/>
+      <c r="X12" s="161"/>
+      <c r="Y12" s="161"/>
+      <c r="Z12" s="161"/>
     </row>
     <row r="13">
-      <c r="A13" s="163" t="s">
-        <v>766</v>
-      </c>
-      <c r="B13" s="163" t="s">
+      <c r="A13" s="160" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" s="160" t="s">
+        <v>749</v>
+      </c>
+      <c r="C13" s="161" t="s">
         <v>746</v>
       </c>
-      <c r="C13" s="164" t="s">
-        <v>743</v>
-      </c>
-      <c r="D13" s="164" t="s">
-        <v>767</v>
-      </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
-      <c r="U13" s="164"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="164"/>
+      <c r="D13" s="161" t="s">
+        <v>770</v>
+      </c>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="161"/>
+      <c r="T13" s="161"/>
+      <c r="U13" s="161"/>
+      <c r="V13" s="161"/>
+      <c r="W13" s="161"/>
+      <c r="X13" s="161"/>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="161"/>
     </row>
     <row r="14">
-      <c r="A14" s="163" t="s">
-        <v>768</v>
-      </c>
-      <c r="B14" s="163" t="s">
+      <c r="A14" s="160" t="s">
+        <v>771</v>
+      </c>
+      <c r="B14" s="160" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" s="161" t="s">
         <v>746</v>
       </c>
-      <c r="C14" s="164" t="s">
-        <v>743</v>
-      </c>
-      <c r="D14" s="164" t="s">
-        <v>769</v>
-      </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="164"/>
-      <c r="U14" s="164"/>
-      <c r="V14" s="164"/>
-      <c r="W14" s="164"/>
-      <c r="X14" s="164"/>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="164"/>
+      <c r="D14" s="161" t="s">
+        <v>772</v>
+      </c>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="161"/>
+      <c r="V14" s="161"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19246,52 +19241,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="165" t="s">
-        <v>735</v>
+      <c r="A1" s="162" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="146" t="s">
-        <v>737</v>
-      </c>
-      <c r="B2" s="146" t="s">
-        <v>738</v>
-      </c>
-      <c r="C2" s="146" t="s">
-        <v>739</v>
-      </c>
-      <c r="D2" s="146" t="s">
+      <c r="A2" s="143" t="s">
         <v>740</v>
       </c>
+      <c r="B2" s="143" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2" s="143" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2" s="143" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="143" t="s">
-        <v>770</v>
-      </c>
-      <c r="B3" s="143" t="s">
-        <v>771</v>
+      <c r="A3" s="140" t="s">
+        <v>773</v>
+      </c>
+      <c r="B3" s="140" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="143" t="s">
-        <v>772</v>
-      </c>
-      <c r="B4" s="143" t="s">
-        <v>773</v>
+      <c r="A4" s="140" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4" s="140" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="143" t="s">
-        <v>774</v>
-      </c>
-      <c r="B5" s="143" t="s">
-        <v>775</v>
-      </c>
-      <c r="C5" s="166" t="s">
-        <v>773</v>
-      </c>
-      <c r="D5" s="143" t="s">
+      <c r="A5" s="140" t="s">
+        <v>777</v>
+      </c>
+      <c r="B5" s="140" t="s">
+        <v>778</v>
+      </c>
+      <c r="C5" s="163" t="s">
         <v>776</v>
+      </c>
+      <c r="D5" s="140" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.6.0</t>
   </si>
   <si>
     <r>
@@ -2307,10 +2307,10 @@
     <t>Information about tenders</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:concernsSubmissionsForLot ?value .</t>
+    <t>epo:SubmissionStatisticalInformation / epo:LotAwardOutcome</t>
+  </si>
+  <si>
+    <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
     <t>V.2.2.6</t>
@@ -12524,7 +12524,7 @@
         <v>483</v>
       </c>
       <c r="F105" s="49"/>
-      <c r="G105" s="99" t="s">
+      <c r="G105" s="39" t="s">
         <v>484</v>
       </c>
       <c r="H105" s="100" t="s">

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="782">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.6.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <r>
@@ -552,6 +552,9 @@
     <t>?this epo:hasLegalBasis ?value</t>
   </si>
   <si>
+    <t>gen_dangling_individuals.ask.rq, gen_empty_individuals.ask.rq</t>
+  </si>
+  <si>
     <t>Section I</t>
   </si>
   <si>
@@ -630,6 +633,9 @@
     </r>
   </si>
   <si>
+    <t>gen_language_tags_exist.ask.rq</t>
+  </si>
+  <si>
     <t>I.1.2</t>
   </si>
   <si>
@@ -685,6 +691,9 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
+  </si>
+  <si>
+    <t>gen_unique_ids.ask.rq</t>
   </si>
   <si>
     <t>I.1.3</t>
@@ -1338,9 +1347,6 @@
     <t>?this epo:hasTitle ?value .</t>
   </si>
   <si>
-    <t>epo:Procedure epo:hasTitle Text</t>
-  </si>
-  <si>
     <t>II.1.1.1</t>
   </si>
   <si>
@@ -1850,7 +1856,7 @@
     <t>Framework Duration Justification</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/JUSTIFICATION/P</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/JUSTIFICATION</t>
   </si>
   <si>
     <t>In the case of framework agreements, provide justification for any duration exceeding 8 years</t>
@@ -1880,27 +1886,13 @@
     <t>epo:Lot / xsd:boolean</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?this</t>
-    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">epo:isUsingEUFunds </t>
+      <t xml:space="preserve">?this </t>
     </r>
     <r>
       <rPr>
@@ -1908,19 +1900,7 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>true .</t>
-    </r>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?this</t>
+      <t xml:space="preserve">epo:isUsingEUFunds </t>
     </r>
     <r>
       <rPr>
@@ -1928,50 +1908,28 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>epo:isUsingEUFunds</t>
-    </r>
+      <t>true .</t>
+    </r>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> false .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.13.2</t>
-  </si>
-  <si>
-    <t>Identification of the project</t>
-  </si>
-  <si>
-    <t>BT-5011</t>
-  </si>
-  <si>
-    <t>Contract EU Funds Identifier</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED/P</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Fund / rdf:langString</t>
-  </si>
-  <si>
+      <t xml:space="preserve">?this </t>
+    </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>?this epo:isFundedBy /</t>
+      <t>epo:isUsingEUFunds</t>
     </r>
     <r>
       <rPr>
@@ -1979,7 +1937,40 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasDescription ?</t>
+      <t xml:space="preserve"> false .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.13.2</t>
+  </si>
+  <si>
+    <t>Identification of the project</t>
+  </si>
+  <si>
+    <t>BT-5011</t>
+  </si>
+  <si>
+    <t>Contract EU Funds Identifier</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Fund / rdf:langString</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isFundedBy / epo:hasDescription ?</t>
     </r>
     <r>
       <rPr>
@@ -2193,7 +2184,7 @@
     <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
-    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` XPath</t>
+    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` or (in earlier versions of XML) `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR` XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -2313,6 +2304,9 @@
     <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
+    <t>iss_gh_map237_submissionStatInfo_relations.ask.rq</t>
+  </si>
+  <si>
     <t>V.2.2.6</t>
   </si>
   <si>
@@ -2322,7 +2316,8 @@
     <t>BT-768</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP
+AWARD_CONTRACT/AWARDED_CONTRACT/AWARDED_TO_GROUP</t>
   </si>
   <si>
     <t>epo:OrganisationGroup / org:Organization</t>
@@ -2349,7 +2344,8 @@
     <t>V.2.3.1</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
   </si>
   <si>
     <r>
@@ -2394,7 +2390,8 @@
     <t>V.2.3.2</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
   </si>
   <si>
     <r>
@@ -2439,7 +2436,8 @@
     <t>V.2.3.3</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
   </si>
   <si>
     <r>
@@ -2484,7 +2482,8 @@
     <t>V.2.3.4</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
   </si>
   <si>
     <r>
@@ -2529,10 +2528,12 @@
     <t>V.2.3.5</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
   </si>
   <si>
     <r>
@@ -2580,7 +2581,8 @@
     <t>Organisation Post Code</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
   </si>
   <si>
     <r>
@@ -2625,7 +2627,8 @@
     <t>V.2.3.7</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
   </si>
   <si>
     <r>
@@ -2670,7 +2673,8 @@
     <t>V.2.3.8</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / xsd:anyURI</t>
@@ -2682,7 +2686,8 @@
     <t>V.2.3.9</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / rdf:langString</t>
@@ -2697,7 +2702,8 @@
     <t>Internet Addresses (URL)</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
   </si>
   <si>
     <r>
@@ -2727,7 +2733,8 @@
     <t>V.2.3.11</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
   </si>
   <si>
     <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasFax ?value .</t>
@@ -2745,7 +2752,8 @@
     <t>Winner Size</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/SME</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2)  / at-voc:economic-operator-size</t>
@@ -2804,7 +2812,9 @@
     <t>Tender Value</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_TOTAL</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / epo:MonetaryValue / xsd:decimal</t>
@@ -2851,7 +2861,9 @@
     <t>no direct match</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL/@CURRENCY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_TOTAL/@CURRENCY</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
@@ -4055,7 +4067,7 @@
     <t>Directive 2014/24/EU – In the case of framework agreements, provide justification for any duration exceeding 4 years</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/JUSTIFICATION/P</t>
+    <t>PROCEDURE/CRITERIA_EVALUATION</t>
   </si>
   <si>
     <t>epo:Lot / epo:FrameworkAgreementTerm / rdf:langString</t>
@@ -4064,10 +4076,16 @@
     <t>?this  epo:isSubjectToLotSpecificTerm / epo:hasDurationExtensionJustification ?value</t>
   </si>
   <si>
+    <t>iss_gh_map286_language_tag_exists.select.rq</t>
+  </si>
+  <si>
     <t>VII.1.5.5</t>
   </si>
   <si>
     <t>Directive 2014/25/EU – In the case of framework agreements, provide justification for any duration exceeding 8 years:</t>
+  </si>
+  <si>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/JUSTIFICATION</t>
   </si>
   <si>
     <t>VII.1.6</t>
@@ -4409,9 +4427,6 @@
     <t>Modification Reason Description</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/ADDITIONAL_NEED/P</t>
-  </si>
-  <si>
     <t>?this epo:hasElementModification / epo:hasModificationReasonDescription ?value</t>
   </si>
   <si>
@@ -4450,9 +4465,6 @@
   </si>
   <si>
     <t>Description of the circumstances which rendered the modification necessary and explanation of the unforeseen nature of these circumstances:</t>
-  </si>
-  <si>
-    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/UNFORESEEN_CIRCUMSTANCE/P</t>
   </si>
   <si>
     <t>VII.2.3</t>
@@ -5046,12 +5058,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF999999"/>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FF999999"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -5357,7 +5369,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5523,9 +5535,6 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -5569,6 +5578,9 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -5578,22 +5590,22 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -5605,10 +5617,10 @@
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5745,16 +5757,13 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -9340,7 +9349,9 @@
       <c r="H3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="7"/>
       <c r="L3" s="28"/>
@@ -9353,10 +9364,10 @@
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9377,22 +9388,22 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -9407,28 +9418,30 @@
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
@@ -9441,28 +9454,30 @@
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
@@ -9475,26 +9490,26 @@
     </row>
     <row r="8">
       <c r="A8" s="46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -9509,26 +9524,26 @@
     </row>
     <row r="9">
       <c r="A9" s="48" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -9543,28 +9558,28 @@
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -9579,26 +9594,26 @@
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -9613,26 +9628,26 @@
     </row>
     <row r="12">
       <c r="A12" s="44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -9647,28 +9662,30 @@
     </row>
     <row r="13">
       <c r="A13" s="48" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
@@ -9681,26 +9698,26 @@
     </row>
     <row r="14">
       <c r="A14" s="48" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -9715,26 +9732,26 @@
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -9749,26 +9766,26 @@
     </row>
     <row r="16">
       <c r="A16" s="48" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -9783,10 +9800,10 @@
     </row>
     <row r="17">
       <c r="A17" s="46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -9807,26 +9824,26 @@
     </row>
     <row r="18">
       <c r="A18" s="51" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="45" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -9841,26 +9858,26 @@
     </row>
     <row r="19">
       <c r="A19" s="54" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -9875,10 +9892,10 @@
     </row>
     <row r="20">
       <c r="A20" s="33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -9899,10 +9916,10 @@
     </row>
     <row r="21">
       <c r="A21" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -9923,33 +9940,31 @@
     </row>
     <row r="22">
       <c r="A22" s="46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -9961,110 +9976,112 @@
     </row>
     <row r="23">
       <c r="A23" s="51" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="I23" s="53"/>
+        <v>163</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="J23" s="53"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="58"/>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
     </row>
     <row r="25">
       <c r="A25" s="54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -10079,26 +10096,26 @@
     </row>
     <row r="26">
       <c r="A26" s="46" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -10113,22 +10130,22 @@
     </row>
     <row r="27">
       <c r="A27" s="37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="60" t="s">
-        <v>183</v>
+      <c r="E27" s="59" t="s">
+        <v>185</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -10143,28 +10160,30 @@
     </row>
     <row r="28">
       <c r="A28" s="46" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B28" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D28" s="49" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F28" s="49"/>
       <c r="G28" s="36" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="I28" s="4"/>
+        <v>191</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
@@ -10177,52 +10196,54 @@
     </row>
     <row r="29">
       <c r="A29" s="54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F29" s="49"/>
       <c r="G29" s="36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
     </row>
     <row r="30">
       <c r="A30" s="46" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -10243,26 +10264,26 @@
     </row>
     <row r="31">
       <c r="A31" s="54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -10277,26 +10298,26 @@
     </row>
     <row r="32">
       <c r="A32" s="54" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -10311,10 +10332,10 @@
     </row>
     <row r="33">
       <c r="A33" s="46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -10335,28 +10356,28 @@
     </row>
     <row r="34">
       <c r="A34" s="54" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="H34" s="61" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>216</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -10371,70 +10392,74 @@
     </row>
     <row r="35">
       <c r="A35" s="54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="I35" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
     </row>
     <row r="36">
       <c r="A36" s="46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="60" t="s">
-        <v>225</v>
+      <c r="E36" s="59" t="s">
+        <v>227</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="I36" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="28"/>
@@ -10447,10 +10472,10 @@
     </row>
     <row r="37">
       <c r="A37" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="63" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>230</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -10470,31 +10495,31 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="64" t="s">
-        <v>229</v>
+      <c r="A38" s="63" t="s">
+        <v>231</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="C38" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67" t="s">
+      <c r="D38" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="H38" s="67" t="s">
+      <c r="E38" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="68"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="67"/>
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
@@ -10504,27 +10529,27 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="F39" s="67" t="s">
+      <c r="A39" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="H39" s="67" t="s">
+      <c r="F39" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="68"/>
+      <c r="G39" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="67"/>
       <c r="L39" s="28"/>
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
@@ -10534,69 +10559,69 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="F40" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="G40" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="H40" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
+      <c r="H40" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="58"/>
+      <c r="Z40" s="58"/>
     </row>
     <row r="41">
-      <c r="A41" s="64" t="s">
-        <v>244</v>
+      <c r="A41" s="63" t="s">
+        <v>246</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="67" t="s">
+      <c r="C41" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67" t="s">
+      <c r="D41" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="H41" s="67" t="s">
+      <c r="E41" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="68"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="67"/>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
@@ -10606,27 +10631,27 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" s="71" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>254</v>
-      </c>
-      <c r="E42" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="H42" s="67" t="s">
-        <v>256</v>
+      <c r="H42" s="66" t="s">
+        <v>258</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -10640,25 +10665,25 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="64" t="s">
-        <v>257</v>
+      <c r="A43" s="63" t="s">
+        <v>259</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F43" s="36"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="7"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="72"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="28"/>
@@ -10670,25 +10695,25 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="64" t="s">
-        <v>257</v>
+      <c r="A44" s="63" t="s">
+        <v>259</v>
       </c>
       <c r="B44" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>261</v>
+      <c r="E44" s="59" t="s">
+        <v>263</v>
       </c>
       <c r="F44" s="36"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="7"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="28"/>
@@ -10701,10 +10726,10 @@
     </row>
     <row r="45">
       <c r="A45" s="48" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -10724,27 +10749,27 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="64" t="s">
-        <v>265</v>
+      <c r="A46" s="63" t="s">
+        <v>267</v>
       </c>
       <c r="B46" s="73" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D46" s="74" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E46" s="74" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F46" s="75"/>
       <c r="G46" s="74" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H46" s="76" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -10759,26 +10784,26 @@
     </row>
     <row r="47">
       <c r="A47" s="77" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B47" s="78" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C47" s="79" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D47" s="80" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="H47" s="50" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="H47" s="81" t="s">
+        <v>275</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -10792,29 +10817,31 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="64" t="s">
-        <v>274</v>
+      <c r="A48" s="63" t="s">
+        <v>276</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="49" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>271</v>
       </c>
       <c r="F48" s="49"/>
       <c r="G48" s="49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H48" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="I48" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="7"/>
       <c r="L48" s="28"/>
@@ -10827,44 +10854,44 @@
     </row>
     <row r="49">
       <c r="A49" s="82" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
-      <c r="U49" s="59"/>
-      <c r="V49" s="59"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="59"/>
-      <c r="Z49" s="59"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="58"/>
+      <c r="Z49" s="58"/>
     </row>
     <row r="50">
       <c r="A50" s="83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -10885,24 +10912,26 @@
     </row>
     <row r="51">
       <c r="A51" s="48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="60" t="s">
         <v>288</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="59" t="s">
+        <v>289</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H51" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="I51" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="28"/>
@@ -10915,29 +10944,29 @@
     </row>
     <row r="52">
       <c r="A52" s="85" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B52" s="86" t="s">
-        <v>292</v>
-      </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="F52" s="72" t="s">
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="G52" s="72" t="s">
+      <c r="F52" s="71" t="s">
         <v>295</v>
       </c>
+      <c r="G52" s="71" t="s">
+        <v>296</v>
+      </c>
       <c r="H52" s="84" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L52" s="28"/>
       <c r="M52" s="28"/>
@@ -10949,22 +10978,22 @@
     </row>
     <row r="53">
       <c r="A53" s="82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -10979,30 +11008,32 @@
     </row>
     <row r="54">
       <c r="A54" s="48" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C54" s="74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D54" s="74" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E54" s="49" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="I54" s="7"/>
+        <v>308</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="28"/>
@@ -11015,30 +11046,32 @@
     </row>
     <row r="55">
       <c r="A55" s="48" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B55" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D55" s="74" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H55" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="I55" s="7"/>
+        <v>314</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="28"/>
@@ -11051,13 +11084,13 @@
     </row>
     <row r="56">
       <c r="A56" s="83" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -11076,21 +11109,21 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="64" t="s">
-        <v>316</v>
+      <c r="A57" s="63" t="s">
+        <v>317</v>
       </c>
       <c r="B57" s="55"/>
       <c r="C57" s="49"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="60" t="s">
-        <v>317</v>
+      <c r="E57" s="59" t="s">
+        <v>318</v>
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H57" s="49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -11104,26 +11137,26 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="64" t="s">
-        <v>316</v>
+      <c r="A58" s="63" t="s">
+        <v>317</v>
       </c>
       <c r="B58" s="88"/>
       <c r="C58" s="49"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="60" t="s">
-        <v>317</v>
+      <c r="E58" s="59" t="s">
+        <v>318</v>
       </c>
       <c r="F58" s="36"/>
       <c r="G58" s="36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H58" s="49" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L58" s="28"/>
       <c r="M58" s="28"/>
@@ -11135,28 +11168,28 @@
     </row>
     <row r="59">
       <c r="A59" s="48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="E59" s="60" t="s">
         <v>327</v>
       </c>
+      <c r="E59" s="59" t="s">
+        <v>328</v>
+      </c>
       <c r="F59" s="39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -11171,28 +11204,28 @@
     </row>
     <row r="60">
       <c r="A60" s="48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C60" s="74" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>326</v>
-      </c>
-      <c r="E60" s="60" t="s">
         <v>327</v>
       </c>
+      <c r="E60" s="59" t="s">
+        <v>328</v>
+      </c>
       <c r="F60" s="39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -11207,24 +11240,26 @@
     </row>
     <row r="61">
       <c r="A61" s="48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C61" s="89"/>
       <c r="D61" s="89"/>
-      <c r="E61" s="60" t="s">
-        <v>317</v>
+      <c r="E61" s="59" t="s">
+        <v>318</v>
       </c>
       <c r="F61" s="89"/>
       <c r="G61" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="I61" s="7"/>
+        <v>338</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="28"/>
@@ -11236,25 +11271,25 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="64" t="s">
-        <v>338</v>
+      <c r="A62" s="63" t="s">
+        <v>340</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D62" s="74"/>
       <c r="E62" s="49" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F62" s="75"/>
       <c r="G62" s="36" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H62" s="49" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -11269,13 +11304,13 @@
     </row>
     <row r="63">
       <c r="A63" s="48" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C63" s="91" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D63" s="49"/>
       <c r="E63" s="39"/>
@@ -11294,11 +11329,11 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="64" t="s">
-        <v>346</v>
+      <c r="A64" s="63" t="s">
+        <v>348</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C64" s="92"/>
       <c r="D64" s="92"/>
@@ -11309,7 +11344,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
@@ -11320,29 +11355,31 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="64" t="s">
-        <v>349</v>
+      <c r="A65" s="63" t="s">
+        <v>351</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E65" s="74" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F65" s="74"/>
       <c r="G65" s="93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H65" s="93" t="s">
-        <v>351</v>
-      </c>
-      <c r="I65" s="7"/>
+        <v>353</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="28"/>
@@ -11354,29 +11391,31 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="64" t="s">
-        <v>352</v>
+      <c r="A66" s="63" t="s">
+        <v>354</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F66" s="49"/>
       <c r="G66" s="45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H66" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="I66" s="7"/>
+        <v>356</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="28"/>
@@ -11388,27 +11427,27 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="64" t="s">
-        <v>355</v>
+      <c r="A67" s="63" t="s">
+        <v>357</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D67" s="49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H67" s="39" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -11422,27 +11461,27 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="64" t="s">
-        <v>358</v>
+      <c r="A68" s="63" t="s">
+        <v>360</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E68" s="74" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F68" s="74"/>
       <c r="G68" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H68" s="75" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -11456,29 +11495,29 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="64" t="s">
-        <v>361</v>
+      <c r="A69" s="63" t="s">
+        <v>363</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H69" s="49" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -11492,27 +11531,27 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="64" t="s">
-        <v>365</v>
+      <c r="A70" s="63" t="s">
+        <v>367</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F70" s="49"/>
       <c r="G70" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H70" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -11526,27 +11565,27 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="64" t="s">
-        <v>369</v>
+      <c r="A71" s="63" t="s">
+        <v>371</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D71" s="49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E71" s="49" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F71" s="49"/>
       <c r="G71" s="43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -11560,27 +11599,27 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="64" t="s">
-        <v>372</v>
+      <c r="A72" s="63" t="s">
+        <v>374</v>
       </c>
       <c r="B72" s="55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D72" s="74" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E72" s="49" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F72" s="74"/>
       <c r="G72" s="49" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H72" s="49" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -11594,27 +11633,27 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="64" t="s">
-        <v>376</v>
+      <c r="A73" s="63" t="s">
+        <v>378</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D73" s="49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E73" s="49" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F73" s="74"/>
       <c r="G73" s="49" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H73" s="94" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -11628,27 +11667,27 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="64" t="s">
-        <v>380</v>
+      <c r="A74" s="63" t="s">
+        <v>382</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C74" s="49" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F74" s="49"/>
       <c r="G74" s="45" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H74" s="45" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -11662,27 +11701,27 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="64" t="s">
-        <v>384</v>
+      <c r="A75" s="63" t="s">
+        <v>386</v>
       </c>
       <c r="B75" s="55" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E75" s="49" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F75" s="49"/>
       <c r="G75" s="49" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H75" s="49" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -11696,27 +11735,27 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="64" t="s">
-        <v>387</v>
+      <c r="A76" s="63" t="s">
+        <v>389</v>
       </c>
       <c r="B76" s="55" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F76" s="39"/>
       <c r="G76" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H76" s="95" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -11734,15 +11773,15 @@
       <c r="B77" s="4"/>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
-      <c r="E77" s="60" t="s">
-        <v>391</v>
+      <c r="E77" s="59" t="s">
+        <v>393</v>
       </c>
       <c r="F77" s="75"/>
       <c r="G77" s="43" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H77" s="43" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -11757,13 +11796,13 @@
     </row>
     <row r="78">
       <c r="A78" s="48" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -11782,11 +11821,11 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="64" t="s">
-        <v>398</v>
+      <c r="A79" s="63" t="s">
+        <v>400</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C79" s="92"/>
       <c r="D79" s="92"/>
@@ -11797,7 +11836,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
@@ -11808,27 +11847,27 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="64" t="s">
-        <v>399</v>
+      <c r="A80" s="63" t="s">
+        <v>401</v>
       </c>
       <c r="B80" s="55" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C80" s="49" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E80" s="49" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F80" s="49"/>
       <c r="G80" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H80" s="39" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
@@ -11842,25 +11881,25 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="69" t="s">
-        <v>406</v>
+      <c r="A81" s="68" t="s">
+        <v>408</v>
       </c>
       <c r="B81" s="96" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C81" s="97" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D81" s="49"/>
       <c r="E81" s="49" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F81" s="74"/>
       <c r="G81" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H81" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -11875,10 +11914,10 @@
     </row>
     <row r="82">
       <c r="A82" s="82" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -11899,28 +11938,30 @@
     </row>
     <row r="83">
       <c r="A83" s="83" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C83" s="49" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E83" s="98" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F83" s="98"/>
       <c r="G83" s="99" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H83" s="100" t="s">
-        <v>419</v>
-      </c>
-      <c r="I83" s="7"/>
+        <v>421</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="28"/>
@@ -11933,13 +11974,13 @@
     </row>
     <row r="84">
       <c r="A84" s="83" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C84" s="91" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="101"/>
@@ -11959,24 +12000,24 @@
     </row>
     <row r="85">
       <c r="A85" s="48" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C85" s="102" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="39" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F85" s="49"/>
       <c r="G85" s="36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H85" s="36" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -11990,29 +12031,31 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="64" t="s">
-        <v>426</v>
+      <c r="A86" s="63" t="s">
+        <v>428</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C86" s="49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D86" s="49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E86" s="98" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F86" s="98"/>
       <c r="G86" s="39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>428</v>
-      </c>
-      <c r="I86" s="7"/>
+        <v>430</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="28"/>
@@ -12024,216 +12067,216 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="64" t="s">
-        <v>429</v>
+      <c r="A87" s="63" t="s">
+        <v>431</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C87" s="49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D87" s="49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E87" s="98" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F87" s="98"/>
       <c r="G87" s="75" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H87" s="75" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="64" t="s">
-        <v>432</v>
+      <c r="A88" s="63" t="s">
+        <v>434</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E88" s="49" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F88" s="49"/>
       <c r="G88" s="39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="64" t="s">
-        <v>435</v>
+      <c r="A89" s="63" t="s">
+        <v>437</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C89" s="49" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D89" s="49" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E89" s="49" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F89" s="49"/>
       <c r="G89" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H89" s="39" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="64" t="s">
-        <v>439</v>
+      <c r="A90" s="63" t="s">
+        <v>441</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C90" s="49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D90" s="49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E90" s="49" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F90" s="49"/>
       <c r="G90" s="49" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H90" s="49" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="64" t="s">
-        <v>442</v>
+      <c r="A91" s="63" t="s">
+        <v>444</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C91" s="74" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D91" s="74" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F91" s="74"/>
       <c r="G91" s="49" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H91" s="49" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="64" t="s">
-        <v>444</v>
+      <c r="A92" s="63" t="s">
+        <v>446</v>
       </c>
       <c r="B92" s="55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C92" s="74" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D92" s="74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E92" s="74" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F92" s="74"/>
       <c r="G92" s="74" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H92" s="74" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="64" t="s">
-        <v>446</v>
+      <c r="A93" s="63" t="s">
+        <v>448</v>
       </c>
       <c r="B93" s="55" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C93" s="74" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D93" s="74" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E93" s="74" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F93" s="74"/>
       <c r="G93" s="103" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H93" s="103" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="64" t="s">
-        <v>449</v>
+      <c r="A94" s="63" t="s">
+        <v>451</v>
       </c>
       <c r="B94" s="55" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C94" s="49" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D94" s="49" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F94" s="49"/>
       <c r="G94" s="49" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H94" s="49" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
@@ -12241,267 +12284,269 @@
     </row>
     <row r="95">
       <c r="A95" s="48" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C95" s="102" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D95" s="104"/>
       <c r="E95" s="39" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F95" s="49"/>
       <c r="G95" s="36" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H95" s="105" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="64" t="s">
-        <v>455</v>
+      <c r="A96" s="63" t="s">
+        <v>457</v>
       </c>
       <c r="B96" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F96" s="49"/>
       <c r="G96" s="39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H96" s="106" t="s">
-        <v>457</v>
-      </c>
-      <c r="I96" s="7"/>
+        <v>459</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="64" t="s">
-        <v>458</v>
+      <c r="A97" s="63" t="s">
+        <v>460</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C97" s="49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H97" s="39" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="64" t="s">
-        <v>461</v>
+      <c r="A98" s="63" t="s">
+        <v>463</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C98" s="49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E98" s="49" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F98" s="49"/>
       <c r="G98" s="39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H98" s="39" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="64" t="s">
-        <v>464</v>
+      <c r="A99" s="63" t="s">
+        <v>466</v>
       </c>
       <c r="B99" s="55" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E99" s="49" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F99" s="49"/>
       <c r="G99" s="39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H99" s="39" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="64" t="s">
-        <v>467</v>
+      <c r="A100" s="63" t="s">
+        <v>469</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E100" s="49" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F100" s="49"/>
       <c r="G100" s="39" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H100" s="39" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="64" t="s">
-        <v>470</v>
+      <c r="A101" s="63" t="s">
+        <v>472</v>
       </c>
       <c r="B101" s="55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D101" s="49" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E101" s="49" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F101" s="49"/>
       <c r="G101" s="49" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H101" s="49" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="64" t="s">
-        <v>472</v>
+      <c r="A102" s="63" t="s">
+        <v>474</v>
       </c>
       <c r="B102" s="55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E102" s="49" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="49" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H102" s="94" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="64" t="s">
-        <v>474</v>
+      <c r="A103" s="63" t="s">
+        <v>476</v>
       </c>
       <c r="B103" s="55" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C103" s="49" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D103" s="49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E103" s="49" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F103" s="49"/>
       <c r="G103" s="45" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H103" s="107" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="64" t="s">
-        <v>477</v>
+      <c r="A104" s="63" t="s">
+        <v>479</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C104" s="49" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E104" s="49" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F104" s="49"/>
       <c r="G104" s="49" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H104" s="94" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -12509,26 +12554,26 @@
     </row>
     <row r="105">
       <c r="A105" s="48" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B105" s="47" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C105" s="49" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E105" s="49" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F105" s="49"/>
       <c r="G105" s="39" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H105" s="100" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -12536,265 +12581,267 @@
     </row>
     <row r="106">
       <c r="A106" s="48" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="7"/>
       <c r="E106" s="75" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F106" s="74"/>
       <c r="G106" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H106" s="108" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="64" t="s">
-        <v>489</v>
+      <c r="A107" s="63" t="s">
+        <v>491</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C107" s="49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D107" s="49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F107" s="49"/>
       <c r="G107" s="39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H107" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="I107" s="7"/>
+        <v>493</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="64" t="s">
-        <v>492</v>
+      <c r="A108" s="63" t="s">
+        <v>494</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C108" s="49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D108" s="49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E108" s="49" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F108" s="49"/>
       <c r="G108" s="39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H108" s="39" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="64" t="s">
-        <v>495</v>
+      <c r="A109" s="63" t="s">
+        <v>497</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D109" s="74" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E109" s="74" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F109" s="74"/>
       <c r="G109" s="75" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H109" s="109" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="64" t="s">
-        <v>498</v>
+      <c r="A110" s="63" t="s">
+        <v>500</v>
       </c>
       <c r="B110" s="55" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E110" s="49" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F110" s="49"/>
       <c r="G110" s="39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H110" s="39" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="64" t="s">
-        <v>501</v>
+      <c r="A111" s="63" t="s">
+        <v>503</v>
       </c>
       <c r="B111" s="55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E111" s="98" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F111" s="98"/>
       <c r="G111" s="49" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H111" s="49" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="64" t="s">
-        <v>504</v>
+      <c r="A112" s="63" t="s">
+        <v>506</v>
       </c>
       <c r="B112" s="55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C112" s="74" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D112" s="74" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E112" s="74" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F112" s="74"/>
       <c r="G112" s="74" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H112" s="74" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="64" t="s">
-        <v>506</v>
+      <c r="A113" s="63" t="s">
+        <v>508</v>
       </c>
       <c r="B113" s="55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C113" s="49" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D113" s="49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F113" s="49"/>
       <c r="G113" s="49" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H113" s="49" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="64" t="s">
-        <v>508</v>
+      <c r="A114" s="63" t="s">
+        <v>510</v>
       </c>
       <c r="B114" s="55" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C114" s="49" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D114" s="49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E114" s="49" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F114" s="49"/>
       <c r="G114" s="45" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="64" t="s">
-        <v>511</v>
+      <c r="A115" s="63" t="s">
+        <v>513</v>
       </c>
       <c r="B115" s="55" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C115" s="49" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D115" s="49" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E115" s="49" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F115" s="49"/>
       <c r="G115" s="49" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H115" s="49" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
@@ -12802,26 +12849,26 @@
     </row>
     <row r="116">
       <c r="A116" s="83" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C116" s="110" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D116" s="110" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E116" s="111" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F116" s="111"/>
       <c r="G116" s="39" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H116" s="112" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
@@ -12829,13 +12876,13 @@
     </row>
     <row r="117">
       <c r="A117" s="82" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C117" s="113" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="113"/>
       <c r="E117" s="111"/>
@@ -12848,13 +12895,13 @@
     </row>
     <row r="118">
       <c r="A118" s="83" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B118" s="38" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C118" s="113" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D118" s="110"/>
       <c r="E118" s="114"/>
@@ -12867,55 +12914,55 @@
     </row>
     <row r="119">
       <c r="A119" s="48" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C119" s="113" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D119" s="113" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E119" s="115" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F119" s="115"/>
       <c r="G119" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="109" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="64" t="s">
-        <v>527</v>
+      <c r="A120" s="63" t="s">
+        <v>529</v>
       </c>
       <c r="B120" s="55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E120" s="115" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F120" s="115"/>
       <c r="G120" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -12923,13 +12970,13 @@
     </row>
     <row r="121">
       <c r="A121" s="48" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B121" s="47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C121" s="110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D121" s="110"/>
       <c r="E121" s="115"/>
@@ -12941,56 +12988,56 @@
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="64" t="s">
-        <v>530</v>
+      <c r="A122" s="63" t="s">
+        <v>532</v>
       </c>
       <c r="B122" s="55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C122" s="110" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D122" s="110" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E122" s="111" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F122" s="111"/>
       <c r="G122" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="109" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="64" t="s">
-        <v>533</v>
+      <c r="A123" s="63" t="s">
+        <v>535</v>
       </c>
       <c r="B123" s="55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E123" s="111" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F123" s="111"/>
       <c r="G123" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
@@ -12998,13 +13045,13 @@
     </row>
     <row r="124">
       <c r="A124" s="48" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C124" s="110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D124" s="110"/>
       <c r="E124" s="115"/>
@@ -13016,97 +13063,101 @@
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="64" t="s">
-        <v>536</v>
+      <c r="A125" s="63" t="s">
+        <v>538</v>
       </c>
       <c r="B125" s="55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C125" s="110" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D125" s="110" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E125" s="115" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F125" s="115" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G125" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H125" s="116" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="64" t="s">
-        <v>540</v>
+      <c r="A126" s="63" t="s">
+        <v>542</v>
       </c>
       <c r="B126" s="55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E126" s="114" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="I126" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
       <c r="A127" s="48" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C127" s="110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D127" s="110" t="s">
         <v>8</v>
       </c>
       <c r="E127" s="114" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F127" s="114"/>
       <c r="G127" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H127" s="62" t="s">
-        <v>545</v>
-      </c>
-      <c r="I127" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="H127" s="61" t="s">
+        <v>547</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
       <c r="A128" s="48" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C128" s="110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D128" s="110"/>
       <c r="E128" s="115"/>
@@ -13118,217 +13169,221 @@
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="64" t="s">
-        <v>547</v>
+      <c r="A129" s="63" t="s">
+        <v>549</v>
       </c>
       <c r="B129" s="55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C129" s="110" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D129" s="110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E129" s="115" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H129" s="117" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="69" t="s">
-        <v>549</v>
+      <c r="A130" s="68" t="s">
+        <v>551</v>
       </c>
       <c r="B130" s="96"/>
       <c r="C130" s="110"/>
       <c r="D130" s="110"/>
       <c r="E130" s="115" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H130" s="117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="69" t="s">
-        <v>551</v>
+      <c r="A131" s="68" t="s">
+        <v>553</v>
       </c>
       <c r="B131" s="96"/>
       <c r="C131" s="110"/>
       <c r="D131" s="110"/>
       <c r="E131" s="118" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="64" t="s">
-        <v>552</v>
+      <c r="A132" s="63" t="s">
+        <v>554</v>
       </c>
       <c r="B132" s="55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C132" s="110" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D132" s="110" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E132" s="115" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="64" t="s">
-        <v>554</v>
+      <c r="A133" s="63" t="s">
+        <v>556</v>
       </c>
       <c r="B133" s="55" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C133" s="110" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D133" s="110" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E133" s="115" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F133" s="4"/>
       <c r="G133" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="64" t="s">
-        <v>556</v>
+      <c r="A134" s="63" t="s">
+        <v>558</v>
       </c>
       <c r="B134" s="55" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D134" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="E134" s="115" t="s">
-        <v>558</v>
+        <v>262</v>
+      </c>
+      <c r="E134" s="119" t="s">
+        <v>560</v>
       </c>
       <c r="F134" s="49"/>
       <c r="G134" s="39" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H134" s="39" t="s">
-        <v>560</v>
-      </c>
-      <c r="I134" s="7"/>
+        <v>562</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>563</v>
+      </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="64" t="s">
-        <v>561</v>
+      <c r="A135" s="63" t="s">
+        <v>564</v>
       </c>
       <c r="B135" s="55" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D135" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="E135" s="119" t="s">
-        <v>558</v>
+        <v>262</v>
+      </c>
+      <c r="E135" s="115" t="s">
+        <v>566</v>
       </c>
       <c r="F135" s="49"/>
       <c r="G135" s="39" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H135" s="39" t="s">
-        <v>560</v>
-      </c>
-      <c r="I135" s="7"/>
+        <v>562</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>563</v>
+      </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="48" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C136" s="110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D136" s="110"/>
       <c r="E136" s="115" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F136" s="115"/>
       <c r="G136" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H136" s="36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="64" t="s">
-        <v>566</v>
+      <c r="A137" s="63" t="s">
+        <v>570</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C137" s="110"/>
       <c r="D137" s="110"/>
@@ -13339,97 +13394,97 @@
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="64" t="s">
-        <v>568</v>
+      <c r="A138" s="63" t="s">
+        <v>572</v>
       </c>
       <c r="B138" s="55" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C138" s="120" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D138" s="120" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E138" s="121" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F138" s="39"/>
       <c r="G138" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="64" t="s">
-        <v>574</v>
+      <c r="A139" s="63" t="s">
+        <v>578</v>
       </c>
       <c r="B139" s="55" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C139" s="120" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D139" s="122"/>
       <c r="E139" s="121" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F139" s="39"/>
       <c r="G139" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="64" t="s">
-        <v>577</v>
+      <c r="A140" s="63" t="s">
+        <v>581</v>
       </c>
       <c r="B140" s="55" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C140" s="120" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D140" s="122"/>
       <c r="E140" s="121" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F140" s="39"/>
       <c r="G140" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H140" s="39" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="48" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C141" s="113" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D141" s="110"/>
       <c r="E141" s="115"/>
@@ -13439,15 +13494,15 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="75" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="64" t="s">
-        <v>584</v>
+      <c r="A142" s="63" t="s">
+        <v>588</v>
       </c>
       <c r="B142" s="55" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C142" s="110"/>
       <c r="D142" s="110"/>
@@ -13458,355 +13513,359 @@
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="64" t="s">
-        <v>585</v>
+      <c r="A143" s="63" t="s">
+        <v>589</v>
       </c>
       <c r="B143" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C143" s="120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D143" s="120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E143" s="121" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F143" s="121"/>
       <c r="G143" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="I143" s="7"/>
+        <v>591</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="64" t="s">
-        <v>588</v>
+      <c r="A144" s="63" t="s">
+        <v>592</v>
       </c>
       <c r="B144" s="55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C144" s="120" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D144" s="120" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E144" s="121" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F144" s="121"/>
       <c r="G144" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="I144" s="7"/>
+        <v>594</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="64" t="s">
-        <v>591</v>
+      <c r="A145" s="63" t="s">
+        <v>595</v>
       </c>
       <c r="B145" s="55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C145" s="120" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D145" s="120" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E145" s="121" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F145" s="121"/>
       <c r="G145" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="64" t="s">
-        <v>594</v>
+      <c r="A146" s="63" t="s">
+        <v>598</v>
       </c>
       <c r="B146" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C146" s="120" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D146" s="120" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E146" s="121" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F146" s="121"/>
       <c r="G146" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="64" t="s">
-        <v>597</v>
+      <c r="A147" s="63" t="s">
+        <v>601</v>
       </c>
       <c r="B147" s="55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C147" s="120" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D147" s="120" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E147" s="121" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F147" s="121" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="64" t="s">
-        <v>602</v>
+      <c r="A148" s="63" t="s">
+        <v>606</v>
       </c>
       <c r="B148" s="55" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C148" s="120" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D148" s="120" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E148" s="121" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F148" s="121"/>
       <c r="G148" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="64" t="s">
-        <v>605</v>
+      <c r="A149" s="63" t="s">
+        <v>609</v>
       </c>
       <c r="B149" s="55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C149" s="120" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D149" s="120" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E149" s="121" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F149" s="121"/>
       <c r="G149" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="64" t="s">
-        <v>608</v>
+      <c r="A150" s="63" t="s">
+        <v>612</v>
       </c>
       <c r="B150" s="55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C150" s="123" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D150" s="120" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E150" s="121" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F150" s="121"/>
       <c r="G150" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="64" t="s">
-        <v>610</v>
+      <c r="A151" s="63" t="s">
+        <v>614</v>
       </c>
       <c r="B151" s="55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C151" s="120" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D151" s="120" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E151" s="121" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F151" s="121"/>
       <c r="G151" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="64" t="s">
-        <v>612</v>
+      <c r="A152" s="63" t="s">
+        <v>616</v>
       </c>
       <c r="B152" s="55" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C152" s="120" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D152" s="120" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E152" s="121" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F152" s="121"/>
       <c r="G152" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="64" t="s">
-        <v>616</v>
+      <c r="A153" s="63" t="s">
+        <v>620</v>
       </c>
       <c r="B153" s="55" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C153" s="120" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D153" s="120" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E153" s="121" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F153" s="121"/>
       <c r="G153" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="64" t="s">
-        <v>618</v>
+      <c r="A154" s="63" t="s">
+        <v>622</v>
       </c>
       <c r="B154" s="55" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C154" s="120" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D154" s="122"/>
       <c r="E154" s="121" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F154" s="39"/>
       <c r="G154" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H154" s="95" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="77" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B155" s="78" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C155" s="120"/>
       <c r="D155" s="122"/>
       <c r="E155" s="119" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F155" s="39"/>
       <c r="G155" s="43" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H155" s="124" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -13814,13 +13873,13 @@
     </row>
     <row r="156">
       <c r="A156" s="83" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C156" s="110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D156" s="110"/>
       <c r="E156" s="114"/>
@@ -13833,51 +13892,51 @@
     </row>
     <row r="157">
       <c r="A157" s="48" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C157" s="120" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D157" s="122"/>
       <c r="E157" s="121" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F157" s="121"/>
       <c r="G157" s="4" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H157" s="117" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="64" t="s">
-        <v>630</v>
+      <c r="A158" s="63" t="s">
+        <v>634</v>
       </c>
       <c r="B158" s="55" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C158" s="120" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D158" s="120" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E158" s="121" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F158" s="121"/>
       <c r="G158" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -13885,13 +13944,13 @@
     </row>
     <row r="159">
       <c r="A159" s="48" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C159" s="120" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D159" s="122"/>
       <c r="E159" s="121"/>
@@ -13903,108 +13962,108 @@
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="64" t="s">
-        <v>639</v>
+      <c r="A160" s="63" t="s">
+        <v>643</v>
       </c>
       <c r="B160" s="55" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C160" s="120" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D160" s="120" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E160" s="121" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F160" s="121"/>
       <c r="G160" s="4" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H160" s="125" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="64" t="s">
-        <v>646</v>
+      <c r="A161" s="63" t="s">
+        <v>650</v>
       </c>
       <c r="B161" s="73" t="s">
+        <v>651</v>
+      </c>
+      <c r="C161" s="120" t="s">
+        <v>652</v>
+      </c>
+      <c r="D161" s="120" t="s">
+        <v>653</v>
+      </c>
+      <c r="E161" s="118" t="s">
         <v>647</v>
-      </c>
-      <c r="C161" s="120" t="s">
-        <v>648</v>
-      </c>
-      <c r="D161" s="120" t="s">
-        <v>649</v>
-      </c>
-      <c r="E161" s="126" t="s">
-        <v>650</v>
       </c>
       <c r="F161" s="126"/>
       <c r="G161" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="64" t="s">
-        <v>652</v>
+      <c r="A162" s="63" t="s">
+        <v>655</v>
       </c>
       <c r="B162" s="73" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C162" s="120" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D162" s="120" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="E162" s="126" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F162" s="126"/>
       <c r="G162" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="H162" s="127" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="64" t="s">
-        <v>656</v>
+      <c r="A163" s="63" t="s">
+        <v>659</v>
       </c>
       <c r="B163" s="73" t="s">
+        <v>660</v>
+      </c>
+      <c r="C163" s="120" t="s">
+        <v>652</v>
+      </c>
+      <c r="D163" s="120" t="s">
+        <v>653</v>
+      </c>
+      <c r="E163" s="118" t="s">
         <v>657</v>
-      </c>
-      <c r="C163" s="120" t="s">
-        <v>648</v>
-      </c>
-      <c r="D163" s="120" t="s">
-        <v>649</v>
-      </c>
-      <c r="E163" s="126" t="s">
-        <v>658</v>
       </c>
       <c r="F163" s="126"/>
       <c r="G163" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H163" s="128" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -14012,13 +14071,13 @@
     </row>
     <row r="164">
       <c r="A164" s="48" t="s">
-        <v>659</v>
-      </c>
-      <c r="B164" s="63" t="s">
-        <v>660</v>
+        <v>661</v>
+      </c>
+      <c r="B164" s="62" t="s">
+        <v>662</v>
       </c>
       <c r="C164" s="120" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D164" s="122"/>
       <c r="E164" s="126"/>
@@ -14030,11 +14089,11 @@
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="64" t="s">
-        <v>661</v>
+      <c r="A165" s="63" t="s">
+        <v>663</v>
       </c>
       <c r="B165" s="73" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C165" s="120"/>
       <c r="D165" s="122"/>
@@ -14045,104 +14104,104 @@
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="64" t="s">
-        <v>662</v>
+      <c r="A166" s="63" t="s">
+        <v>664</v>
       </c>
       <c r="B166" s="73" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C166" s="129" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D166" s="130"/>
       <c r="E166" s="131" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F166" s="131"/>
       <c r="G166" s="132" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H166" s="132" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="64" t="s">
-        <v>666</v>
+      <c r="A167" s="63" t="s">
+        <v>668</v>
       </c>
       <c r="B167" s="73" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C167" s="129" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D167" s="130"/>
       <c r="E167" s="131" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F167" s="131"/>
       <c r="G167" s="132" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H167" s="132" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="64" t="s">
-        <v>669</v>
+      <c r="A168" s="63" t="s">
+        <v>671</v>
       </c>
       <c r="B168" s="73" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C168" s="129" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D168" s="130"/>
       <c r="E168" s="131" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F168" s="131"/>
       <c r="G168" s="132" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H168" s="132" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="64" t="s">
-        <v>673</v>
+      <c r="A169" s="63" t="s">
+        <v>675</v>
       </c>
       <c r="B169" s="73" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C169" s="129" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D169" s="130"/>
       <c r="E169" s="131" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F169" s="131"/>
       <c r="G169" s="132" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H169" s="132" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -14225,7 +14284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="133" t="s">
-        <v>581</v>
+        <v>33</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>34</v>
@@ -14245,180 +14304,180 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="39" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="135" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
+        <v>349</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="F4" s="137" t="s">
-        <v>686</v>
+        <v>687</v>
+      </c>
+      <c r="F4" s="136" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>688</v>
-      </c>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="138"/>
-      <c r="W5" s="138"/>
-      <c r="X5" s="138"/>
-      <c r="Y5" s="138"/>
-      <c r="Z5" s="138"/>
+        <v>690</v>
+      </c>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
     </row>
     <row r="6">
-      <c r="A6" s="136" t="s">
-        <v>398</v>
+      <c r="A6" s="72" t="s">
+        <v>400</v>
       </c>
       <c r="B6" s="132" t="s">
-        <v>347</v>
-      </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
+        <v>349</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="40" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>690</v>
-      </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
-      <c r="W6" s="138"/>
-      <c r="X6" s="138"/>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="138"/>
+        <v>692</v>
+      </c>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="137"/>
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="137"/>
     </row>
     <row r="7">
-      <c r="A7" s="136" t="s">
-        <v>566</v>
+      <c r="A7" s="72" t="s">
+        <v>570</v>
       </c>
       <c r="B7" s="132" t="s">
+        <v>693</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="132" t="s">
         <v>691</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="132" t="s">
-        <v>689</v>
-      </c>
       <c r="F7" s="132" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="136" t="s">
-        <v>584</v>
+      <c r="A8" s="72" t="s">
+        <v>588</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>691</v>
-      </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
+        <v>693</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="132" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="135" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>691</v>
-      </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
+        <v>693</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="131" t="s">
+        <v>696</v>
+      </c>
+      <c r="F9" s="132" t="s">
         <v>694</v>
-      </c>
-      <c r="F9" s="132" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="10">
@@ -18410,108 +18469,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="139" t="s">
-        <v>695</v>
-      </c>
-      <c r="B2" s="140" t="s">
-        <v>696</v>
+      <c r="A2" s="138" t="s">
+        <v>697</v>
+      </c>
+      <c r="B2" s="139" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="141" t="s">
-        <v>697</v>
-      </c>
-      <c r="B3" s="140" t="s">
-        <v>698</v>
+      <c r="A3" s="140" t="s">
+        <v>699</v>
+      </c>
+      <c r="B3" s="139" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="142" t="s">
-        <v>699</v>
+      <c r="A4" s="141" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="143" t="s">
-        <v>700</v>
-      </c>
-      <c r="B6" s="140" t="s">
-        <v>701</v>
+      <c r="A6" s="142" t="s">
+        <v>702</v>
+      </c>
+      <c r="B6" s="139" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="140" t="s">
-        <v>702</v>
+      <c r="B7" s="139" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="140"/>
+      <c r="B8" s="139"/>
     </row>
     <row r="9">
-      <c r="B9" s="140"/>
+      <c r="B9" s="139"/>
     </row>
     <row r="10">
-      <c r="A10" s="143" t="s">
-        <v>703</v>
+      <c r="A10" s="142" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="143" t="s">
-        <v>704</v>
-      </c>
-      <c r="B11" s="144" t="s">
-        <v>705</v>
+      <c r="A11" s="142" t="s">
+        <v>706</v>
+      </c>
+      <c r="B11" s="143" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="145" t="s">
-        <v>706</v>
+      <c r="B12" s="144" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="146"/>
-      <c r="B13" s="147" t="s">
-        <v>707</v>
+      <c r="A13" s="145"/>
+      <c r="B13" s="146" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="148" t="s">
-        <v>708</v>
+      <c r="B14" s="147" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="149" t="s">
-        <v>709</v>
+      <c r="B15" s="148" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="150" t="s">
-        <v>710</v>
+      <c r="B16" s="149" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="143"/>
+      <c r="A17" s="142"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="143" t="s">
-        <v>711</v>
-      </c>
-      <c r="B18" s="151" t="s">
-        <v>712</v>
+      <c r="A18" s="142" t="s">
+        <v>713</v>
+      </c>
+      <c r="B18" s="150" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="B19" s="152"/>
+        <v>715</v>
+      </c>
+      <c r="B19" s="151"/>
     </row>
     <row r="21">
-      <c r="A21" s="143" t="s">
-        <v>714</v>
-      </c>
-      <c r="B21" s="153" t="s">
-        <v>715</v>
+      <c r="A21" s="142" t="s">
+        <v>716</v>
+      </c>
+      <c r="B21" s="152" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -18537,57 +18596,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="154" t="s">
-        <v>719</v>
+      <c r="A4" s="153" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="154" t="s">
-        <v>723</v>
+      <c r="A8" s="153" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="155" t="s">
-        <v>724</v>
+      <c r="A9" s="154" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12">
@@ -18616,65 +18675,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B1" s="156" t="s">
-        <v>727</v>
+        <v>718</v>
+      </c>
+      <c r="B1" s="155" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="140" t="s">
-        <v>735</v>
+      <c r="A8" s="139" t="s">
+        <v>737</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="140" t="s">
-        <v>736</v>
+      <c r="A9" s="139" t="s">
+        <v>738</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="157" t="s">
-        <v>737</v>
+      <c r="A10" s="156" t="s">
+        <v>739</v>
       </c>
       <c r="B10" s="7"/>
     </row>
@@ -18694,7 +18753,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="144"/>
+      <c r="A1" s="143"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -18718,11 +18777,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="158" t="s">
-        <v>738</v>
-      </c>
-      <c r="C1" s="158" t="s">
-        <v>739</v>
+      <c r="A1" s="157" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1" s="157" t="s">
+        <v>741</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -18749,16 +18808,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -18785,13 +18844,13 @@
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -18822,13 +18881,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>747</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>745</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -18859,13 +18918,13 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>749</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>746</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -18893,16 +18952,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -18929,16 +18988,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="D7" s="159" t="s">
-        <v>755</v>
+        <v>748</v>
+      </c>
+      <c r="D7" s="158" t="s">
+        <v>757</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -18965,16 +19024,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -19000,220 +19059,220 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="160" t="s">
-        <v>759</v>
-      </c>
-      <c r="B9" s="161" t="s">
-        <v>760</v>
-      </c>
-      <c r="C9" s="161" t="s">
-        <v>746</v>
-      </c>
-      <c r="D9" s="161" t="s">
+      <c r="A9" s="159" t="s">
         <v>761</v>
       </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="161"/>
-      <c r="W9" s="161"/>
-      <c r="X9" s="161"/>
-      <c r="Y9" s="161"/>
-      <c r="Z9" s="161"/>
+      <c r="B9" s="160" t="s">
+        <v>762</v>
+      </c>
+      <c r="C9" s="160" t="s">
+        <v>748</v>
+      </c>
+      <c r="D9" s="160" t="s">
+        <v>763</v>
+      </c>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
+      <c r="U9" s="160"/>
+      <c r="V9" s="160"/>
+      <c r="W9" s="160"/>
+      <c r="X9" s="160"/>
+      <c r="Y9" s="160"/>
+      <c r="Z9" s="160"/>
     </row>
     <row r="10">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="159" t="s">
+        <v>764</v>
+      </c>
+      <c r="B10" s="160" t="s">
         <v>762</v>
       </c>
-      <c r="B10" s="161" t="s">
-        <v>760</v>
-      </c>
-      <c r="C10" s="161" t="s">
-        <v>746</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>763</v>
-      </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
+      <c r="C10" s="160" t="s">
+        <v>748</v>
+      </c>
+      <c r="D10" s="160" t="s">
+        <v>765</v>
+      </c>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="160"/>
     </row>
     <row r="11">
-      <c r="A11" s="160" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="161" t="s">
-        <v>765</v>
-      </c>
-      <c r="C11" s="161" t="s">
-        <v>746</v>
-      </c>
-      <c r="D11" s="161" t="s">
+      <c r="A11" s="159" t="s">
         <v>766</v>
       </c>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
+      <c r="B11" s="160" t="s">
+        <v>767</v>
+      </c>
+      <c r="C11" s="160" t="s">
+        <v>748</v>
+      </c>
+      <c r="D11" s="160" t="s">
+        <v>768</v>
+      </c>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="160"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="160"/>
+      <c r="R11" s="160"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="160"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
     </row>
     <row r="12">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="159" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" s="160" t="s">
         <v>767</v>
       </c>
-      <c r="B12" s="161" t="s">
-        <v>765</v>
-      </c>
-      <c r="C12" s="161" t="s">
-        <v>746</v>
-      </c>
-      <c r="D12" s="161" t="s">
-        <v>768</v>
-      </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="161"/>
-      <c r="T12" s="161"/>
-      <c r="U12" s="161"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="161"/>
+      <c r="C12" s="160" t="s">
+        <v>748</v>
+      </c>
+      <c r="D12" s="160" t="s">
+        <v>770</v>
+      </c>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="160"/>
+      <c r="R12" s="160"/>
+      <c r="S12" s="160"/>
+      <c r="T12" s="160"/>
+      <c r="U12" s="160"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="160"/>
     </row>
     <row r="13">
-      <c r="A13" s="160" t="s">
-        <v>769</v>
-      </c>
-      <c r="B13" s="160" t="s">
-        <v>749</v>
-      </c>
-      <c r="C13" s="161" t="s">
-        <v>746</v>
-      </c>
-      <c r="D13" s="161" t="s">
-        <v>770</v>
-      </c>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="161"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="161"/>
-      <c r="X13" s="161"/>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="161"/>
+      <c r="A13" s="159" t="s">
+        <v>771</v>
+      </c>
+      <c r="B13" s="159" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" s="160" t="s">
+        <v>748</v>
+      </c>
+      <c r="D13" s="160" t="s">
+        <v>772</v>
+      </c>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
     </row>
     <row r="14">
-      <c r="A14" s="160" t="s">
-        <v>771</v>
-      </c>
-      <c r="B14" s="160" t="s">
-        <v>749</v>
-      </c>
-      <c r="C14" s="161" t="s">
-        <v>746</v>
-      </c>
-      <c r="D14" s="161" t="s">
-        <v>772</v>
-      </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="161"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="161"/>
+      <c r="A14" s="159" t="s">
+        <v>773</v>
+      </c>
+      <c r="B14" s="159" t="s">
+        <v>751</v>
+      </c>
+      <c r="C14" s="160" t="s">
+        <v>748</v>
+      </c>
+      <c r="D14" s="160" t="s">
+        <v>774</v>
+      </c>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19241,52 +19300,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="162" t="s">
-        <v>738</v>
+      <c r="A1" s="161" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="143" t="s">
-        <v>740</v>
-      </c>
-      <c r="B2" s="143" t="s">
-        <v>741</v>
-      </c>
-      <c r="C2" s="143" t="s">
+      <c r="A2" s="142" t="s">
         <v>742</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="B2" s="142" t="s">
         <v>743</v>
       </c>
+      <c r="C2" s="142" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2" s="142" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="140" t="s">
-        <v>773</v>
-      </c>
-      <c r="B3" s="140" t="s">
-        <v>774</v>
+      <c r="A3" s="139" t="s">
+        <v>775</v>
+      </c>
+      <c r="B3" s="139" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="140" t="s">
-        <v>775</v>
-      </c>
-      <c r="B4" s="140" t="s">
-        <v>776</v>
+      <c r="A4" s="139" t="s">
+        <v>777</v>
+      </c>
+      <c r="B4" s="139" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="140" t="s">
-        <v>777</v>
-      </c>
-      <c r="B5" s="140" t="s">
+      <c r="A5" s="139" t="s">
+        <v>779</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>780</v>
+      </c>
+      <c r="C5" s="162" t="s">
         <v>778</v>
       </c>
-      <c r="C5" s="163" t="s">
-        <v>776</v>
-      </c>
-      <c r="D5" s="140" t="s">
-        <v>779</v>
+      <c r="D5" s="139" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <r>
@@ -2184,7 +2184,7 @@
     <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
-    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` or (in earlier versions of XML) `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR` XPath</t>
+    <t>Winner is created only if there is a contractor identified by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` (or in earlier versions of XML by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR`) XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -4115,7 +4115,8 @@
     <t>Notice Value</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/VALUES/VAL_TOTAL</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/VALUES/VAL_TOTAL
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/VAL_TOTAL</t>
   </si>
   <si>
     <r>
@@ -4153,7 +4154,8 @@
     <t>VII.1.6.2</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/VALUES/VAL_TOTAL/@CURRENCY</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/VALUES/VAL_TOTAL/@CURRENCY
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/VAL_TOTAL/@CURRENCY</t>
   </si>
   <si>
     <r>
@@ -4194,7 +4196,8 @@
     <t>The contract/concession has been awarded to a group of economic operators</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/AWARDED_TO_GROUP</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/AWARDED_TO_GROUP
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/AWARDED_TO_GROUP</t>
   </si>
   <si>
     <t>Deloitte XPath: TED_EXPORT/FORM_SECTION/F20_2014/MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/*[matches(name(),'AWARDED_TO_GROUP')]</t>
@@ -4216,7 +4219,8 @@
     <t>VII.1.7.1</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
   </si>
   <si>
     <t>?this epo:playedBy / epo:hasLegalName ?value .</t>
@@ -4225,7 +4229,8 @@
     <t>VII.1.7.2</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
   </si>
   <si>
     <t>?this epo:playedBy / epo:hasID / epo:hasIdentifierValue ?value .</t>
@@ -4234,7 +4239,8 @@
     <t>VII.1.7.3</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
   </si>
   <si>
     <t>?this epo:playedBy / legal:registeredAddress / locn:thoroughfare ?value .</t>
@@ -4243,7 +4249,8 @@
     <t>VII.1.7.4</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
   </si>
   <si>
     <t>?this epo:playedBy / legal:registeredAddress / locn:postName ?value .</t>
@@ -4252,10 +4259,12 @@
     <t>VII.1.7.5</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
   </si>
   <si>
     <t>?this epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?value .</t>
@@ -4267,7 +4276,8 @@
     <t>VII.1.7.6</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
   </si>
   <si>
     <t>?this epo:playedBy / legal:registeredAddress / locn:postCode ?value .</t>
@@ -4276,7 +4286,8 @@
     <t>VII.1.7.7</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
   </si>
   <si>
     <t>?this epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?value .</t>
@@ -4285,13 +4296,15 @@
     <t>VII.1.7.8</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
   </si>
   <si>
     <t>VII.1.7.9</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
   </si>
   <si>
     <t>VII.1.7.10</t>
@@ -4300,7 +4313,8 @@
     <t>Internet address</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
   </si>
   <si>
     <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?value .</t>
@@ -4309,7 +4323,8 @@
     <t>VII.1.7.11</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
   </si>
   <si>
     <t>VII.1.7.12</t>
@@ -4318,7 +4333,8 @@
     <t>no match</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/SME</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTORS/CONTRACTOR/SME
+MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/SME</t>
   </si>
   <si>
     <t>?this epo:playedBy / epo:hasBusinessSize &lt;http://publications.europa.eu/resource/authority/economic-operator-size/sme&gt;</t>
@@ -4482,7 +4498,8 @@
     <t>Value excluding VAT</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VALUES/VAL_TOTAL_BEFORE</t>
+    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VALUES/VAL_TOTAL_BEFORE
+MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VAL_TOTAL_BEFORE</t>
   </si>
   <si>
     <r>
@@ -4520,7 +4537,8 @@
     <t>VII.2.3.2</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VALUES/VAL_TOTAL_BEFORE/@CURRENCY</t>
+    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VALUES/VAL_TOTAL_BEFORE/@CURRENCY
+MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VAL_TOTAL_BEFORE/@CURRENCY</t>
   </si>
   <si>
     <r>
@@ -4561,7 +4579,8 @@
     <t>Total contract value after the modifications</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VALUES/VAL_TOTAL_AFTER</t>
+    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VALUES/VAL_TOTAL_AFTER
+MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VAL_TOTAL_AFTER</t>
   </si>
   <si>
     <r>
@@ -4599,7 +4618,8 @@
     <t>VII.2.3.4</t>
   </si>
   <si>
-    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VALUES/VAL_TOTAL_AFTER/@CURRENCY</t>
+    <t>MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS/VALUES/VAL_TOTAL_AFTER/@CURRENCY
+MODIFICATIONS_CONTRACT/INFO_MODIFICATIONS//VAL_TOTAL_AFTER/@CURRENCY</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <r>
@@ -4883,7 +4883,7 @@
     <t>notice.rml.ttl</t>
   </si>
   <si>
-    <t>confidentiality.ttl</t>
+    <t>confidentiality.rml.ttl</t>
   </si>
   <si>
     <t>Informal (if possible to become formal)</t>
@@ -5845,7 +5845,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="780">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>6.2.0</t>
   </si>
   <si>
     <r>
@@ -1278,7 +1278,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / epo:BuyerProfile / xsd:anyURI</t>
+    <t>epo:AgentInRole (from CL1) / xsd:anyURI</t>
   </si>
   <si>
     <r>
@@ -1301,7 +1301,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -1422,7 +1422,7 @@
     <t>epo:Procedure / epo:Purpose / at-voc:cpv (from cpv.json)</t>
   </si>
   <si>
-    <t>?this epo:hasOverallPurpose / epo:hasMainClassification ?value .</t>
+    <t>?this epo:hasPurpose / epo:hasMainClassification ?value .</t>
   </si>
   <si>
     <t>II.1.2.1</t>
@@ -1461,43 +1461,7 @@
     <t>epo:Procedure / epo:Purpose / at-voc:contract-nature (from contract_nature.json)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasOverallPurpose / epo:hasContractNatureType ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
+    <t>?this epo:hasPurpose / epo:hasContractNatureType ?value .</t>
   </si>
   <si>
     <t>II.2</t>
@@ -1820,7 +1784,7 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/DATE_START</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / epo:Period / xsd:datetime</t>
+    <t>epo:Lot / epo:ContractTerm / epo:Period / xsd:dateTime</t>
   </si>
   <si>
     <t>?this epo:foreseesContractSpecificTerm / epo:definesContractPeriod / epo:hasBeginning ?value .</t>
@@ -3113,9 +3077,6 @@
   </si>
   <si>
     <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>epo:AgentInRole (from CL1)  / org:Organizationn (from CL2) / locn:Address / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -4842,9 +4803,6 @@
   </si>
   <si>
     <t>buyer_legal_type.csv</t>
-  </si>
-  <si>
-    <t>award_criterion_type.json</t>
   </si>
   <si>
     <t>legal_basis.json</t>
@@ -5389,7 +5347,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="162">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5838,9 +5796,6 @@
     <xf borderId="0" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -10134,7 +10089,7 @@
       <c r="G26" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="4" t="s">
         <v>183</v>
       </c>
       <c r="I26" s="4"/>
@@ -12158,10 +12113,10 @@
       </c>
       <c r="F89" s="49"/>
       <c r="G89" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H89" s="39" t="s">
         <v>439</v>
-      </c>
-      <c r="H89" s="39" t="s">
-        <v>440</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
@@ -12169,7 +12124,7 @@
     </row>
     <row r="90">
       <c r="A90" s="63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B90" s="55" t="s">
         <v>101</v>
@@ -12181,14 +12136,14 @@
         <v>103</v>
       </c>
       <c r="E90" s="49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F90" s="49"/>
       <c r="G90" s="49" t="s">
         <v>105</v>
       </c>
       <c r="H90" s="49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
@@ -12196,7 +12151,7 @@
     </row>
     <row r="91">
       <c r="A91" s="63" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B91" s="55" t="s">
         <v>121</v>
@@ -12208,7 +12163,7 @@
         <v>123</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F91" s="74"/>
       <c r="G91" s="49" t="s">
@@ -12223,7 +12178,7 @@
     </row>
     <row r="92">
       <c r="A92" s="63" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B92" s="55" t="s">
         <v>115</v>
@@ -12235,7 +12190,7 @@
         <v>117</v>
       </c>
       <c r="E92" s="74" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F92" s="74"/>
       <c r="G92" s="74" t="s">
@@ -12250,7 +12205,7 @@
     </row>
     <row r="93">
       <c r="A93" s="63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B93" s="55" t="s">
         <v>383</v>
@@ -12262,14 +12217,14 @@
         <v>138</v>
       </c>
       <c r="E93" s="74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F93" s="74"/>
       <c r="G93" s="103" t="s">
         <v>376</v>
       </c>
       <c r="H93" s="103" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
@@ -12277,7 +12232,7 @@
     </row>
     <row r="94">
       <c r="A94" s="63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B94" s="55" t="s">
         <v>128</v>
@@ -12289,7 +12244,7 @@
         <v>130</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F94" s="49"/>
       <c r="G94" s="49" t="s">
@@ -12304,21 +12259,21 @@
     </row>
     <row r="95">
       <c r="A95" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="B95" s="47" t="s">
         <v>453</v>
-      </c>
-      <c r="B95" s="47" t="s">
-        <v>454</v>
       </c>
       <c r="C95" s="102" t="s">
         <v>316</v>
       </c>
       <c r="D95" s="104"/>
       <c r="E95" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F95" s="49"/>
       <c r="G95" s="36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H95" s="105" t="s">
         <v>427</v>
@@ -12329,7 +12284,7 @@
     </row>
     <row r="96">
       <c r="A96" s="63" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B96" s="55" t="s">
         <v>57</v>
@@ -12341,14 +12296,14 @@
         <v>59</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F96" s="49"/>
       <c r="G96" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H96" s="106" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>63</v>
@@ -12358,7 +12313,7 @@
     </row>
     <row r="97">
       <c r="A97" s="63" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B97" s="55" t="s">
         <v>73</v>
@@ -12370,14 +12325,14 @@
         <v>75</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F97" s="49"/>
       <c r="G97" s="39" t="s">
         <v>77</v>
       </c>
       <c r="H97" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
@@ -12385,7 +12340,7 @@
     </row>
     <row r="98">
       <c r="A98" s="63" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B98" s="55" t="s">
         <v>80</v>
@@ -12397,14 +12352,14 @@
         <v>82</v>
       </c>
       <c r="E98" s="49" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F98" s="49"/>
       <c r="G98" s="39" t="s">
         <v>77</v>
       </c>
       <c r="H98" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -12412,7 +12367,7 @@
     </row>
     <row r="99">
       <c r="A99" s="63" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B99" s="55" t="s">
         <v>94</v>
@@ -12424,14 +12379,14 @@
         <v>368</v>
       </c>
       <c r="E99" s="49" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F99" s="49"/>
       <c r="G99" s="39" t="s">
         <v>98</v>
       </c>
       <c r="H99" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
@@ -12439,7 +12394,7 @@
     </row>
     <row r="100">
       <c r="A100" s="63" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B100" s="55" t="s">
         <v>101</v>
@@ -12451,14 +12406,14 @@
         <v>103</v>
       </c>
       <c r="E100" s="49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F100" s="49"/>
       <c r="G100" s="39" t="s">
         <v>105</v>
       </c>
       <c r="H100" s="39" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -12466,7 +12421,7 @@
     </row>
     <row r="101">
       <c r="A101" s="63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B101" s="55" t="s">
         <v>121</v>
@@ -12478,7 +12433,7 @@
         <v>123</v>
       </c>
       <c r="E101" s="49" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F101" s="49"/>
       <c r="G101" s="49" t="s">
@@ -12493,7 +12448,7 @@
     </row>
     <row r="102">
       <c r="A102" s="63" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B102" s="55" t="s">
         <v>115</v>
@@ -12505,7 +12460,7 @@
         <v>117</v>
       </c>
       <c r="E102" s="49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="49" t="s">
@@ -12520,7 +12475,7 @@
     </row>
     <row r="103">
       <c r="A103" s="63" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B103" s="55" t="s">
         <v>383</v>
@@ -12532,14 +12487,14 @@
         <v>138</v>
       </c>
       <c r="E103" s="49" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F103" s="49"/>
       <c r="G103" s="45" t="s">
         <v>376</v>
       </c>
       <c r="H103" s="107" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -12547,7 +12502,7 @@
     </row>
     <row r="104">
       <c r="A104" s="63" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B104" s="55" t="s">
         <v>128</v>
@@ -12559,7 +12514,7 @@
         <v>130</v>
       </c>
       <c r="E104" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F104" s="49"/>
       <c r="G104" s="49" t="s">
@@ -12574,26 +12529,26 @@
     </row>
     <row r="105">
       <c r="A105" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="B105" s="47" t="s">
         <v>481</v>
       </c>
-      <c r="B105" s="47" t="s">
+      <c r="C105" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="D105" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="D105" s="49" t="s">
+      <c r="E105" s="49" t="s">
         <v>484</v>
-      </c>
-      <c r="E105" s="49" t="s">
-        <v>485</v>
       </c>
       <c r="F105" s="49"/>
       <c r="G105" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="H105" s="100" t="s">
         <v>486</v>
-      </c>
-      <c r="H105" s="100" t="s">
-        <v>487</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -12601,15 +12556,15 @@
     </row>
     <row r="106">
       <c r="A106" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="B106" s="47" t="s">
         <v>488</v>
-      </c>
-      <c r="B106" s="47" t="s">
-        <v>489</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="7"/>
       <c r="E106" s="75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F106" s="74"/>
       <c r="G106" s="14" t="s">
@@ -12624,7 +12579,7 @@
     </row>
     <row r="107">
       <c r="A107" s="63" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B107" s="55" t="s">
         <v>57</v>
@@ -12636,14 +12591,14 @@
         <v>59</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F107" s="49"/>
       <c r="G107" s="39" t="s">
         <v>61</v>
       </c>
       <c r="H107" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>63</v>
@@ -12653,7 +12608,7 @@
     </row>
     <row r="108">
       <c r="A108" s="63" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B108" s="55" t="s">
         <v>73</v>
@@ -12665,14 +12620,14 @@
         <v>75</v>
       </c>
       <c r="E108" s="49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F108" s="49"/>
       <c r="G108" s="39" t="s">
         <v>77</v>
       </c>
       <c r="H108" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
@@ -12680,7 +12635,7 @@
     </row>
     <row r="109">
       <c r="A109" s="63" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B109" s="55" t="s">
         <v>80</v>
@@ -12692,14 +12647,14 @@
         <v>82</v>
       </c>
       <c r="E109" s="74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F109" s="74"/>
       <c r="G109" s="75" t="s">
         <v>77</v>
       </c>
       <c r="H109" s="109" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
@@ -12707,7 +12662,7 @@
     </row>
     <row r="110">
       <c r="A110" s="63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B110" s="55" t="s">
         <v>94</v>
@@ -12719,14 +12674,14 @@
         <v>368</v>
       </c>
       <c r="E110" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F110" s="49"/>
       <c r="G110" s="39" t="s">
         <v>98</v>
       </c>
       <c r="H110" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
@@ -12734,7 +12689,7 @@
     </row>
     <row r="111">
       <c r="A111" s="63" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B111" s="55" t="s">
         <v>101</v>
@@ -12746,14 +12701,14 @@
         <v>103</v>
       </c>
       <c r="E111" s="98" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F111" s="98"/>
       <c r="G111" s="49" t="s">
         <v>105</v>
       </c>
       <c r="H111" s="49" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
@@ -12761,7 +12716,7 @@
     </row>
     <row r="112">
       <c r="A112" s="63" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B112" s="55" t="s">
         <v>121</v>
@@ -12773,7 +12728,7 @@
         <v>123</v>
       </c>
       <c r="E112" s="74" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F112" s="74"/>
       <c r="G112" s="74" t="s">
@@ -12788,7 +12743,7 @@
     </row>
     <row r="113">
       <c r="A113" s="63" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B113" s="55" t="s">
         <v>115</v>
@@ -12800,7 +12755,7 @@
         <v>117</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F113" s="49"/>
       <c r="G113" s="49" t="s">
@@ -12815,7 +12770,7 @@
     </row>
     <row r="114">
       <c r="A114" s="63" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B114" s="55" t="s">
         <v>383</v>
@@ -12827,14 +12782,14 @@
         <v>138</v>
       </c>
       <c r="E114" s="49" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F114" s="49"/>
       <c r="G114" s="45" t="s">
         <v>376</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
@@ -12842,7 +12797,7 @@
     </row>
     <row r="115">
       <c r="A115" s="63" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B115" s="55" t="s">
         <v>128</v>
@@ -12854,7 +12809,7 @@
         <v>130</v>
       </c>
       <c r="E115" s="49" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F115" s="49"/>
       <c r="G115" s="49" t="s">
@@ -12869,26 +12824,26 @@
     </row>
     <row r="116">
       <c r="A116" s="83" t="s">
+        <v>514</v>
+      </c>
+      <c r="B116" s="38" t="s">
         <v>515</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="C116" s="110" t="s">
         <v>516</v>
       </c>
-      <c r="C116" s="110" t="s">
+      <c r="D116" s="110" t="s">
         <v>517</v>
       </c>
-      <c r="D116" s="110" t="s">
+      <c r="E116" s="111" t="s">
         <v>518</v>
-      </c>
-      <c r="E116" s="111" t="s">
-        <v>519</v>
       </c>
       <c r="F116" s="111"/>
       <c r="G116" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="H116" s="112" t="s">
         <v>520</v>
-      </c>
-      <c r="H116" s="112" t="s">
-        <v>521</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
@@ -12896,10 +12851,10 @@
     </row>
     <row r="117">
       <c r="A117" s="82" t="s">
+        <v>521</v>
+      </c>
+      <c r="B117" s="34" t="s">
         <v>522</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>523</v>
       </c>
       <c r="C117" s="113" t="s">
         <v>316</v>
@@ -12915,10 +12870,10 @@
     </row>
     <row r="118">
       <c r="A118" s="83" t="s">
+        <v>523</v>
+      </c>
+      <c r="B118" s="38" t="s">
         <v>524</v>
-      </c>
-      <c r="B118" s="38" t="s">
-        <v>525</v>
       </c>
       <c r="C118" s="113" t="s">
         <v>316</v>
@@ -12934,7 +12889,7 @@
     </row>
     <row r="119">
       <c r="A119" s="48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B119" s="47" t="s">
         <v>165</v>
@@ -12946,7 +12901,7 @@
         <v>167</v>
       </c>
       <c r="E119" s="115" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F119" s="115"/>
       <c r="G119" s="4" t="s">
@@ -12958,12 +12913,12 @@
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="109" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B120" s="55" t="s">
         <v>172</v>
@@ -12975,7 +12930,7 @@
         <v>174</v>
       </c>
       <c r="E120" s="115" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F120" s="115"/>
       <c r="G120" s="4" t="s">
@@ -12990,7 +12945,7 @@
     </row>
     <row r="121">
       <c r="A121" s="48" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B121" s="47" t="s">
         <v>200</v>
@@ -13009,7 +12964,7 @@
     </row>
     <row r="122">
       <c r="A122" s="63" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>165</v>
@@ -13021,7 +12976,7 @@
         <v>167</v>
       </c>
       <c r="E122" s="111" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F122" s="111"/>
       <c r="G122" s="4" t="s">
@@ -13033,12 +12988,12 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="109" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="63" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B123" s="55" t="s">
         <v>172</v>
@@ -13050,7 +13005,7 @@
         <v>174</v>
       </c>
       <c r="E123" s="111" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F123" s="111"/>
       <c r="G123" s="4" t="s">
@@ -13065,7 +13020,7 @@
     </row>
     <row r="124">
       <c r="A124" s="48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B124" s="47" t="s">
         <v>209</v>
@@ -13084,7 +13039,7 @@
     </row>
     <row r="125">
       <c r="A125" s="63" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B125" s="55" t="s">
         <v>86</v>
@@ -13096,16 +13051,16 @@
         <v>212</v>
       </c>
       <c r="E125" s="115" t="s">
+        <v>538</v>
+      </c>
+      <c r="F125" s="115" t="s">
         <v>539</v>
-      </c>
-      <c r="F125" s="115" t="s">
-        <v>540</v>
       </c>
       <c r="G125" s="36" t="s">
         <v>215</v>
       </c>
       <c r="H125" s="116" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -13113,7 +13068,7 @@
     </row>
     <row r="126">
       <c r="A126" s="63" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B126" s="55" t="s">
         <v>218</v>
@@ -13125,7 +13080,7 @@
         <v>220</v>
       </c>
       <c r="E126" s="114" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14" t="s">
@@ -13142,10 +13097,10 @@
     </row>
     <row r="127">
       <c r="A127" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="B127" s="47" t="s">
         <v>544</v>
-      </c>
-      <c r="B127" s="47" t="s">
-        <v>545</v>
       </c>
       <c r="C127" s="110" t="s">
         <v>226</v>
@@ -13154,14 +13109,14 @@
         <v>8</v>
       </c>
       <c r="E127" s="114" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F127" s="114"/>
       <c r="G127" s="4" t="s">
         <v>190</v>
       </c>
       <c r="H127" s="61" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>63</v>
@@ -13171,7 +13126,7 @@
     </row>
     <row r="128">
       <c r="A128" s="48" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B128" s="47" t="s">
         <v>230</v>
@@ -13190,7 +13145,7 @@
     </row>
     <row r="129">
       <c r="A129" s="63" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B129" s="55" t="s">
         <v>232</v>
@@ -13202,7 +13157,7 @@
         <v>234</v>
       </c>
       <c r="E129" s="115" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4" t="s">
@@ -13217,13 +13172,13 @@
     </row>
     <row r="130">
       <c r="A130" s="68" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B130" s="96"/>
       <c r="C130" s="110"/>
       <c r="D130" s="110"/>
       <c r="E130" s="115" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>240</v>
@@ -13240,13 +13195,13 @@
     </row>
     <row r="131">
       <c r="A131" s="68" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B131" s="96"/>
       <c r="C131" s="110"/>
       <c r="D131" s="110"/>
       <c r="E131" s="118" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>244</v>
@@ -13263,7 +13218,7 @@
     </row>
     <row r="132">
       <c r="A132" s="63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B132" s="55" t="s">
         <v>247</v>
@@ -13275,10 +13230,10 @@
         <v>249</v>
       </c>
       <c r="E132" s="115" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F132" s="4"/>
-      <c r="G132" s="4" t="s">
+      <c r="G132" s="39" t="s">
         <v>251</v>
       </c>
       <c r="H132" s="4" t="s">
@@ -13290,7 +13245,7 @@
     </row>
     <row r="133">
       <c r="A133" s="63" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B133" s="55" t="s">
         <v>254</v>
@@ -13302,10 +13257,10 @@
         <v>256</v>
       </c>
       <c r="E133" s="115" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F133" s="4"/>
-      <c r="G133" s="4" t="s">
+      <c r="G133" s="39" t="s">
         <v>251</v>
       </c>
       <c r="H133" s="4" t="s">
@@ -13317,10 +13272,10 @@
     </row>
     <row r="134">
       <c r="A134" s="63" t="s">
+        <v>557</v>
+      </c>
+      <c r="B134" s="55" t="s">
         <v>558</v>
-      </c>
-      <c r="B134" s="55" t="s">
-        <v>559</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>261</v>
@@ -13329,27 +13284,27 @@
         <v>262</v>
       </c>
       <c r="E134" s="119" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F134" s="49"/>
       <c r="G134" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="H134" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="H134" s="39" t="s">
+      <c r="I134" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="I134" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
       <c r="A135" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="B135" s="55" t="s">
         <v>564</v>
-      </c>
-      <c r="B135" s="55" t="s">
-        <v>565</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>261</v>
@@ -13358,34 +13313,34 @@
         <v>262</v>
       </c>
       <c r="E135" s="115" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F135" s="49"/>
       <c r="G135" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="H135" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="H135" s="39" t="s">
+      <c r="I135" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="48" t="s">
+        <v>566</v>
+      </c>
+      <c r="B136" s="47" t="s">
         <v>567</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>568</v>
       </c>
       <c r="C136" s="110" t="s">
         <v>316</v>
       </c>
       <c r="D136" s="110"/>
       <c r="E136" s="115" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F136" s="115"/>
       <c r="G136" s="36" t="s">
@@ -13400,7 +13355,7 @@
     </row>
     <row r="137">
       <c r="A137" s="63" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B137" s="55" t="s">
         <v>349</v>
@@ -13414,31 +13369,31 @@
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="63" t="s">
+        <v>571</v>
+      </c>
+      <c r="B138" s="55" t="s">
         <v>572</v>
       </c>
-      <c r="B138" s="55" t="s">
+      <c r="C138" s="120" t="s">
         <v>573</v>
       </c>
-      <c r="C138" s="120" t="s">
+      <c r="D138" s="120" t="s">
         <v>574</v>
       </c>
-      <c r="D138" s="120" t="s">
+      <c r="E138" s="121" t="s">
         <v>575</v>
-      </c>
-      <c r="E138" s="121" t="s">
-        <v>576</v>
       </c>
       <c r="F138" s="39"/>
       <c r="G138" s="4" t="s">
         <v>406</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -13446,7 +13401,7 @@
     </row>
     <row r="139">
       <c r="A139" s="63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B139" s="55" t="s">
         <v>409</v>
@@ -13456,14 +13411,14 @@
       </c>
       <c r="D139" s="122"/>
       <c r="E139" s="121" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F139" s="39"/>
       <c r="G139" s="4" t="s">
         <v>412</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -13471,17 +13426,17 @@
     </row>
     <row r="140">
       <c r="A140" s="63" t="s">
+        <v>580</v>
+      </c>
+      <c r="B140" s="55" t="s">
         <v>581</v>
-      </c>
-      <c r="B140" s="55" t="s">
-        <v>582</v>
       </c>
       <c r="C140" s="120" t="s">
         <v>410</v>
       </c>
       <c r="D140" s="122"/>
       <c r="E140" s="121" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F140" s="39"/>
       <c r="G140" s="4" t="s">
@@ -13493,15 +13448,15 @@
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="B141" s="47" t="s">
         <v>585</v>
-      </c>
-      <c r="B141" s="47" t="s">
-        <v>586</v>
       </c>
       <c r="C141" s="113" t="s">
         <v>316</v>
@@ -13514,12 +13469,12 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>349</v>
@@ -13533,12 +13488,12 @@
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B143" s="55" t="s">
         <v>57</v>
@@ -13550,14 +13505,14 @@
         <v>59</v>
       </c>
       <c r="E143" s="121" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F143" s="121"/>
       <c r="G143" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>63</v>
@@ -13567,7 +13522,7 @@
     </row>
     <row r="144">
       <c r="A144" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B144" s="55" t="s">
         <v>65</v>
@@ -13579,14 +13534,14 @@
         <v>67</v>
       </c>
       <c r="E144" s="121" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F144" s="121"/>
       <c r="G144" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>71</v>
@@ -13596,7 +13551,7 @@
     </row>
     <row r="145">
       <c r="A145" s="63" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B145" s="55" t="s">
         <v>73</v>
@@ -13608,14 +13563,14 @@
         <v>75</v>
       </c>
       <c r="E145" s="121" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F145" s="121"/>
       <c r="G145" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
@@ -13623,7 +13578,7 @@
     </row>
     <row r="146">
       <c r="A146" s="63" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B146" s="55" t="s">
         <v>80</v>
@@ -13635,14 +13590,14 @@
         <v>82</v>
       </c>
       <c r="E146" s="121" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F146" s="121"/>
       <c r="G146" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -13650,7 +13605,7 @@
     </row>
     <row r="147">
       <c r="A147" s="63" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B147" s="55" t="s">
         <v>86</v>
@@ -13662,26 +13617,26 @@
         <v>88</v>
       </c>
       <c r="E147" s="121" t="s">
+        <v>601</v>
+      </c>
+      <c r="F147" s="121" t="s">
         <v>602</v>
-      </c>
-      <c r="F147" s="121" t="s">
-        <v>603</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B148" s="55" t="s">
         <v>94</v>
@@ -13693,14 +13648,14 @@
         <v>368</v>
       </c>
       <c r="E148" s="121" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F148" s="121"/>
       <c r="G148" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -13708,7 +13663,7 @@
     </row>
     <row r="149">
       <c r="A149" s="63" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B149" s="55" t="s">
         <v>101</v>
@@ -13720,14 +13675,14 @@
         <v>103</v>
       </c>
       <c r="E149" s="121" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F149" s="121"/>
       <c r="G149" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -13735,7 +13690,7 @@
     </row>
     <row r="150">
       <c r="A150" s="63" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B150" s="55" t="s">
         <v>121</v>
@@ -13747,7 +13702,7 @@
         <v>110</v>
       </c>
       <c r="E150" s="121" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F150" s="121"/>
       <c r="G150" s="4" t="s">
@@ -13762,7 +13717,7 @@
     </row>
     <row r="151">
       <c r="A151" s="63" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B151" s="55" t="s">
         <v>115</v>
@@ -13774,7 +13729,7 @@
         <v>117</v>
       </c>
       <c r="E151" s="121" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F151" s="121"/>
       <c r="G151" s="4" t="s">
@@ -13789,10 +13744,10 @@
     </row>
     <row r="152">
       <c r="A152" s="63" t="s">
+        <v>615</v>
+      </c>
+      <c r="B152" s="55" t="s">
         <v>616</v>
-      </c>
-      <c r="B152" s="55" t="s">
-        <v>617</v>
       </c>
       <c r="C152" s="120" t="s">
         <v>122</v>
@@ -13801,14 +13756,14 @@
         <v>123</v>
       </c>
       <c r="E152" s="121" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F152" s="121"/>
       <c r="G152" s="4" t="s">
         <v>376</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -13816,7 +13771,7 @@
     </row>
     <row r="153">
       <c r="A153" s="63" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B153" s="55" t="s">
         <v>128</v>
@@ -13828,7 +13783,7 @@
         <v>130</v>
       </c>
       <c r="E153" s="121" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F153" s="121"/>
       <c r="G153" s="4" t="s">
@@ -13843,34 +13798,34 @@
     </row>
     <row r="154">
       <c r="A154" s="63" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B154" s="55" t="s">
         <v>390</v>
       </c>
       <c r="C154" s="120" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D154" s="122"/>
       <c r="E154" s="121" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F154" s="39"/>
       <c r="G154" s="4" t="s">
         <v>394</v>
       </c>
       <c r="H154" s="95" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="77" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B155" s="78" t="s">
         <v>390</v>
@@ -13878,14 +13833,14 @@
       <c r="C155" s="120"/>
       <c r="D155" s="122"/>
       <c r="E155" s="119" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F155" s="39"/>
       <c r="G155" s="43" t="s">
         <v>394</v>
       </c>
       <c r="H155" s="124" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -13893,10 +13848,10 @@
     </row>
     <row r="156">
       <c r="A156" s="83" t="s">
+        <v>626</v>
+      </c>
+      <c r="B156" s="38" t="s">
         <v>627</v>
-      </c>
-      <c r="B156" s="38" t="s">
-        <v>628</v>
       </c>
       <c r="C156" s="110" t="s">
         <v>316</v>
@@ -13912,24 +13867,24 @@
     </row>
     <row r="157">
       <c r="A157" s="48" t="s">
+        <v>628</v>
+      </c>
+      <c r="B157" s="47" t="s">
         <v>629</v>
-      </c>
-      <c r="B157" s="47" t="s">
-        <v>630</v>
       </c>
       <c r="C157" s="120" t="s">
         <v>316</v>
       </c>
       <c r="D157" s="122"/>
       <c r="E157" s="121" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F157" s="121"/>
       <c r="G157" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="H157" s="117" t="s">
         <v>632</v>
-      </c>
-      <c r="H157" s="117" t="s">
-        <v>633</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -13937,26 +13892,26 @@
     </row>
     <row r="158">
       <c r="A158" s="63" t="s">
+        <v>633</v>
+      </c>
+      <c r="B158" s="55" t="s">
         <v>634</v>
       </c>
-      <c r="B158" s="55" t="s">
+      <c r="C158" s="120" t="s">
         <v>635</v>
       </c>
-      <c r="C158" s="120" t="s">
+      <c r="D158" s="120" t="s">
         <v>636</v>
       </c>
-      <c r="D158" s="120" t="s">
+      <c r="E158" s="121" t="s">
         <v>637</v>
-      </c>
-      <c r="E158" s="121" t="s">
-        <v>638</v>
       </c>
       <c r="F158" s="121"/>
       <c r="G158" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="H158" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -13964,10 +13919,10 @@
     </row>
     <row r="159">
       <c r="A159" s="48" t="s">
+        <v>640</v>
+      </c>
+      <c r="B159" s="47" t="s">
         <v>641</v>
-      </c>
-      <c r="B159" s="47" t="s">
-        <v>642</v>
       </c>
       <c r="C159" s="120" t="s">
         <v>316</v>
@@ -13983,26 +13938,26 @@
     </row>
     <row r="160">
       <c r="A160" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="B160" s="55" t="s">
         <v>643</v>
       </c>
-      <c r="B160" s="55" t="s">
+      <c r="C160" s="120" t="s">
         <v>644</v>
       </c>
-      <c r="C160" s="120" t="s">
+      <c r="D160" s="120" t="s">
         <v>645</v>
       </c>
-      <c r="D160" s="120" t="s">
+      <c r="E160" s="121" t="s">
         <v>646</v>
-      </c>
-      <c r="E160" s="121" t="s">
-        <v>647</v>
       </c>
       <c r="F160" s="121"/>
       <c r="G160" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="H160" s="125" t="s">
         <v>648</v>
-      </c>
-      <c r="H160" s="125" t="s">
-        <v>649</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -14010,26 +13965,26 @@
     </row>
     <row r="161">
       <c r="A161" s="63" t="s">
+        <v>649</v>
+      </c>
+      <c r="B161" s="73" t="s">
         <v>650</v>
       </c>
-      <c r="B161" s="73" t="s">
+      <c r="C161" s="120" t="s">
         <v>651</v>
       </c>
-      <c r="C161" s="120" t="s">
+      <c r="D161" s="120" t="s">
         <v>652</v>
       </c>
-      <c r="D161" s="120" t="s">
-        <v>653</v>
-      </c>
       <c r="E161" s="118" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F161" s="126"/>
       <c r="G161" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
@@ -14037,26 +13992,26 @@
     </row>
     <row r="162">
       <c r="A162" s="63" t="s">
+        <v>654</v>
+      </c>
+      <c r="B162" s="73" t="s">
         <v>655</v>
       </c>
-      <c r="B162" s="73" t="s">
+      <c r="C162" s="120" t="s">
+        <v>644</v>
+      </c>
+      <c r="D162" s="120" t="s">
+        <v>645</v>
+      </c>
+      <c r="E162" s="126" t="s">
         <v>656</v>
-      </c>
-      <c r="C162" s="120" t="s">
-        <v>645</v>
-      </c>
-      <c r="D162" s="120" t="s">
-        <v>646</v>
-      </c>
-      <c r="E162" s="126" t="s">
-        <v>657</v>
       </c>
       <c r="F162" s="126"/>
       <c r="G162" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H162" s="127" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
@@ -14064,26 +14019,26 @@
     </row>
     <row r="163">
       <c r="A163" s="63" t="s">
+        <v>658</v>
+      </c>
+      <c r="B163" s="73" t="s">
         <v>659</v>
       </c>
-      <c r="B163" s="73" t="s">
-        <v>660</v>
-      </c>
       <c r="C163" s="120" t="s">
+        <v>651</v>
+      </c>
+      <c r="D163" s="120" t="s">
         <v>652</v>
       </c>
-      <c r="D163" s="120" t="s">
-        <v>653</v>
-      </c>
       <c r="E163" s="118" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F163" s="126"/>
       <c r="G163" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H163" s="128" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -14091,10 +14046,10 @@
     </row>
     <row r="164">
       <c r="A164" s="48" t="s">
+        <v>660</v>
+      </c>
+      <c r="B164" s="62" t="s">
         <v>661</v>
-      </c>
-      <c r="B164" s="62" t="s">
-        <v>662</v>
       </c>
       <c r="C164" s="120" t="s">
         <v>316</v>
@@ -14110,7 +14065,7 @@
     </row>
     <row r="165">
       <c r="A165" s="63" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B165" s="73" t="s">
         <v>349</v>
@@ -14124,29 +14079,29 @@
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="63" t="s">
+        <v>663</v>
+      </c>
+      <c r="B166" s="73" t="s">
         <v>664</v>
       </c>
-      <c r="B166" s="73" t="s">
-        <v>665</v>
-      </c>
       <c r="C166" s="129" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D166" s="130"/>
       <c r="E166" s="131" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F166" s="131"/>
       <c r="G166" s="132" t="s">
         <v>406</v>
       </c>
       <c r="H166" s="132" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
@@ -14154,7 +14109,7 @@
     </row>
     <row r="167">
       <c r="A167" s="63" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B167" s="73" t="s">
         <v>409</v>
@@ -14164,14 +14119,14 @@
       </c>
       <c r="D167" s="130"/>
       <c r="E167" s="131" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F167" s="131"/>
       <c r="G167" s="132" t="s">
         <v>412</v>
       </c>
       <c r="H167" s="132" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -14179,24 +14134,24 @@
     </row>
     <row r="168">
       <c r="A168" s="63" t="s">
+        <v>670</v>
+      </c>
+      <c r="B168" s="73" t="s">
         <v>671</v>
       </c>
-      <c r="B168" s="73" t="s">
-        <v>672</v>
-      </c>
       <c r="C168" s="129" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D168" s="130"/>
       <c r="E168" s="131" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F168" s="131"/>
       <c r="G168" s="132" t="s">
         <v>406</v>
       </c>
       <c r="H168" s="132" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -14204,7 +14159,7 @@
     </row>
     <row r="169">
       <c r="A169" s="63" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B169" s="73" t="s">
         <v>409</v>
@@ -14214,14 +14169,14 @@
       </c>
       <c r="D169" s="130"/>
       <c r="E169" s="131" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F169" s="131"/>
       <c r="G169" s="132" t="s">
         <v>412</v>
       </c>
       <c r="H169" s="132" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -14324,22 +14279,22 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="C2" s="74" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="D2" s="74" t="s">
         <v>680</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="E2" s="39" t="s">
         <v>681</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="39" t="s">
         <v>682</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="3">
@@ -14354,15 +14309,15 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="39" t="s">
+        <v>683</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>684</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="135" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B4" s="132" t="s">
         <v>349</v>
@@ -14370,10 +14325,10 @@
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="F4" s="136" t="s">
         <v>687</v>
-      </c>
-      <c r="F4" s="136" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="5">
@@ -14390,10 +14345,10 @@
         <v>392</v>
       </c>
       <c r="E5" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>689</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>690</v>
       </c>
       <c r="G5" s="137"/>
       <c r="H5" s="137"/>
@@ -14426,10 +14381,10 @@
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
       <c r="E6" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>691</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>692</v>
       </c>
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
@@ -14454,50 +14409,50 @@
     </row>
     <row r="7">
       <c r="A7" s="72" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
       <c r="E7" s="132" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="72" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="132" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="135" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="131" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10">
@@ -18490,36 +18445,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="138" t="s">
+        <v>696</v>
+      </c>
+      <c r="B2" s="139" t="s">
         <v>697</v>
-      </c>
-      <c r="B2" s="139" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="140" t="s">
+        <v>698</v>
+      </c>
+      <c r="B3" s="139" t="s">
         <v>699</v>
-      </c>
-      <c r="B3" s="139" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="141" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="142" t="s">
+        <v>701</v>
+      </c>
+      <c r="B6" s="139" t="s">
         <v>702</v>
-      </c>
-      <c r="B6" s="139" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="139" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8">
@@ -18530,41 +18485,41 @@
     </row>
     <row r="10">
       <c r="A10" s="142" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="142" t="s">
+        <v>705</v>
+      </c>
+      <c r="B11" s="143" t="s">
         <v>706</v>
-      </c>
-      <c r="B11" s="143" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="144" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="145"/>
       <c r="B13" s="146" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="147" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="148" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="149" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17">
@@ -18573,24 +18528,24 @@
     </row>
     <row r="18">
       <c r="A18" s="142" t="s">
+        <v>712</v>
+      </c>
+      <c r="B18" s="150" t="s">
         <v>713</v>
-      </c>
-      <c r="B18" s="150" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B19" s="151"/>
     </row>
     <row r="21">
       <c r="A21" s="142" t="s">
+        <v>715</v>
+      </c>
+      <c r="B21" s="152" t="s">
         <v>716</v>
-      </c>
-      <c r="B21" s="152" t="s">
-        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -18616,61 +18571,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="153" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="153" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>725</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="154" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
+      <c r="A11" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -18695,65 +18645,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B1" s="155" t="s">
-        <v>729</v>
+        <v>717</v>
+      </c>
+      <c r="B1" s="154" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="139" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="139" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="156" t="s">
-        <v>739</v>
+      <c r="A10" s="155" t="s">
+        <v>737</v>
       </c>
       <c r="B10" s="7"/>
     </row>
@@ -18797,11 +18747,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="157" t="s">
-        <v>740</v>
-      </c>
-      <c r="C1" s="157" t="s">
-        <v>741</v>
+      <c r="A1" s="156" t="s">
+        <v>738</v>
+      </c>
+      <c r="C1" s="156" t="s">
+        <v>739</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -18828,16 +18778,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -18864,13 +18814,13 @@
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>745</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>747</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>748</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -18901,13 +18851,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -18938,13 +18888,13 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -18972,16 +18922,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>752</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>754</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -19008,16 +18958,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D7" s="157" t="s">
         <v>755</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="D7" s="158" t="s">
-        <v>757</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -19044,16 +18994,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>758</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>760</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -19079,220 +19029,220 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="158" t="s">
+        <v>759</v>
+      </c>
+      <c r="B9" s="159" t="s">
+        <v>760</v>
+      </c>
+      <c r="C9" s="159" t="s">
+        <v>746</v>
+      </c>
+      <c r="D9" s="159" t="s">
         <v>761</v>
       </c>
-      <c r="B9" s="160" t="s">
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="159"/>
+      <c r="T9" s="159"/>
+      <c r="U9" s="159"/>
+      <c r="V9" s="159"/>
+      <c r="W9" s="159"/>
+      <c r="X9" s="159"/>
+      <c r="Y9" s="159"/>
+      <c r="Z9" s="159"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="158" t="s">
         <v>762</v>
       </c>
-      <c r="C9" s="160" t="s">
-        <v>748</v>
-      </c>
-      <c r="D9" s="160" t="s">
+      <c r="B10" s="159" t="s">
+        <v>760</v>
+      </c>
+      <c r="C10" s="159" t="s">
+        <v>746</v>
+      </c>
+      <c r="D10" s="159" t="s">
         <v>763</v>
       </c>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="160"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="159" t="s">
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="159"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="159"/>
+      <c r="V10" s="159"/>
+      <c r="W10" s="159"/>
+      <c r="X10" s="159"/>
+      <c r="Y10" s="159"/>
+      <c r="Z10" s="159"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="158" t="s">
         <v>764</v>
       </c>
-      <c r="B10" s="160" t="s">
-        <v>762</v>
-      </c>
-      <c r="C10" s="160" t="s">
-        <v>748</v>
-      </c>
-      <c r="D10" s="160" t="s">
+      <c r="B11" s="159" t="s">
         <v>765</v>
       </c>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="159" t="s">
+      <c r="C11" s="159" t="s">
+        <v>746</v>
+      </c>
+      <c r="D11" s="159" t="s">
         <v>766</v>
       </c>
-      <c r="B11" s="160" t="s">
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="159"/>
+      <c r="T11" s="159"/>
+      <c r="U11" s="159"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="159"/>
+      <c r="Z11" s="159"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="158" t="s">
         <v>767</v>
       </c>
-      <c r="C11" s="160" t="s">
-        <v>748</v>
-      </c>
-      <c r="D11" s="160" t="s">
+      <c r="B12" s="159" t="s">
+        <v>765</v>
+      </c>
+      <c r="C12" s="159" t="s">
+        <v>746</v>
+      </c>
+      <c r="D12" s="159" t="s">
         <v>768</v>
       </c>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="160"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="159" t="s">
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="159"/>
+      <c r="T12" s="159"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="159"/>
+      <c r="X12" s="159"/>
+      <c r="Y12" s="159"/>
+      <c r="Z12" s="159"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="158" t="s">
         <v>769</v>
       </c>
-      <c r="B12" s="160" t="s">
-        <v>767</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>748</v>
-      </c>
-      <c r="D12" s="160" t="s">
+      <c r="B13" s="158" t="s">
+        <v>749</v>
+      </c>
+      <c r="C13" s="159" t="s">
+        <v>746</v>
+      </c>
+      <c r="D13" s="159" t="s">
         <v>770</v>
       </c>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="160"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="159" t="s">
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="159"/>
+      <c r="T13" s="159"/>
+      <c r="U13" s="159"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="159"/>
+      <c r="X13" s="159"/>
+      <c r="Y13" s="159"/>
+      <c r="Z13" s="159"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="158" t="s">
         <v>771</v>
       </c>
-      <c r="B13" s="159" t="s">
-        <v>751</v>
-      </c>
-      <c r="C13" s="160" t="s">
-        <v>748</v>
-      </c>
-      <c r="D13" s="160" t="s">
+      <c r="B14" s="158" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" s="159" t="s">
+        <v>746</v>
+      </c>
+      <c r="D14" s="159" t="s">
         <v>772</v>
       </c>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="159" t="s">
-        <v>773</v>
-      </c>
-      <c r="B14" s="159" t="s">
-        <v>751</v>
-      </c>
-      <c r="C14" s="160" t="s">
-        <v>748</v>
-      </c>
-      <c r="D14" s="160" t="s">
-        <v>774</v>
-      </c>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="159"/>
+      <c r="T14" s="159"/>
+      <c r="U14" s="159"/>
+      <c r="V14" s="159"/>
+      <c r="W14" s="159"/>
+      <c r="X14" s="159"/>
+      <c r="Y14" s="159"/>
+      <c r="Z14" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19320,52 +19270,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="161" t="s">
-        <v>740</v>
+      <c r="A1" s="160" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="142" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="142" t="s">
+        <v>741</v>
+      </c>
+      <c r="C2" s="142" t="s">
         <v>742</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="D2" s="142" t="s">
         <v>743</v>
-      </c>
-      <c r="C2" s="142" t="s">
-        <v>744</v>
-      </c>
-      <c r="D2" s="142" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="139" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B3" s="139" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="139" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B4" s="139" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="139" t="s">
+        <v>777</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>778</v>
+      </c>
+      <c r="C5" s="161" t="s">
+        <v>776</v>
+      </c>
+      <c r="D5" s="139" t="s">
         <v>779</v>
-      </c>
-      <c r="B5" s="139" t="s">
-        <v>780</v>
-      </c>
-      <c r="C5" s="162" t="s">
-        <v>778</v>
-      </c>
-      <c r="D5" s="139" t="s">
-        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="779">
   <si>
     <t>Field</t>
   </si>
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.2.0</t>
+    <t>6.2.1</t>
   </si>
   <si>
     <r>
@@ -4028,7 +4028,7 @@
     <t>Directive 2014/24/EU – In the case of framework agreements, provide justification for any duration exceeding 4 years</t>
   </si>
   <si>
-    <t>PROCEDURE/CRITERIA_EVALUATION</t>
+    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/JUSTIFICATION</t>
   </si>
   <si>
     <t>epo:Lot / epo:FrameworkAgreementTerm / rdf:langString</t>
@@ -4044,9 +4044,6 @@
   </si>
   <si>
     <t>Directive 2014/25/EU – In the case of framework agreements, provide justification for any duration exceeding 8 years:</t>
-  </si>
-  <si>
-    <t>MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/JUSTIFICATION</t>
   </si>
   <si>
     <t>VII.1.6</t>
@@ -13283,7 +13280,7 @@
       <c r="D134" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="E134" s="119" t="s">
+      <c r="E134" s="115" t="s">
         <v>559</v>
       </c>
       <c r="F134" s="49"/>
@@ -13312,8 +13309,8 @@
       <c r="D135" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="E135" s="115" t="s">
-        <v>565</v>
+      <c r="E135" s="119" t="s">
+        <v>559</v>
       </c>
       <c r="F135" s="49"/>
       <c r="G135" s="39" t="s">
@@ -13330,17 +13327,17 @@
     </row>
     <row r="136">
       <c r="A136" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="B136" s="47" t="s">
         <v>566</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>567</v>
       </c>
       <c r="C136" s="110" t="s">
         <v>316</v>
       </c>
       <c r="D136" s="110"/>
       <c r="E136" s="115" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F136" s="115"/>
       <c r="G136" s="36" t="s">
@@ -13355,7 +13352,7 @@
     </row>
     <row r="137">
       <c r="A137" s="63" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B137" s="55" t="s">
         <v>349</v>
@@ -13369,31 +13366,31 @@
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="63" t="s">
+        <v>570</v>
+      </c>
+      <c r="B138" s="55" t="s">
         <v>571</v>
       </c>
-      <c r="B138" s="55" t="s">
+      <c r="C138" s="120" t="s">
         <v>572</v>
       </c>
-      <c r="C138" s="120" t="s">
+      <c r="D138" s="120" t="s">
         <v>573</v>
       </c>
-      <c r="D138" s="120" t="s">
+      <c r="E138" s="121" t="s">
         <v>574</v>
-      </c>
-      <c r="E138" s="121" t="s">
-        <v>575</v>
       </c>
       <c r="F138" s="39"/>
       <c r="G138" s="4" t="s">
         <v>406</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -13401,7 +13398,7 @@
     </row>
     <row r="139">
       <c r="A139" s="63" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B139" s="55" t="s">
         <v>409</v>
@@ -13411,14 +13408,14 @@
       </c>
       <c r="D139" s="122"/>
       <c r="E139" s="121" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F139" s="39"/>
       <c r="G139" s="4" t="s">
         <v>412</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -13426,17 +13423,17 @@
     </row>
     <row r="140">
       <c r="A140" s="63" t="s">
+        <v>579</v>
+      </c>
+      <c r="B140" s="55" t="s">
         <v>580</v>
-      </c>
-      <c r="B140" s="55" t="s">
-        <v>581</v>
       </c>
       <c r="C140" s="120" t="s">
         <v>410</v>
       </c>
       <c r="D140" s="122"/>
       <c r="E140" s="121" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F140" s="39"/>
       <c r="G140" s="4" t="s">
@@ -13448,15 +13445,15 @@
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="B141" s="47" t="s">
         <v>584</v>
-      </c>
-      <c r="B141" s="47" t="s">
-        <v>585</v>
       </c>
       <c r="C141" s="113" t="s">
         <v>316</v>
@@ -13469,12 +13466,12 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="75" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>349</v>
@@ -13488,12 +13485,12 @@
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B143" s="55" t="s">
         <v>57</v>
@@ -13505,14 +13502,14 @@
         <v>59</v>
       </c>
       <c r="E143" s="121" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F143" s="121"/>
       <c r="G143" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>63</v>
@@ -13522,7 +13519,7 @@
     </row>
     <row r="144">
       <c r="A144" s="63" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B144" s="55" t="s">
         <v>65</v>
@@ -13534,14 +13531,14 @@
         <v>67</v>
       </c>
       <c r="E144" s="121" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F144" s="121"/>
       <c r="G144" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>71</v>
@@ -13551,7 +13548,7 @@
     </row>
     <row r="145">
       <c r="A145" s="63" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B145" s="55" t="s">
         <v>73</v>
@@ -13563,14 +13560,14 @@
         <v>75</v>
       </c>
       <c r="E145" s="121" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F145" s="121"/>
       <c r="G145" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
@@ -13578,7 +13575,7 @@
     </row>
     <row r="146">
       <c r="A146" s="63" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B146" s="55" t="s">
         <v>80</v>
@@ -13590,14 +13587,14 @@
         <v>82</v>
       </c>
       <c r="E146" s="121" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F146" s="121"/>
       <c r="G146" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -13605,7 +13602,7 @@
     </row>
     <row r="147">
       <c r="A147" s="63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B147" s="55" t="s">
         <v>86</v>
@@ -13617,26 +13614,26 @@
         <v>88</v>
       </c>
       <c r="E147" s="121" t="s">
+        <v>600</v>
+      </c>
+      <c r="F147" s="121" t="s">
         <v>601</v>
-      </c>
-      <c r="F147" s="121" t="s">
-        <v>602</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="63" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B148" s="55" t="s">
         <v>94</v>
@@ -13648,14 +13645,14 @@
         <v>368</v>
       </c>
       <c r="E148" s="121" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F148" s="121"/>
       <c r="G148" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -13663,7 +13660,7 @@
     </row>
     <row r="149">
       <c r="A149" s="63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B149" s="55" t="s">
         <v>101</v>
@@ -13675,14 +13672,14 @@
         <v>103</v>
       </c>
       <c r="E149" s="121" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F149" s="121"/>
       <c r="G149" s="4" t="s">
         <v>105</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -13690,7 +13687,7 @@
     </row>
     <row r="150">
       <c r="A150" s="63" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B150" s="55" t="s">
         <v>121</v>
@@ -13702,7 +13699,7 @@
         <v>110</v>
       </c>
       <c r="E150" s="121" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F150" s="121"/>
       <c r="G150" s="4" t="s">
@@ -13717,7 +13714,7 @@
     </row>
     <row r="151">
       <c r="A151" s="63" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B151" s="55" t="s">
         <v>115</v>
@@ -13729,7 +13726,7 @@
         <v>117</v>
       </c>
       <c r="E151" s="121" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F151" s="121"/>
       <c r="G151" s="4" t="s">
@@ -13744,10 +13741,10 @@
     </row>
     <row r="152">
       <c r="A152" s="63" t="s">
+        <v>614</v>
+      </c>
+      <c r="B152" s="55" t="s">
         <v>615</v>
-      </c>
-      <c r="B152" s="55" t="s">
-        <v>616</v>
       </c>
       <c r="C152" s="120" t="s">
         <v>122</v>
@@ -13756,14 +13753,14 @@
         <v>123</v>
       </c>
       <c r="E152" s="121" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F152" s="121"/>
       <c r="G152" s="4" t="s">
         <v>376</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -13771,7 +13768,7 @@
     </row>
     <row r="153">
       <c r="A153" s="63" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B153" s="55" t="s">
         <v>128</v>
@@ -13783,7 +13780,7 @@
         <v>130</v>
       </c>
       <c r="E153" s="121" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F153" s="121"/>
       <c r="G153" s="4" t="s">
@@ -13798,34 +13795,34 @@
     </row>
     <row r="154">
       <c r="A154" s="63" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B154" s="55" t="s">
         <v>390</v>
       </c>
       <c r="C154" s="120" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D154" s="122"/>
       <c r="E154" s="121" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F154" s="39"/>
       <c r="G154" s="4" t="s">
         <v>394</v>
       </c>
       <c r="H154" s="95" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="77" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B155" s="78" t="s">
         <v>390</v>
@@ -13833,14 +13830,14 @@
       <c r="C155" s="120"/>
       <c r="D155" s="122"/>
       <c r="E155" s="119" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F155" s="39"/>
       <c r="G155" s="43" t="s">
         <v>394</v>
       </c>
       <c r="H155" s="124" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -13848,10 +13845,10 @@
     </row>
     <row r="156">
       <c r="A156" s="83" t="s">
+        <v>625</v>
+      </c>
+      <c r="B156" s="38" t="s">
         <v>626</v>
-      </c>
-      <c r="B156" s="38" t="s">
-        <v>627</v>
       </c>
       <c r="C156" s="110" t="s">
         <v>316</v>
@@ -13867,24 +13864,24 @@
     </row>
     <row r="157">
       <c r="A157" s="48" t="s">
+        <v>627</v>
+      </c>
+      <c r="B157" s="47" t="s">
         <v>628</v>
-      </c>
-      <c r="B157" s="47" t="s">
-        <v>629</v>
       </c>
       <c r="C157" s="120" t="s">
         <v>316</v>
       </c>
       <c r="D157" s="122"/>
       <c r="E157" s="121" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F157" s="121"/>
       <c r="G157" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="H157" s="117" t="s">
         <v>631</v>
-      </c>
-      <c r="H157" s="117" t="s">
-        <v>632</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -13892,26 +13889,26 @@
     </row>
     <row r="158">
       <c r="A158" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="B158" s="55" t="s">
         <v>633</v>
       </c>
-      <c r="B158" s="55" t="s">
+      <c r="C158" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="C158" s="120" t="s">
+      <c r="D158" s="120" t="s">
         <v>635</v>
       </c>
-      <c r="D158" s="120" t="s">
+      <c r="E158" s="121" t="s">
         <v>636</v>
-      </c>
-      <c r="E158" s="121" t="s">
-        <v>637</v>
       </c>
       <c r="F158" s="121"/>
       <c r="G158" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H158" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -13919,10 +13916,10 @@
     </row>
     <row r="159">
       <c r="A159" s="48" t="s">
+        <v>639</v>
+      </c>
+      <c r="B159" s="47" t="s">
         <v>640</v>
-      </c>
-      <c r="B159" s="47" t="s">
-        <v>641</v>
       </c>
       <c r="C159" s="120" t="s">
         <v>316</v>
@@ -13938,26 +13935,26 @@
     </row>
     <row r="160">
       <c r="A160" s="63" t="s">
+        <v>641</v>
+      </c>
+      <c r="B160" s="55" t="s">
         <v>642</v>
       </c>
-      <c r="B160" s="55" t="s">
+      <c r="C160" s="120" t="s">
         <v>643</v>
       </c>
-      <c r="C160" s="120" t="s">
+      <c r="D160" s="120" t="s">
         <v>644</v>
       </c>
-      <c r="D160" s="120" t="s">
+      <c r="E160" s="121" t="s">
         <v>645</v>
-      </c>
-      <c r="E160" s="121" t="s">
-        <v>646</v>
       </c>
       <c r="F160" s="121"/>
       <c r="G160" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="H160" s="125" t="s">
         <v>647</v>
-      </c>
-      <c r="H160" s="125" t="s">
-        <v>648</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -13965,26 +13962,26 @@
     </row>
     <row r="161">
       <c r="A161" s="63" t="s">
+        <v>648</v>
+      </c>
+      <c r="B161" s="73" t="s">
         <v>649</v>
       </c>
-      <c r="B161" s="73" t="s">
+      <c r="C161" s="120" t="s">
         <v>650</v>
       </c>
-      <c r="C161" s="120" t="s">
+      <c r="D161" s="120" t="s">
         <v>651</v>
       </c>
-      <c r="D161" s="120" t="s">
-        <v>652</v>
-      </c>
       <c r="E161" s="118" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F161" s="126"/>
       <c r="G161" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
@@ -13992,26 +13989,26 @@
     </row>
     <row r="162">
       <c r="A162" s="63" t="s">
+        <v>653</v>
+      </c>
+      <c r="B162" s="73" t="s">
         <v>654</v>
       </c>
-      <c r="B162" s="73" t="s">
+      <c r="C162" s="120" t="s">
+        <v>643</v>
+      </c>
+      <c r="D162" s="120" t="s">
+        <v>644</v>
+      </c>
+      <c r="E162" s="126" t="s">
         <v>655</v>
-      </c>
-      <c r="C162" s="120" t="s">
-        <v>644</v>
-      </c>
-      <c r="D162" s="120" t="s">
-        <v>645</v>
-      </c>
-      <c r="E162" s="126" t="s">
-        <v>656</v>
       </c>
       <c r="F162" s="126"/>
       <c r="G162" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H162" s="127" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
@@ -14019,26 +14016,26 @@
     </row>
     <row r="163">
       <c r="A163" s="63" t="s">
+        <v>657</v>
+      </c>
+      <c r="B163" s="73" t="s">
         <v>658</v>
       </c>
-      <c r="B163" s="73" t="s">
-        <v>659</v>
-      </c>
       <c r="C163" s="120" t="s">
+        <v>650</v>
+      </c>
+      <c r="D163" s="120" t="s">
         <v>651</v>
       </c>
-      <c r="D163" s="120" t="s">
-        <v>652</v>
-      </c>
       <c r="E163" s="118" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F163" s="126"/>
       <c r="G163" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H163" s="128" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -14046,10 +14043,10 @@
     </row>
     <row r="164">
       <c r="A164" s="48" t="s">
+        <v>659</v>
+      </c>
+      <c r="B164" s="62" t="s">
         <v>660</v>
-      </c>
-      <c r="B164" s="62" t="s">
-        <v>661</v>
       </c>
       <c r="C164" s="120" t="s">
         <v>316</v>
@@ -14065,7 +14062,7 @@
     </row>
     <row r="165">
       <c r="A165" s="63" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B165" s="73" t="s">
         <v>349</v>
@@ -14079,29 +14076,29 @@
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="63" t="s">
+        <v>662</v>
+      </c>
+      <c r="B166" s="73" t="s">
         <v>663</v>
       </c>
-      <c r="B166" s="73" t="s">
-        <v>664</v>
-      </c>
       <c r="C166" s="129" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D166" s="130"/>
       <c r="E166" s="131" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F166" s="131"/>
       <c r="G166" s="132" t="s">
         <v>406</v>
       </c>
       <c r="H166" s="132" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
@@ -14109,7 +14106,7 @@
     </row>
     <row r="167">
       <c r="A167" s="63" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B167" s="73" t="s">
         <v>409</v>
@@ -14119,14 +14116,14 @@
       </c>
       <c r="D167" s="130"/>
       <c r="E167" s="131" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F167" s="131"/>
       <c r="G167" s="132" t="s">
         <v>412</v>
       </c>
       <c r="H167" s="132" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -14134,24 +14131,24 @@
     </row>
     <row r="168">
       <c r="A168" s="63" t="s">
+        <v>669</v>
+      </c>
+      <c r="B168" s="73" t="s">
         <v>670</v>
       </c>
-      <c r="B168" s="73" t="s">
-        <v>671</v>
-      </c>
       <c r="C168" s="129" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D168" s="130"/>
       <c r="E168" s="131" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F168" s="131"/>
       <c r="G168" s="132" t="s">
         <v>406</v>
       </c>
       <c r="H168" s="132" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -14159,7 +14156,7 @@
     </row>
     <row r="169">
       <c r="A169" s="63" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B169" s="73" t="s">
         <v>409</v>
@@ -14169,14 +14166,14 @@
       </c>
       <c r="D169" s="130"/>
       <c r="E169" s="131" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F169" s="131"/>
       <c r="G169" s="132" t="s">
         <v>412</v>
       </c>
       <c r="H169" s="132" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -14279,22 +14276,22 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="C2" s="74" t="s">
         <v>678</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="D2" s="74" t="s">
         <v>679</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="E2" s="39" t="s">
         <v>680</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="F2" s="39" t="s">
         <v>681</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="3">
@@ -14309,15 +14306,15 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="39" t="s">
+        <v>682</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>683</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="135" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B4" s="132" t="s">
         <v>349</v>
@@ -14325,10 +14322,10 @@
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="F4" s="136" t="s">
         <v>686</v>
-      </c>
-      <c r="F4" s="136" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="5">
@@ -14345,10 +14342,10 @@
         <v>392</v>
       </c>
       <c r="E5" s="39" t="s">
+        <v>687</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>688</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>689</v>
       </c>
       <c r="G5" s="137"/>
       <c r="H5" s="137"/>
@@ -14381,10 +14378,10 @@
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
       <c r="E6" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>690</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>691</v>
       </c>
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
@@ -14409,50 +14406,50 @@
     </row>
     <row r="7">
       <c r="A7" s="72" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
       <c r="E7" s="132" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="72" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C8" s="72"/>
       <c r="D8" s="72"/>
       <c r="E8" s="132" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F8" s="132" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="135" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="131" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F9" s="132" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10">
@@ -18445,36 +18442,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="138" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2" s="139" t="s">
         <v>696</v>
-      </c>
-      <c r="B2" s="139" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="140" t="s">
+        <v>697</v>
+      </c>
+      <c r="B3" s="139" t="s">
         <v>698</v>
-      </c>
-      <c r="B3" s="139" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="141" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="142" t="s">
+        <v>700</v>
+      </c>
+      <c r="B6" s="139" t="s">
         <v>701</v>
-      </c>
-      <c r="B6" s="139" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="139" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8">
@@ -18485,41 +18482,41 @@
     </row>
     <row r="10">
       <c r="A10" s="142" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="142" t="s">
+        <v>704</v>
+      </c>
+      <c r="B11" s="143" t="s">
         <v>705</v>
-      </c>
-      <c r="B11" s="143" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="144" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="145"/>
       <c r="B13" s="146" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="147" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="148" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="149" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17">
@@ -18528,24 +18525,24 @@
     </row>
     <row r="18">
       <c r="A18" s="142" t="s">
+        <v>711</v>
+      </c>
+      <c r="B18" s="150" t="s">
         <v>712</v>
-      </c>
-      <c r="B18" s="150" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B19" s="151"/>
     </row>
     <row r="21">
       <c r="A21" s="142" t="s">
+        <v>714</v>
+      </c>
+      <c r="B21" s="152" t="s">
         <v>715</v>
-      </c>
-      <c r="B21" s="152" t="s">
-        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -18571,52 +18568,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="153" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="153" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11">
@@ -18645,65 +18642,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B1" s="154" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>728</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="139" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="139" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="155" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B10" s="7"/>
     </row>
@@ -18748,10 +18745,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="156" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1" s="156" t="s">
         <v>738</v>
-      </c>
-      <c r="C1" s="156" t="s">
-        <v>739</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -18778,16 +18775,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -18814,13 +18811,13 @@
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>744</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="C3" s="4" t="s">
         <v>745</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>746</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -18851,13 +18848,13 @@
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>745</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>746</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -18888,13 +18885,13 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>748</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>749</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -18922,16 +18919,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>751</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>752</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -18958,16 +18955,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D7" s="157" t="s">
         <v>754</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="D7" s="157" t="s">
-        <v>755</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -18994,16 +18991,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>758</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -19030,16 +19027,16 @@
     </row>
     <row r="9">
       <c r="A9" s="158" t="s">
+        <v>758</v>
+      </c>
+      <c r="B9" s="159" t="s">
         <v>759</v>
       </c>
-      <c r="B9" s="159" t="s">
+      <c r="C9" s="159" t="s">
+        <v>745</v>
+      </c>
+      <c r="D9" s="159" t="s">
         <v>760</v>
-      </c>
-      <c r="C9" s="159" t="s">
-        <v>746</v>
-      </c>
-      <c r="D9" s="159" t="s">
-        <v>761</v>
       </c>
       <c r="E9" s="159"/>
       <c r="F9" s="159"/>
@@ -19066,16 +19063,16 @@
     </row>
     <row r="10">
       <c r="A10" s="158" t="s">
+        <v>761</v>
+      </c>
+      <c r="B10" s="159" t="s">
+        <v>759</v>
+      </c>
+      <c r="C10" s="159" t="s">
+        <v>745</v>
+      </c>
+      <c r="D10" s="159" t="s">
         <v>762</v>
-      </c>
-      <c r="B10" s="159" t="s">
-        <v>760</v>
-      </c>
-      <c r="C10" s="159" t="s">
-        <v>746</v>
-      </c>
-      <c r="D10" s="159" t="s">
-        <v>763</v>
       </c>
       <c r="E10" s="159"/>
       <c r="F10" s="159"/>
@@ -19102,16 +19099,16 @@
     </row>
     <row r="11">
       <c r="A11" s="158" t="s">
+        <v>763</v>
+      </c>
+      <c r="B11" s="159" t="s">
         <v>764</v>
       </c>
-      <c r="B11" s="159" t="s">
+      <c r="C11" s="159" t="s">
+        <v>745</v>
+      </c>
+      <c r="D11" s="159" t="s">
         <v>765</v>
-      </c>
-      <c r="C11" s="159" t="s">
-        <v>746</v>
-      </c>
-      <c r="D11" s="159" t="s">
-        <v>766</v>
       </c>
       <c r="E11" s="159"/>
       <c r="F11" s="159"/>
@@ -19138,16 +19135,16 @@
     </row>
     <row r="12">
       <c r="A12" s="158" t="s">
+        <v>766</v>
+      </c>
+      <c r="B12" s="159" t="s">
+        <v>764</v>
+      </c>
+      <c r="C12" s="159" t="s">
+        <v>745</v>
+      </c>
+      <c r="D12" s="159" t="s">
         <v>767</v>
-      </c>
-      <c r="B12" s="159" t="s">
-        <v>765</v>
-      </c>
-      <c r="C12" s="159" t="s">
-        <v>746</v>
-      </c>
-      <c r="D12" s="159" t="s">
-        <v>768</v>
       </c>
       <c r="E12" s="159"/>
       <c r="F12" s="159"/>
@@ -19174,16 +19171,16 @@
     </row>
     <row r="13">
       <c r="A13" s="158" t="s">
+        <v>768</v>
+      </c>
+      <c r="B13" s="158" t="s">
+        <v>748</v>
+      </c>
+      <c r="C13" s="159" t="s">
+        <v>745</v>
+      </c>
+      <c r="D13" s="159" t="s">
         <v>769</v>
-      </c>
-      <c r="B13" s="158" t="s">
-        <v>749</v>
-      </c>
-      <c r="C13" s="159" t="s">
-        <v>746</v>
-      </c>
-      <c r="D13" s="159" t="s">
-        <v>770</v>
       </c>
       <c r="E13" s="159"/>
       <c r="F13" s="159"/>
@@ -19210,16 +19207,16 @@
     </row>
     <row r="14">
       <c r="A14" s="158" t="s">
+        <v>770</v>
+      </c>
+      <c r="B14" s="158" t="s">
+        <v>748</v>
+      </c>
+      <c r="C14" s="159" t="s">
+        <v>745</v>
+      </c>
+      <c r="D14" s="159" t="s">
         <v>771</v>
-      </c>
-      <c r="B14" s="158" t="s">
-        <v>749</v>
-      </c>
-      <c r="C14" s="159" t="s">
-        <v>746</v>
-      </c>
-      <c r="D14" s="159" t="s">
-        <v>772</v>
       </c>
       <c r="E14" s="159"/>
       <c r="F14" s="159"/>
@@ -19271,51 +19268,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="160" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="142" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2" s="142" t="s">
         <v>740</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="C2" s="142" t="s">
         <v>741</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="D2" s="142" t="s">
         <v>742</v>
-      </c>
-      <c r="D2" s="142" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="139" t="s">
+        <v>772</v>
+      </c>
+      <c r="B3" s="139" t="s">
         <v>773</v>
-      </c>
-      <c r="B3" s="139" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="139" t="s">
+        <v>774</v>
+      </c>
+      <c r="B4" s="139" t="s">
         <v>775</v>
-      </c>
-      <c r="B4" s="139" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="139" t="s">
+        <v>776</v>
+      </c>
+      <c r="B5" s="139" t="s">
         <v>777</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="C5" s="161" t="s">
+        <v>775</v>
+      </c>
+      <c r="D5" s="139" t="s">
         <v>778</v>
-      </c>
-      <c r="C5" s="161" t="s">
-        <v>776</v>
-      </c>
-      <c r="D5" s="139" t="s">
-        <v>779</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.2.1</t>
+    <t>6.4.0</t>
   </si>
   <si>
     <r>
@@ -734,7 +734,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -788,7 +788,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -848,7 +848,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -905,7 +905,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -962,7 +962,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -2424,7 +2424,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -2470,7 +2470,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -2520,7 +2520,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -2569,7 +2569,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -2615,7 +2615,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3009,7 +3009,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -3054,7 +3054,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -3099,7 +3099,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3144,7 +3144,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3289,7 +3289,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -3334,7 +3334,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -3379,7 +3379,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3424,7 +3424,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3589,7 +3589,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -3631,7 +3631,7 @@
       <rPr>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -3674,7 +3674,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3719,7 +3719,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4201,7 +4201,7 @@
 MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / locn:thoroughfare ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / locn:thoroughfare ?value .</t>
   </si>
   <si>
     <t>VII.1.7.4</t>
@@ -4211,7 +4211,7 @@
 MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / locn:postName ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / locn:postName ?value .</t>
   </si>
   <si>
     <t>VII.1.7.5</t>
@@ -4225,7 +4225,7 @@
 MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?value .</t>
   </si>
   <si>
     <t>Deloitte XPath: TED_EXPORT/FORM_SECTION/F20_2014/MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/*:NUTS/@CODE</t>
@@ -4238,7 +4238,7 @@
 MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / locn:postCode ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / locn:postCode ?value .</t>
   </si>
   <si>
     <t>VII.1.7.7</t>
@@ -4248,7 +4248,7 @@
 MODIFICATIONS_CONTRACT/DESCRIPTION_PROCUREMENT/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
   </si>
   <si>
-    <t>?this epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?value .</t>
+    <t>?this epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?value .</t>
   </si>
   <si>
     <t>VII.1.7.8</t>

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.5.1</t>
+    <t>6.6.0</t>
   </si>
   <si>
     <r>
@@ -477,7 +477,7 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>2020-10-08</t>
+    <t>2014-01-01</t>
   </si>
   <si>
     <t>one value, or empty cell</t>
@@ -489,7 +489,7 @@
     <t>Min XSD Version</t>
   </si>
   <si>
-    <t>R2.0.9.S03.E01</t>
+    <t>R2.0.9.S01.E01</t>
   </si>
   <si>
     <t>This fiels to be checked and updated if necessary</t>
@@ -6250,7 +6250,7 @@
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="20" t="s">

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -5027,6 +5027,12 @@
     </font>
     <font/>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5121,12 +5127,6 @@
     </font>
     <font>
       <color rgb="FFB7B7B7"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -5265,7 +5265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -5312,6 +5312,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -5326,20 +5329,6 @@
     </border>
     <border>
       <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -5429,8 +5418,8 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -5447,7 +5436,7 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5492,7 +5481,7 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -5568,22 +5557,22 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -5595,10 +5584,10 @@
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5622,10 +5611,10 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5640,7 +5629,7 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -5655,25 +5644,25 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5682,60 +5671,60 @@
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5747,20 +5736,20 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">

--- a/mappings/package_F20/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F20/transformation/conceptual_mappings.xlsx
@@ -398,7 +398,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.7.3</t>
+    <t>6.8.1</t>
   </si>
   <si>
     <r>
